--- a/iran/transformations/templates/calibrated/iran/model_input_variables_iran_ip_calibrated.xlsx
+++ b/iran/transformations/templates/calibrated/iran/model_input_variables_iran_ip_calibrated.xlsx
@@ -4253,97 +4253,97 @@
         <v>2.01480126814801E-07</v>
       </c>
       <c r="O27">
-        <v>1.824664572257305E-07</v>
+        <v>1.8246645722573E-07</v>
       </c>
       <c r="P27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="Q27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="R27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="S27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="T27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="U27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="V27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="W27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="X27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="Y27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="Z27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AA27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AB27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AC27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AD27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AE27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AF27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AG27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AH27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AI27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AJ27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AK27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AL27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AM27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AN27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AO27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AP27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AQ27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AR27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="AS27">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -4363,112 +4363,112 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.3329991744695239</v>
+        <v>0.332999174469524</v>
       </c>
       <c r="K28">
-        <v>0.3906730071184023</v>
+        <v>0.390673007118402</v>
       </c>
       <c r="L28">
-        <v>0.4587774456673963</v>
+        <v>0.458777445667396</v>
       </c>
       <c r="M28">
-        <v>0.5428816592819788</v>
+        <v>0.542881659281979</v>
       </c>
       <c r="N28">
-        <v>0.5457710763426316</v>
+        <v>0.545771076342632</v>
       </c>
       <c r="O28">
-        <v>0.5486914150732553</v>
+        <v>0.548691415073255</v>
       </c>
       <c r="P28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="Q28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="R28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="S28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="T28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="U28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="V28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="W28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="X28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="Y28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="Z28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AA28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AB28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AC28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AD28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AE28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AF28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AG28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AH28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AI28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AJ28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AK28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AL28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AM28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AN28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AO28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AP28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AQ28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AR28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="AS28">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -4610,112 +4610,112 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.2257796223730455</v>
+        <v>0.225779622373045</v>
       </c>
       <c r="K30">
-        <v>0.2516155903748475</v>
+        <v>0.251615590374847</v>
       </c>
       <c r="L30">
-        <v>0.2764498190290392</v>
+        <v>0.276449819029039</v>
       </c>
       <c r="M30">
-        <v>0.3052915830431094</v>
+        <v>0.305291583043109</v>
       </c>
       <c r="N30">
-        <v>0.3069164578080537</v>
+        <v>0.306916457808054</v>
       </c>
       <c r="O30">
-        <v>0.3085587214926906</v>
+        <v>0.308558721492691</v>
       </c>
       <c r="P30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Q30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="R30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="S30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="T30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="U30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="V30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="W30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="X30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Y30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Z30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AA30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AB30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AC30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AD30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AE30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AF30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AG30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AH30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AI30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AJ30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AK30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AL30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AM30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AN30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AO30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AP30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AQ30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AR30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AS30">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -4735,112 +4735,112 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.2257796223730455</v>
+        <v>0.225779622373045</v>
       </c>
       <c r="K31">
-        <v>0.2516155903748475</v>
+        <v>0.251615590374847</v>
       </c>
       <c r="L31">
-        <v>0.2764498190290392</v>
+        <v>0.276449819029039</v>
       </c>
       <c r="M31">
-        <v>0.3052915830431094</v>
+        <v>0.305291583043109</v>
       </c>
       <c r="N31">
-        <v>0.3069164578080537</v>
+        <v>0.306916457808054</v>
       </c>
       <c r="O31">
-        <v>0.3085587214926906</v>
+        <v>0.308558721492691</v>
       </c>
       <c r="P31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Q31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="R31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="S31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="T31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="U31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="V31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="W31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="X31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Y31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Z31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AA31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AB31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AC31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AD31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AE31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AF31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AG31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AH31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AI31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AJ31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AK31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AL31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AM31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AN31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AO31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AP31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AQ31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AR31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="AS31">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -5473,22 +5473,22 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.1615743941938774</v>
+        <v>0.161574394193877</v>
       </c>
       <c r="K37">
-        <v>0.1677973576807739</v>
+        <v>0.167797357680774</v>
       </c>
       <c r="L37">
-        <v>0.1858845573122886</v>
+        <v>0.185884557312289</v>
       </c>
       <c r="M37">
-        <v>0.1976337643049704</v>
+        <v>0.19763376430497</v>
       </c>
       <c r="N37">
-        <v>0.1986856443244558</v>
+        <v>0.198685644324456</v>
       </c>
       <c r="O37">
-        <v>0.1997487812466759</v>
+        <v>0.199748781246676</v>
       </c>
       <c r="P37">
         <v>0.191151657321104</v>
@@ -5598,22 +5598,22 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.1615743941938774</v>
+        <v>0.161574394193877</v>
       </c>
       <c r="K38">
-        <v>0.1677973576807739</v>
+        <v>0.167797357680774</v>
       </c>
       <c r="L38">
-        <v>0.1858845573122886</v>
+        <v>0.185884557312289</v>
       </c>
       <c r="M38">
-        <v>0.1976337643049704</v>
+        <v>0.19763376430497</v>
       </c>
       <c r="N38">
-        <v>0.1986856443244558</v>
+        <v>0.198685644324456</v>
       </c>
       <c r="O38">
-        <v>0.1997487812466759</v>
+        <v>0.199748781246676</v>
       </c>
       <c r="P38">
         <v>0.191151657321104</v>
@@ -6586,112 +6586,112 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0.1176790032321918</v>
+        <v>0.117679003232192</v>
       </c>
       <c r="K46">
-        <v>0.1218579433136033</v>
+        <v>0.121857943313603</v>
       </c>
       <c r="L46">
-        <v>0.1291790415118761</v>
+        <v>0.129179041511876</v>
       </c>
       <c r="M46">
-        <v>0.1406359555811563</v>
+        <v>0.140635955581156</v>
       </c>
       <c r="N46">
-        <v>0.1413844721730316</v>
+        <v>0.141384472173032</v>
       </c>
       <c r="O46">
         <v>0.14214099916373</v>
       </c>
       <c r="P46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="Q46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="R46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="S46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="T46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="U46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="V46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="W46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="X46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="Y46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="Z46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AA46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AB46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AC46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AD46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AE46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AF46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AG46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AH46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AI46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AJ46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AK46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AL46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AM46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AN46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AO46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AP46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AQ46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AR46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="AS46">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
     </row>
     <row r="47" spans="1:45">
@@ -8062,109 +8062,109 @@
         <v>8.33281081754115E-07</v>
       </c>
       <c r="K58">
-        <v>6.568975162066164E-07</v>
+        <v>6.56897516206616E-07</v>
       </c>
       <c r="L58">
-        <v>5.567354013282249E-07</v>
+        <v>5.56735401328225E-07</v>
       </c>
       <c r="M58">
-        <v>8.037602737132051E-07</v>
+        <v>8.037602737132049E-07</v>
       </c>
       <c r="N58">
-        <v>1.660178012224008E-06</v>
+        <v>1.66017801222401E-06</v>
       </c>
       <c r="O58">
-        <v>1.503507095431889E-06</v>
+        <v>1.50350709543189E-06</v>
       </c>
       <c r="P58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="Q58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="R58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="S58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="T58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="U58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="V58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="W58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="X58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="Y58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="Z58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AA58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AB58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AC58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AD58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AE58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AF58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AG58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AH58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AI58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AJ58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AK58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AL58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AM58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AN58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AO58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AP58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AQ58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AR58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="AS58">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
     </row>
     <row r="59" spans="1:45">
@@ -8184,112 +8184,112 @@
         <v>1</v>
       </c>
       <c r="J59">
-        <v>0.1271533873611312</v>
+        <v>0.127153387361131</v>
       </c>
       <c r="K59">
-        <v>0.1278195087035352</v>
+        <v>0.127819508703535</v>
       </c>
       <c r="L59">
         <v>0.128492646050898</v>
       </c>
       <c r="M59">
-        <v>0.1291729108354591</v>
+        <v>0.129172910835459</v>
       </c>
       <c r="N59">
-        <v>0.1298604168617923</v>
+        <v>0.129860416861792</v>
       </c>
       <c r="O59">
-        <v>0.1305552803702761</v>
+        <v>0.130555280370276</v>
       </c>
       <c r="P59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="Q59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="R59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="S59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="T59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="U59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="V59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="W59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="X59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="Y59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="Z59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AA59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AB59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AC59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AD59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AE59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AF59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AG59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AH59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AI59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AJ59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AK59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AL59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AM59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AN59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AO59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AP59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AQ59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AR59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="AS59">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
     </row>
     <row r="60" spans="1:45">
@@ -9779,109 +9779,109 @@
         <v>1.26628825388036</v>
       </c>
       <c r="K72">
-        <v>1.494125521989148</v>
+        <v>1.49412552198915</v>
       </c>
       <c r="L72">
-        <v>1.692547742384493</v>
+        <v>1.69254774238449</v>
       </c>
       <c r="M72">
-        <v>1.945772166554108</v>
+        <v>1.94577216655411</v>
       </c>
       <c r="N72">
-        <v>1.956128285973616</v>
+        <v>1.95612828597362</v>
       </c>
       <c r="O72">
-        <v>1.966595233459874</v>
+        <v>1.96659523345987</v>
       </c>
       <c r="P72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Q72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="R72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="S72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="T72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="U72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="V72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="W72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="X72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Y72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Z72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AA72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AB72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AC72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AD72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AE72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AF72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AG72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AH72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AI72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AJ72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AK72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AL72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AM72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AN72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AO72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AP72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AQ72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AR72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AS72">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
     </row>
     <row r="73" spans="1:45">
@@ -9904,109 +9904,109 @@
         <v>1.26628825388036</v>
       </c>
       <c r="K73">
-        <v>1.494125521989148</v>
+        <v>1.49412552198915</v>
       </c>
       <c r="L73">
-        <v>1.692547742384493</v>
+        <v>1.69254774238449</v>
       </c>
       <c r="M73">
-        <v>1.945772166554108</v>
+        <v>1.94577216655411</v>
       </c>
       <c r="N73">
-        <v>1.956128285973616</v>
+        <v>1.95612828597362</v>
       </c>
       <c r="O73">
-        <v>1.966595233459874</v>
+        <v>1.96659523345987</v>
       </c>
       <c r="P73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Q73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="R73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="S73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="T73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="U73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="V73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="W73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="X73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Y73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Z73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AA73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AB73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AC73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AD73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AE73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AF73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AG73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AH73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AI73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AJ73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AK73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AL73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AM73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AN73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AO73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AP73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AQ73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AR73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="AS73">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
     </row>
     <row r="74" spans="1:45">
@@ -12603,112 +12603,112 @@
         <v>1</v>
       </c>
       <c r="J95">
-        <v>3.948650528918899E-06</v>
+        <v>3.9486505289189E-06</v>
       </c>
       <c r="K95">
-        <v>3.252381701266016E-06</v>
+        <v>3.25238170126602E-06</v>
       </c>
       <c r="L95">
-        <v>3.463337124126633E-06</v>
+        <v>3.46333712412663E-06</v>
       </c>
       <c r="M95">
-        <v>5.543055462793755E-06</v>
+        <v>5.54305546279376E-06</v>
       </c>
       <c r="N95">
-        <v>7.026458730586229E-06</v>
+        <v>7.02645873058623E-06</v>
       </c>
       <c r="O95">
-        <v>6.241665436215186E-06</v>
+        <v>6.24166543621519E-06</v>
       </c>
       <c r="P95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="Q95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="R95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="S95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="T95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="U95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="V95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="W95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="X95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="Y95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="Z95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AA95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AB95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AC95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AD95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AE95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AF95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AG95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AH95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AI95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AJ95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AK95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AL95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AM95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AN95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AO95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AP95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AQ95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AR95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
       <c r="AS95">
-        <v>5.556526452051273E-06</v>
+        <v>5.55652645205127E-06</v>
       </c>
     </row>
     <row r="96" spans="1:45">
@@ -17025,100 +17025,100 @@
         <v>-6253230</v>
       </c>
       <c r="N131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="O131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="P131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="Q131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="R131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="S131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="T131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="U131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="V131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="W131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="X131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="Y131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="Z131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AA131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AB131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AC131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AD131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AE131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AF131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AG131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AH131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AI131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AJ131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AK131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AL131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AM131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AN131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AO131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AP131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AQ131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AR131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
       <c r="AS131">
-        <v>-3616475.859714286</v>
+        <v>-3616475.85971429</v>
       </c>
     </row>
     <row r="132" spans="1:45">
@@ -17135,16 +17135,16 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <v>58214962.75700001</v>
+        <v>58214962.757</v>
       </c>
       <c r="K132">
         <v>55527134.67</v>
       </c>
       <c r="L132">
-        <v>55986756.65099999</v>
+        <v>55986756.651</v>
       </c>
       <c r="M132">
-        <v>56905760.07600001</v>
+        <v>56905760.076</v>
       </c>
       <c r="N132">
         <v>61665375.218</v>
@@ -26635,37 +26635,37 @@
         <v>2.01480126814801E-07</v>
       </c>
       <c r="O22">
-        <v>1.824664572257305E-07</v>
+        <v>1.8246645722573E-07</v>
       </c>
       <c r="P22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="Q22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="R22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="S22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="T22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="U22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="V22">
-        <v>1.41228073799534E-07</v>
+        <v>1.412280737995339E-07</v>
       </c>
       <c r="W22">
-        <v>1.357256813138378E-07</v>
+        <v>1.357256813138377E-07</v>
       </c>
       <c r="X22">
-        <v>1.302232888281417E-07</v>
+        <v>1.302232888281416E-07</v>
       </c>
       <c r="Y22">
-        <v>1.247208963424456E-07</v>
+        <v>1.247208963424455E-07</v>
       </c>
       <c r="Z22">
         <v>1.192185038567494E-07</v>
@@ -26674,58 +26674,58 @@
         <v>1.137161113710533E-07</v>
       </c>
       <c r="AB22">
-        <v>1.082137188853572E-07</v>
+        <v>1.082137188853571E-07</v>
       </c>
       <c r="AC22">
-        <v>1.027113263996611E-07</v>
+        <v>1.02711326399661E-07</v>
       </c>
       <c r="AD22">
-        <v>9.720893391396494E-08</v>
+        <v>9.720893391396487E-08</v>
       </c>
       <c r="AE22">
-        <v>9.170654142826881E-08</v>
+        <v>9.170654142826874E-08</v>
       </c>
       <c r="AF22">
-        <v>8.620414894257269E-08</v>
+        <v>8.620414894257263E-08</v>
       </c>
       <c r="AG22">
-        <v>8.070175645687655E-08</v>
+        <v>8.07017564568765E-08</v>
       </c>
       <c r="AH22">
-        <v>7.519936397118044E-08</v>
+        <v>7.519936397118037E-08</v>
       </c>
       <c r="AI22">
-        <v>6.969697148548429E-08</v>
+        <v>6.969697148548425E-08</v>
       </c>
       <c r="AJ22">
-        <v>6.419457899978817E-08</v>
+        <v>6.419457899978813E-08</v>
       </c>
       <c r="AK22">
-        <v>5.869218651409204E-08</v>
+        <v>5.8692186514092E-08</v>
       </c>
       <c r="AL22">
-        <v>5.318979402839591E-08</v>
+        <v>5.318979402839587E-08</v>
       </c>
       <c r="AM22">
-        <v>4.768740154269979E-08</v>
+        <v>4.768740154269975E-08</v>
       </c>
       <c r="AN22">
-        <v>4.218500905700366E-08</v>
+        <v>4.218500905700363E-08</v>
       </c>
       <c r="AO22">
-        <v>3.668261657130752E-08</v>
+        <v>3.668261657130749E-08</v>
       </c>
       <c r="AP22">
-        <v>3.11802240856114E-08</v>
+        <v>3.118022408561138E-08</v>
       </c>
       <c r="AQ22">
-        <v>2.567783159991527E-08</v>
+        <v>2.567783159991526E-08</v>
       </c>
       <c r="AR22">
-        <v>2.017543911421914E-08</v>
+        <v>2.017543911421912E-08</v>
       </c>
       <c r="AS22">
-        <v>1.467304662852301E-08</v>
+        <v>1.4673046628523E-08</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -26745,112 +26745,112 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.3329991744695239</v>
+        <v>0.332999174469524</v>
       </c>
       <c r="K23">
-        <v>0.3906730071184023</v>
+        <v>0.390673007118402</v>
       </c>
       <c r="L23">
-        <v>0.4587774456673963</v>
+        <v>0.458777445667396</v>
       </c>
       <c r="M23">
-        <v>0.5428816592819788</v>
+        <v>0.542881659281979</v>
       </c>
       <c r="N23">
-        <v>0.5457710763426316</v>
+        <v>0.545771076342632</v>
       </c>
       <c r="O23">
-        <v>0.5486914150732553</v>
+        <v>0.548691415073255</v>
       </c>
       <c r="P23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="Q23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="R23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="S23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="T23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="U23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="V23">
-        <v>0.4875050451019559</v>
+        <v>0.4875050451019557</v>
       </c>
       <c r="W23">
-        <v>0.4685113420460355</v>
+        <v>0.4685113420460353</v>
       </c>
       <c r="X23">
-        <v>0.4495176389901152</v>
+        <v>0.449517638990115</v>
       </c>
       <c r="Y23">
-        <v>0.4305239359341948</v>
+        <v>0.4305239359341946</v>
       </c>
       <c r="Z23">
-        <v>0.4115302328782744</v>
+        <v>0.4115302328782742</v>
       </c>
       <c r="AA23">
-        <v>0.392536529822354</v>
+        <v>0.3925365298223539</v>
       </c>
       <c r="AB23">
-        <v>0.3735428267664336</v>
+        <v>0.3735428267664335</v>
       </c>
       <c r="AC23">
-        <v>0.3545491237105134</v>
+        <v>0.3545491237105132</v>
       </c>
       <c r="AD23">
-        <v>0.335555420654593</v>
+        <v>0.3355554206545928</v>
       </c>
       <c r="AE23">
-        <v>0.3165617175986726</v>
+        <v>0.3165617175986725</v>
       </c>
       <c r="AF23">
-        <v>0.2975680145427523</v>
+        <v>0.2975680145427522</v>
       </c>
       <c r="AG23">
-        <v>0.2785743114868319</v>
+        <v>0.2785743114868318</v>
       </c>
       <c r="AH23">
-        <v>0.2595806084309116</v>
+        <v>0.2595806084309115</v>
       </c>
       <c r="AI23">
-        <v>0.2405869053749912</v>
+        <v>0.2405869053749911</v>
       </c>
       <c r="AJ23">
         <v>0.2215932023190708</v>
       </c>
       <c r="AK23">
-        <v>0.2025994992631505</v>
+        <v>0.2025994992631504</v>
       </c>
       <c r="AL23">
-        <v>0.1836057962072301</v>
+        <v>0.18360579620723</v>
       </c>
       <c r="AM23">
-        <v>0.1646120931513098</v>
+        <v>0.1646120931513097</v>
       </c>
       <c r="AN23">
-        <v>0.1456183900953894</v>
+        <v>0.1456183900953893</v>
       </c>
       <c r="AO23">
-        <v>0.1266246870394691</v>
+        <v>0.126624687039469</v>
       </c>
       <c r="AP23">
-        <v>0.1076309839835487</v>
+        <v>0.1076309839835486</v>
       </c>
       <c r="AQ23">
-        <v>0.08863728092762835</v>
+        <v>0.08863728092762832</v>
       </c>
       <c r="AR23">
-        <v>0.06964357787170797</v>
+        <v>0.06964357787170794</v>
       </c>
       <c r="AS23">
-        <v>0.05064987481578762</v>
+        <v>0.0506498748157876</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -26870,112 +26870,112 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.2257796223730455</v>
+        <v>0.225779622373045</v>
       </c>
       <c r="K24">
-        <v>0.2516155903748475</v>
+        <v>0.251615590374847</v>
       </c>
       <c r="L24">
-        <v>0.2764498190290392</v>
+        <v>0.276449819029039</v>
       </c>
       <c r="M24">
-        <v>0.3052915830431094</v>
+        <v>0.305291583043109</v>
       </c>
       <c r="N24">
-        <v>0.3069164578080537</v>
+        <v>0.306916457808054</v>
       </c>
       <c r="O24">
-        <v>0.3085587214926906</v>
+        <v>0.308558721492691</v>
       </c>
       <c r="P24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Q24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="R24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="S24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="T24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="U24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="V24">
-        <v>0.2812085717323601</v>
+        <v>0.2812085717323604</v>
       </c>
       <c r="W24">
-        <v>0.2702523936129175</v>
+        <v>0.2702523936129178</v>
       </c>
       <c r="X24">
-        <v>0.2592962154934749</v>
+        <v>0.2592962154934752</v>
       </c>
       <c r="Y24">
-        <v>0.2483400373740323</v>
+        <v>0.2483400373740326</v>
       </c>
       <c r="Z24">
-        <v>0.2373838592545897</v>
+        <v>0.23738385925459</v>
       </c>
       <c r="AA24">
-        <v>0.2264276811351471</v>
+        <v>0.2264276811351474</v>
       </c>
       <c r="AB24">
-        <v>0.2154715030157045</v>
+        <v>0.2154715030157047</v>
       </c>
       <c r="AC24">
-        <v>0.2045153248962619</v>
+        <v>0.2045153248962621</v>
       </c>
       <c r="AD24">
-        <v>0.1935591467768193</v>
+        <v>0.1935591467768195</v>
       </c>
       <c r="AE24">
-        <v>0.1826029686573767</v>
+        <v>0.1826029686573769</v>
       </c>
       <c r="AF24">
-        <v>0.1716467905379341</v>
+        <v>0.1716467905379343</v>
       </c>
       <c r="AG24">
-        <v>0.1606906124184915</v>
+        <v>0.1606906124184917</v>
       </c>
       <c r="AH24">
-        <v>0.1497344342990489</v>
+        <v>0.1497344342990491</v>
       </c>
       <c r="AI24">
-        <v>0.1387782561796063</v>
+        <v>0.1387782561796064</v>
       </c>
       <c r="AJ24">
-        <v>0.1278220780601637</v>
+        <v>0.1278220780601638</v>
       </c>
       <c r="AK24">
-        <v>0.1168658999407211</v>
+        <v>0.1168658999407212</v>
       </c>
       <c r="AL24">
-        <v>0.1059097218212785</v>
+        <v>0.1059097218212786</v>
       </c>
       <c r="AM24">
-        <v>0.09495354370183587</v>
+        <v>0.09495354370183598</v>
       </c>
       <c r="AN24">
-        <v>0.08399736558239329</v>
+        <v>0.08399736558239337</v>
       </c>
       <c r="AO24">
-        <v>0.07304118746295066</v>
+        <v>0.07304118746295074</v>
       </c>
       <c r="AP24">
-        <v>0.06208500934350807</v>
+        <v>0.06208500934350814</v>
       </c>
       <c r="AQ24">
-        <v>0.05112883122406548</v>
+        <v>0.05112883122406554</v>
       </c>
       <c r="AR24">
-        <v>0.04017265310462286</v>
+        <v>0.04017265310462291</v>
       </c>
       <c r="AS24">
-        <v>0.02921647498518027</v>
+        <v>0.0292164749851803</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -26995,112 +26995,112 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.2257796223730455</v>
+        <v>0.225779622373045</v>
       </c>
       <c r="K25">
-        <v>0.2516155903748475</v>
+        <v>0.251615590374847</v>
       </c>
       <c r="L25">
-        <v>0.2764498190290392</v>
+        <v>0.276449819029039</v>
       </c>
       <c r="M25">
-        <v>0.3052915830431094</v>
+        <v>0.305291583043109</v>
       </c>
       <c r="N25">
-        <v>0.3069164578080537</v>
+        <v>0.306916457808054</v>
       </c>
       <c r="O25">
-        <v>0.3085587214926906</v>
+        <v>0.308558721492691</v>
       </c>
       <c r="P25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Q25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="R25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="S25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="T25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="U25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="V25">
-        <v>0.2812085717323601</v>
+        <v>0.2812085717323604</v>
       </c>
       <c r="W25">
-        <v>0.2702523936129175</v>
+        <v>0.2702523936129178</v>
       </c>
       <c r="X25">
-        <v>0.2592962154934749</v>
+        <v>0.2592962154934752</v>
       </c>
       <c r="Y25">
-        <v>0.2483400373740323</v>
+        <v>0.2483400373740326</v>
       </c>
       <c r="Z25">
-        <v>0.2373838592545897</v>
+        <v>0.23738385925459</v>
       </c>
       <c r="AA25">
-        <v>0.2264276811351471</v>
+        <v>0.2264276811351474</v>
       </c>
       <c r="AB25">
-        <v>0.2154715030157045</v>
+        <v>0.2154715030157047</v>
       </c>
       <c r="AC25">
-        <v>0.2045153248962619</v>
+        <v>0.2045153248962621</v>
       </c>
       <c r="AD25">
-        <v>0.1935591467768193</v>
+        <v>0.1935591467768195</v>
       </c>
       <c r="AE25">
-        <v>0.1826029686573767</v>
+        <v>0.1826029686573769</v>
       </c>
       <c r="AF25">
-        <v>0.1716467905379341</v>
+        <v>0.1716467905379343</v>
       </c>
       <c r="AG25">
-        <v>0.1606906124184915</v>
+        <v>0.1606906124184917</v>
       </c>
       <c r="AH25">
-        <v>0.1497344342990489</v>
+        <v>0.1497344342990491</v>
       </c>
       <c r="AI25">
-        <v>0.1387782561796063</v>
+        <v>0.1387782561796064</v>
       </c>
       <c r="AJ25">
-        <v>0.1278220780601637</v>
+        <v>0.1278220780601638</v>
       </c>
       <c r="AK25">
-        <v>0.1168658999407211</v>
+        <v>0.1168658999407212</v>
       </c>
       <c r="AL25">
-        <v>0.1059097218212785</v>
+        <v>0.1059097218212786</v>
       </c>
       <c r="AM25">
-        <v>0.09495354370183587</v>
+        <v>0.09495354370183598</v>
       </c>
       <c r="AN25">
-        <v>0.08399736558239329</v>
+        <v>0.08399736558239337</v>
       </c>
       <c r="AO25">
-        <v>0.07304118746295066</v>
+        <v>0.07304118746295074</v>
       </c>
       <c r="AP25">
-        <v>0.06208500934350807</v>
+        <v>0.06208500934350814</v>
       </c>
       <c r="AQ25">
-        <v>0.05112883122406548</v>
+        <v>0.05112883122406554</v>
       </c>
       <c r="AR25">
-        <v>0.04017265310462286</v>
+        <v>0.04017265310462291</v>
       </c>
       <c r="AS25">
-        <v>0.02921647498518027</v>
+        <v>0.0292164749851803</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -27120,22 +27120,22 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.1615743941938774</v>
+        <v>0.161574394193877</v>
       </c>
       <c r="K26">
-        <v>0.1677973576807739</v>
+        <v>0.167797357680774</v>
       </c>
       <c r="L26">
-        <v>0.1858845573122886</v>
+        <v>0.185884557312289</v>
       </c>
       <c r="M26">
-        <v>0.1976337643049704</v>
+        <v>0.19763376430497</v>
       </c>
       <c r="N26">
-        <v>0.1986856443244558</v>
+        <v>0.198685644324456</v>
       </c>
       <c r="O26">
-        <v>0.1997487812466759</v>
+        <v>0.199748781246676</v>
       </c>
       <c r="P26">
         <v>0.191151657321104</v>
@@ -27245,22 +27245,22 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.1615743941938774</v>
+        <v>0.161574394193877</v>
       </c>
       <c r="K27">
-        <v>0.1677973576807739</v>
+        <v>0.167797357680774</v>
       </c>
       <c r="L27">
-        <v>0.1858845573122886</v>
+        <v>0.185884557312289</v>
       </c>
       <c r="M27">
-        <v>0.1976337643049704</v>
+        <v>0.19763376430497</v>
       </c>
       <c r="N27">
-        <v>0.1986856443244558</v>
+        <v>0.198685644324456</v>
       </c>
       <c r="O27">
-        <v>0.1997487812466759</v>
+        <v>0.199748781246676</v>
       </c>
       <c r="P27">
         <v>0.191151657321104</v>
@@ -27495,112 +27495,112 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.1176790032321918</v>
+        <v>0.117679003232192</v>
       </c>
       <c r="K29">
-        <v>0.1218579433136033</v>
+        <v>0.121857943313603</v>
       </c>
       <c r="L29">
-        <v>0.1291790415118761</v>
+        <v>0.129179041511876</v>
       </c>
       <c r="M29">
-        <v>0.1406359555811563</v>
+        <v>0.140635955581156</v>
       </c>
       <c r="N29">
-        <v>0.1413844721730316</v>
+        <v>0.141384472173032</v>
       </c>
       <c r="O29">
         <v>0.14214099916373</v>
       </c>
       <c r="P29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="Q29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="R29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="S29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="T29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="U29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="V29">
-        <v>0.1316179935149898</v>
+        <v>0.1316179935149897</v>
       </c>
       <c r="W29">
-        <v>0.1264900197416785</v>
+        <v>0.1264900197416784</v>
       </c>
       <c r="X29">
-        <v>0.1213620459683672</v>
+        <v>0.1213620459683671</v>
       </c>
       <c r="Y29">
         <v>0.1162340721950559</v>
       </c>
       <c r="Z29">
-        <v>0.1111060984217446</v>
+        <v>0.1111060984217445</v>
       </c>
       <c r="AA29">
         <v>0.1059781246484333</v>
       </c>
       <c r="AB29">
-        <v>0.1008501508751221</v>
+        <v>0.100850150875122</v>
       </c>
       <c r="AC29">
-        <v>0.09572217710181079</v>
+        <v>0.09572217710181069</v>
       </c>
       <c r="AD29">
-        <v>0.09059420332849949</v>
+        <v>0.09059420332849941</v>
       </c>
       <c r="AE29">
-        <v>0.08546622955518818</v>
+        <v>0.08546622955518811</v>
       </c>
       <c r="AF29">
-        <v>0.08033825578187691</v>
+        <v>0.08033825578187685</v>
       </c>
       <c r="AG29">
-        <v>0.07521028200856561</v>
+        <v>0.07521028200856554</v>
       </c>
       <c r="AH29">
-        <v>0.07008230823525431</v>
+        <v>0.07008230823525426</v>
       </c>
       <c r="AI29">
-        <v>0.06495433446194301</v>
+        <v>0.06495433446194297</v>
       </c>
       <c r="AJ29">
-        <v>0.05982636068863173</v>
+        <v>0.05982636068863168</v>
       </c>
       <c r="AK29">
-        <v>0.05469838691532045</v>
+        <v>0.0546983869153204</v>
       </c>
       <c r="AL29">
-        <v>0.04957041314200915</v>
+        <v>0.04957041314200911</v>
       </c>
       <c r="AM29">
-        <v>0.04444243936869786</v>
+        <v>0.04444243936869782</v>
       </c>
       <c r="AN29">
-        <v>0.03931446559538657</v>
+        <v>0.03931446559538654</v>
       </c>
       <c r="AO29">
-        <v>0.03418649182207528</v>
+        <v>0.03418649182207524</v>
       </c>
       <c r="AP29">
-        <v>0.02905851804876398</v>
+        <v>0.02905851804876396</v>
       </c>
       <c r="AQ29">
-        <v>0.0239305442754527</v>
+        <v>0.02393054427545268</v>
       </c>
       <c r="AR29">
-        <v>0.0188025705021414</v>
+        <v>0.01880257050214138</v>
       </c>
       <c r="AS29">
-        <v>0.01367459672883011</v>
+        <v>0.0136745967288301</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -27748,109 +27748,109 @@
         <v>8.33281081754115E-07</v>
       </c>
       <c r="K31">
-        <v>6.568975162066164E-07</v>
+        <v>6.56897516206616E-07</v>
       </c>
       <c r="L31">
-        <v>5.567354013282249E-07</v>
+        <v>5.56735401328225E-07</v>
       </c>
       <c r="M31">
-        <v>8.037602737132051E-07</v>
+        <v>8.037602737132049E-07</v>
       </c>
       <c r="N31">
-        <v>1.660178012224008E-06</v>
+        <v>1.66017801222401E-06</v>
       </c>
       <c r="O31">
-        <v>1.503507095431889E-06</v>
+        <v>1.50350709543189E-06</v>
       </c>
       <c r="P31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="Q31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="R31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="S31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="T31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="U31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="V31">
-        <v>1.151034904984818E-06</v>
+        <v>1.151034904984821E-06</v>
       </c>
       <c r="W31">
-        <v>1.106189389206188E-06</v>
+        <v>1.106189389206191E-06</v>
       </c>
       <c r="X31">
-        <v>1.061343873427559E-06</v>
+        <v>1.061343873427562E-06</v>
       </c>
       <c r="Y31">
-        <v>1.01649835764893E-06</v>
+        <v>1.016498357648932E-06</v>
       </c>
       <c r="Z31">
-        <v>9.716528418703004E-07</v>
+        <v>9.716528418703031E-07</v>
       </c>
       <c r="AA31">
-        <v>9.268073260916713E-07</v>
+        <v>9.268073260916738E-07</v>
       </c>
       <c r="AB31">
-        <v>8.819618103130419E-07</v>
+        <v>8.819618103130444E-07</v>
       </c>
       <c r="AC31">
-        <v>8.371162945344129E-07</v>
+        <v>8.371162945344151E-07</v>
       </c>
       <c r="AD31">
-        <v>7.922707787557836E-07</v>
+        <v>7.922707787557856E-07</v>
       </c>
       <c r="AE31">
-        <v>7.474252629771542E-07</v>
+        <v>7.474252629771561E-07</v>
       </c>
       <c r="AF31">
-        <v>7.025797471985251E-07</v>
+        <v>7.02579747198527E-07</v>
       </c>
       <c r="AG31">
-        <v>6.577342314198958E-07</v>
+        <v>6.577342314198976E-07</v>
       </c>
       <c r="AH31">
-        <v>6.128887156412665E-07</v>
+        <v>6.128887156412681E-07</v>
       </c>
       <c r="AI31">
-        <v>5.680431998626372E-07</v>
+        <v>5.680431998626387E-07</v>
       </c>
       <c r="AJ31">
-        <v>5.23197684084008E-07</v>
+        <v>5.231976840840095E-07</v>
       </c>
       <c r="AK31">
-        <v>4.783521683053787E-07</v>
+        <v>4.7835216830538E-07</v>
       </c>
       <c r="AL31">
-        <v>4.335066525267495E-07</v>
+        <v>4.335066525267506E-07</v>
       </c>
       <c r="AM31">
-        <v>3.886611367481202E-07</v>
+        <v>3.886611367481212E-07</v>
       </c>
       <c r="AN31">
-        <v>3.43815620969491E-07</v>
+        <v>3.43815620969492E-07</v>
       </c>
       <c r="AO31">
-        <v>2.989701051908617E-07</v>
+        <v>2.989701051908625E-07</v>
       </c>
       <c r="AP31">
-        <v>2.541245894122325E-07</v>
+        <v>2.541245894122331E-07</v>
       </c>
       <c r="AQ31">
-        <v>2.092790736336033E-07</v>
+        <v>2.092790736336038E-07</v>
       </c>
       <c r="AR31">
-        <v>1.644335578549739E-07</v>
+        <v>1.644335578549743E-07</v>
       </c>
       <c r="AS31">
-        <v>1.195880420763447E-07</v>
+        <v>1.19588042076345E-07</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -27870,112 +27870,112 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.1271533873611312</v>
+        <v>0.127153387361131</v>
       </c>
       <c r="K32">
-        <v>0.1278195087035352</v>
+        <v>0.127819508703535</v>
       </c>
       <c r="L32">
         <v>0.128492646050898</v>
       </c>
       <c r="M32">
-        <v>0.1291729108354591</v>
+        <v>0.129172910835459</v>
       </c>
       <c r="N32">
-        <v>0.1298604168617923</v>
+        <v>0.129860416861792</v>
       </c>
       <c r="O32">
-        <v>0.1305552803702761</v>
+        <v>0.130555280370276</v>
       </c>
       <c r="P32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="Q32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="R32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="S32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="T32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="U32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="V32">
-        <v>0.1230606020500968</v>
+        <v>0.1230606020500963</v>
       </c>
       <c r="W32">
-        <v>0.118266033139054</v>
+        <v>0.1182660331390536</v>
       </c>
       <c r="X32">
-        <v>0.1134714642280113</v>
+        <v>0.1134714642280109</v>
       </c>
       <c r="Y32">
-        <v>0.1086768953169686</v>
+        <v>0.1086768953169682</v>
       </c>
       <c r="Z32">
-        <v>0.1038823264059258</v>
+        <v>0.1038823264059254</v>
       </c>
       <c r="AA32">
-        <v>0.09908775749488311</v>
+        <v>0.09908775749488273</v>
       </c>
       <c r="AB32">
-        <v>0.09429318858384036</v>
+        <v>0.09429318858383999</v>
       </c>
       <c r="AC32">
-        <v>0.08949861967279765</v>
+        <v>0.08949861967279729</v>
       </c>
       <c r="AD32">
-        <v>0.08470405076175491</v>
+        <v>0.08470405076175458</v>
       </c>
       <c r="AE32">
-        <v>0.07990948185071217</v>
+        <v>0.07990948185071185</v>
       </c>
       <c r="AF32">
-        <v>0.07511491293966946</v>
+        <v>0.07511491293966917</v>
       </c>
       <c r="AG32">
-        <v>0.07032034402862672</v>
+        <v>0.07032034402862644</v>
       </c>
       <c r="AH32">
-        <v>0.06552577511758399</v>
+        <v>0.06552577511758374</v>
       </c>
       <c r="AI32">
-        <v>0.06073120620654126</v>
+        <v>0.06073120620654102</v>
       </c>
       <c r="AJ32">
-        <v>0.05593663729549853</v>
+        <v>0.05593663729549831</v>
       </c>
       <c r="AK32">
-        <v>0.0511420683844558</v>
+        <v>0.0511420683844556</v>
       </c>
       <c r="AL32">
-        <v>0.04634749947341306</v>
+        <v>0.04634749947341288</v>
       </c>
       <c r="AM32">
-        <v>0.04155293056237033</v>
+        <v>0.04155293056237017</v>
       </c>
       <c r="AN32">
-        <v>0.03675836165132761</v>
+        <v>0.03675836165132747</v>
       </c>
       <c r="AO32">
-        <v>0.03196379274028487</v>
+        <v>0.03196379274028474</v>
       </c>
       <c r="AP32">
-        <v>0.02716922382924214</v>
+        <v>0.02716922382924204</v>
       </c>
       <c r="AQ32">
-        <v>0.02237465491819941</v>
+        <v>0.02237465491819933</v>
       </c>
       <c r="AR32">
-        <v>0.01758008600715668</v>
+        <v>0.01758008600715661</v>
       </c>
       <c r="AS32">
-        <v>0.01278551709611395</v>
+        <v>0.0127855170961139</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -28123,109 +28123,109 @@
         <v>1.26628825388036</v>
       </c>
       <c r="K34">
-        <v>1.494125521989148</v>
+        <v>1.49412552198915</v>
       </c>
       <c r="L34">
-        <v>1.692547742384493</v>
+        <v>1.69254774238449</v>
       </c>
       <c r="M34">
-        <v>1.945772166554108</v>
+        <v>1.94577216655411</v>
       </c>
       <c r="N34">
-        <v>1.956128285973616</v>
+        <v>1.95612828597362</v>
       </c>
       <c r="O34">
-        <v>1.966595233459874</v>
+        <v>1.96659523345987</v>
       </c>
       <c r="P34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Q34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="R34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="S34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="T34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="U34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="V34">
-        <v>1.746304974129554</v>
+        <v>1.746304974129552</v>
       </c>
       <c r="W34">
-        <v>1.678267117994636</v>
+        <v>1.678267117994635</v>
       </c>
       <c r="X34">
-        <v>1.610229261859719</v>
+        <v>1.610229261859717</v>
       </c>
       <c r="Y34">
-        <v>1.542191405724801</v>
+        <v>1.5421914057248</v>
       </c>
       <c r="Z34">
-        <v>1.474153549589883</v>
+        <v>1.474153549589882</v>
       </c>
       <c r="AA34">
-        <v>1.406115693454966</v>
+        <v>1.406115693454964</v>
       </c>
       <c r="AB34">
-        <v>1.338077837320048</v>
+        <v>1.338077837320046</v>
       </c>
       <c r="AC34">
-        <v>1.27003998118513</v>
+        <v>1.270039981185129</v>
       </c>
       <c r="AD34">
-        <v>1.202002125050213</v>
+        <v>1.202002125050211</v>
       </c>
       <c r="AE34">
-        <v>1.133964268915295</v>
+        <v>1.133964268915294</v>
       </c>
       <c r="AF34">
-        <v>1.065926412780377</v>
+        <v>1.065926412780376</v>
       </c>
       <c r="AG34">
-        <v>0.9978885566454596</v>
+        <v>0.9978885566454585</v>
       </c>
       <c r="AH34">
-        <v>0.929850700510542</v>
+        <v>0.929850700510541</v>
       </c>
       <c r="AI34">
-        <v>0.8618128443756241</v>
+        <v>0.8618128443756232</v>
       </c>
       <c r="AJ34">
-        <v>0.7937749882407065</v>
+        <v>0.7937749882407056</v>
       </c>
       <c r="AK34">
-        <v>0.7257371321057888</v>
+        <v>0.7257371321057881</v>
       </c>
       <c r="AL34">
-        <v>0.657699275970871</v>
+        <v>0.6576992759708703</v>
       </c>
       <c r="AM34">
-        <v>0.5896614198359533</v>
+        <v>0.5896614198359528</v>
       </c>
       <c r="AN34">
-        <v>0.5216235637010358</v>
+        <v>0.5216235637010352</v>
       </c>
       <c r="AO34">
-        <v>0.4535857075661179</v>
+        <v>0.4535857075661174</v>
       </c>
       <c r="AP34">
-        <v>0.3855478514312003</v>
+        <v>0.3855478514311999</v>
       </c>
       <c r="AQ34">
-        <v>0.3175099952962827</v>
+        <v>0.3175099952962823</v>
       </c>
       <c r="AR34">
-        <v>0.2494721391613648</v>
+        <v>0.2494721391613646</v>
       </c>
       <c r="AS34">
-        <v>0.1814342830264472</v>
+        <v>0.181434283026447</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -28248,109 +28248,109 @@
         <v>1.26628825388036</v>
       </c>
       <c r="K35">
-        <v>1.494125521989148</v>
+        <v>1.49412552198915</v>
       </c>
       <c r="L35">
-        <v>1.692547742384493</v>
+        <v>1.69254774238449</v>
       </c>
       <c r="M35">
-        <v>1.945772166554108</v>
+        <v>1.94577216655411</v>
       </c>
       <c r="N35">
-        <v>1.956128285973616</v>
+        <v>1.95612828597362</v>
       </c>
       <c r="O35">
-        <v>1.966595233459874</v>
+        <v>1.96659523345987</v>
       </c>
       <c r="P35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Q35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="R35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="S35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="T35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="U35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="V35">
-        <v>1.746304974129554</v>
+        <v>1.746304974129552</v>
       </c>
       <c r="W35">
-        <v>1.678267117994636</v>
+        <v>1.678267117994635</v>
       </c>
       <c r="X35">
-        <v>1.610229261859719</v>
+        <v>1.610229261859717</v>
       </c>
       <c r="Y35">
-        <v>1.542191405724801</v>
+        <v>1.5421914057248</v>
       </c>
       <c r="Z35">
-        <v>1.474153549589883</v>
+        <v>1.474153549589882</v>
       </c>
       <c r="AA35">
-        <v>1.406115693454966</v>
+        <v>1.406115693454964</v>
       </c>
       <c r="AB35">
-        <v>1.338077837320048</v>
+        <v>1.338077837320046</v>
       </c>
       <c r="AC35">
-        <v>1.27003998118513</v>
+        <v>1.270039981185129</v>
       </c>
       <c r="AD35">
-        <v>1.202002125050213</v>
+        <v>1.202002125050211</v>
       </c>
       <c r="AE35">
-        <v>1.133964268915295</v>
+        <v>1.133964268915294</v>
       </c>
       <c r="AF35">
-        <v>1.065926412780377</v>
+        <v>1.065926412780376</v>
       </c>
       <c r="AG35">
-        <v>0.9978885566454596</v>
+        <v>0.9978885566454585</v>
       </c>
       <c r="AH35">
-        <v>0.929850700510542</v>
+        <v>0.929850700510541</v>
       </c>
       <c r="AI35">
-        <v>0.8618128443756241</v>
+        <v>0.8618128443756232</v>
       </c>
       <c r="AJ35">
-        <v>0.7937749882407065</v>
+        <v>0.7937749882407056</v>
       </c>
       <c r="AK35">
-        <v>0.7257371321057888</v>
+        <v>0.7257371321057881</v>
       </c>
       <c r="AL35">
-        <v>0.657699275970871</v>
+        <v>0.6576992759708703</v>
       </c>
       <c r="AM35">
-        <v>0.5896614198359533</v>
+        <v>0.5896614198359528</v>
       </c>
       <c r="AN35">
-        <v>0.5216235637010358</v>
+        <v>0.5216235637010352</v>
       </c>
       <c r="AO35">
-        <v>0.4535857075661179</v>
+        <v>0.4535857075661174</v>
       </c>
       <c r="AP35">
-        <v>0.3855478514312003</v>
+        <v>0.3855478514311999</v>
       </c>
       <c r="AQ35">
-        <v>0.3175099952962827</v>
+        <v>0.3175099952962823</v>
       </c>
       <c r="AR35">
-        <v>0.2494721391613648</v>
+        <v>0.2494721391613646</v>
       </c>
       <c r="AS35">
-        <v>0.1814342830264472</v>
+        <v>0.181434283026447</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -35417,37 +35417,37 @@
         <v>2.01480126814801E-07</v>
       </c>
       <c r="O22">
-        <v>1.824664572257305E-07</v>
+        <v>1.8246645722573E-07</v>
       </c>
       <c r="P22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="Q22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="R22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="S22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="T22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="U22">
-        <v>1.467304662852301E-07</v>
+        <v>1.4673046628523E-07</v>
       </c>
       <c r="V22">
-        <v>1.41228073799534E-07</v>
+        <v>1.412280737995339E-07</v>
       </c>
       <c r="W22">
-        <v>1.357256813138378E-07</v>
+        <v>1.357256813138377E-07</v>
       </c>
       <c r="X22">
-        <v>1.302232888281417E-07</v>
+        <v>1.302232888281416E-07</v>
       </c>
       <c r="Y22">
-        <v>1.247208963424456E-07</v>
+        <v>1.247208963424455E-07</v>
       </c>
       <c r="Z22">
         <v>1.192185038567494E-07</v>
@@ -35456,58 +35456,58 @@
         <v>1.137161113710533E-07</v>
       </c>
       <c r="AB22">
-        <v>1.082137188853572E-07</v>
+        <v>1.082137188853571E-07</v>
       </c>
       <c r="AC22">
-        <v>1.027113263996611E-07</v>
+        <v>1.02711326399661E-07</v>
       </c>
       <c r="AD22">
-        <v>9.720893391396494E-08</v>
+        <v>9.720893391396487E-08</v>
       </c>
       <c r="AE22">
-        <v>9.170654142826881E-08</v>
+        <v>9.170654142826874E-08</v>
       </c>
       <c r="AF22">
-        <v>8.620414894257269E-08</v>
+        <v>8.620414894257263E-08</v>
       </c>
       <c r="AG22">
-        <v>8.070175645687655E-08</v>
+        <v>8.07017564568765E-08</v>
       </c>
       <c r="AH22">
-        <v>7.519936397118044E-08</v>
+        <v>7.519936397118037E-08</v>
       </c>
       <c r="AI22">
-        <v>6.969697148548429E-08</v>
+        <v>6.969697148548425E-08</v>
       </c>
       <c r="AJ22">
-        <v>6.419457899978817E-08</v>
+        <v>6.419457899978813E-08</v>
       </c>
       <c r="AK22">
-        <v>5.869218651409204E-08</v>
+        <v>5.8692186514092E-08</v>
       </c>
       <c r="AL22">
-        <v>5.318979402839591E-08</v>
+        <v>5.318979402839587E-08</v>
       </c>
       <c r="AM22">
-        <v>4.768740154269979E-08</v>
+        <v>4.768740154269975E-08</v>
       </c>
       <c r="AN22">
-        <v>4.218500905700366E-08</v>
+        <v>4.218500905700363E-08</v>
       </c>
       <c r="AO22">
-        <v>3.668261657130752E-08</v>
+        <v>3.668261657130749E-08</v>
       </c>
       <c r="AP22">
-        <v>3.11802240856114E-08</v>
+        <v>3.118022408561138E-08</v>
       </c>
       <c r="AQ22">
-        <v>2.567783159991527E-08</v>
+        <v>2.567783159991526E-08</v>
       </c>
       <c r="AR22">
-        <v>2.017543911421914E-08</v>
+        <v>2.017543911421912E-08</v>
       </c>
       <c r="AS22">
-        <v>1.467304662852301E-08</v>
+        <v>1.4673046628523E-08</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -35527,112 +35527,112 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.3329991744695239</v>
+        <v>0.332999174469524</v>
       </c>
       <c r="K23">
-        <v>0.3906730071184023</v>
+        <v>0.390673007118402</v>
       </c>
       <c r="L23">
-        <v>0.4587774456673963</v>
+        <v>0.458777445667396</v>
       </c>
       <c r="M23">
-        <v>0.5428816592819788</v>
+        <v>0.542881659281979</v>
       </c>
       <c r="N23">
-        <v>0.5457710763426316</v>
+        <v>0.545771076342632</v>
       </c>
       <c r="O23">
-        <v>0.5486914150732553</v>
+        <v>0.548691415073255</v>
       </c>
       <c r="P23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="Q23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="R23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="S23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="T23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="U23">
-        <v>0.5064987481578762</v>
+        <v>0.506498748157876</v>
       </c>
       <c r="V23">
-        <v>0.4875050451019559</v>
+        <v>0.4875050451019557</v>
       </c>
       <c r="W23">
-        <v>0.4685113420460355</v>
+        <v>0.4685113420460353</v>
       </c>
       <c r="X23">
-        <v>0.4495176389901152</v>
+        <v>0.449517638990115</v>
       </c>
       <c r="Y23">
-        <v>0.4305239359341948</v>
+        <v>0.4305239359341946</v>
       </c>
       <c r="Z23">
-        <v>0.4115302328782744</v>
+        <v>0.4115302328782742</v>
       </c>
       <c r="AA23">
-        <v>0.392536529822354</v>
+        <v>0.3925365298223539</v>
       </c>
       <c r="AB23">
-        <v>0.3735428267664336</v>
+        <v>0.3735428267664335</v>
       </c>
       <c r="AC23">
-        <v>0.3545491237105134</v>
+        <v>0.3545491237105132</v>
       </c>
       <c r="AD23">
-        <v>0.335555420654593</v>
+        <v>0.3355554206545928</v>
       </c>
       <c r="AE23">
-        <v>0.3165617175986726</v>
+        <v>0.3165617175986725</v>
       </c>
       <c r="AF23">
-        <v>0.2975680145427523</v>
+        <v>0.2975680145427522</v>
       </c>
       <c r="AG23">
-        <v>0.2785743114868319</v>
+        <v>0.2785743114868318</v>
       </c>
       <c r="AH23">
-        <v>0.2595806084309116</v>
+        <v>0.2595806084309115</v>
       </c>
       <c r="AI23">
-        <v>0.2405869053749912</v>
+        <v>0.2405869053749911</v>
       </c>
       <c r="AJ23">
         <v>0.2215932023190708</v>
       </c>
       <c r="AK23">
-        <v>0.2025994992631505</v>
+        <v>0.2025994992631504</v>
       </c>
       <c r="AL23">
-        <v>0.1836057962072301</v>
+        <v>0.18360579620723</v>
       </c>
       <c r="AM23">
-        <v>0.1646120931513098</v>
+        <v>0.1646120931513097</v>
       </c>
       <c r="AN23">
-        <v>0.1456183900953894</v>
+        <v>0.1456183900953893</v>
       </c>
       <c r="AO23">
-        <v>0.1266246870394691</v>
+        <v>0.126624687039469</v>
       </c>
       <c r="AP23">
-        <v>0.1076309839835487</v>
+        <v>0.1076309839835486</v>
       </c>
       <c r="AQ23">
-        <v>0.08863728092762835</v>
+        <v>0.08863728092762832</v>
       </c>
       <c r="AR23">
-        <v>0.06964357787170797</v>
+        <v>0.06964357787170794</v>
       </c>
       <c r="AS23">
-        <v>0.05064987481578762</v>
+        <v>0.0506498748157876</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -35652,112 +35652,112 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.2257796223730455</v>
+        <v>0.225779622373045</v>
       </c>
       <c r="K24">
-        <v>0.2516155903748475</v>
+        <v>0.251615590374847</v>
       </c>
       <c r="L24">
-        <v>0.2764498190290392</v>
+        <v>0.276449819029039</v>
       </c>
       <c r="M24">
-        <v>0.3052915830431094</v>
+        <v>0.305291583043109</v>
       </c>
       <c r="N24">
-        <v>0.3069164578080537</v>
+        <v>0.306916457808054</v>
       </c>
       <c r="O24">
-        <v>0.3085587214926906</v>
+        <v>0.308558721492691</v>
       </c>
       <c r="P24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Q24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="R24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="S24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="T24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="U24">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="V24">
-        <v>0.2812085717323601</v>
+        <v>0.2812085717323604</v>
       </c>
       <c r="W24">
-        <v>0.2702523936129175</v>
+        <v>0.2702523936129178</v>
       </c>
       <c r="X24">
-        <v>0.2592962154934749</v>
+        <v>0.2592962154934752</v>
       </c>
       <c r="Y24">
-        <v>0.2483400373740323</v>
+        <v>0.2483400373740326</v>
       </c>
       <c r="Z24">
-        <v>0.2373838592545897</v>
+        <v>0.23738385925459</v>
       </c>
       <c r="AA24">
-        <v>0.2264276811351471</v>
+        <v>0.2264276811351474</v>
       </c>
       <c r="AB24">
-        <v>0.2154715030157045</v>
+        <v>0.2154715030157047</v>
       </c>
       <c r="AC24">
-        <v>0.2045153248962619</v>
+        <v>0.2045153248962621</v>
       </c>
       <c r="AD24">
-        <v>0.1935591467768193</v>
+        <v>0.1935591467768195</v>
       </c>
       <c r="AE24">
-        <v>0.1826029686573767</v>
+        <v>0.1826029686573769</v>
       </c>
       <c r="AF24">
-        <v>0.1716467905379341</v>
+        <v>0.1716467905379343</v>
       </c>
       <c r="AG24">
-        <v>0.1606906124184915</v>
+        <v>0.1606906124184917</v>
       </c>
       <c r="AH24">
-        <v>0.1497344342990489</v>
+        <v>0.1497344342990491</v>
       </c>
       <c r="AI24">
-        <v>0.1387782561796063</v>
+        <v>0.1387782561796064</v>
       </c>
       <c r="AJ24">
-        <v>0.1278220780601637</v>
+        <v>0.1278220780601638</v>
       </c>
       <c r="AK24">
-        <v>0.1168658999407211</v>
+        <v>0.1168658999407212</v>
       </c>
       <c r="AL24">
-        <v>0.1059097218212785</v>
+        <v>0.1059097218212786</v>
       </c>
       <c r="AM24">
-        <v>0.09495354370183587</v>
+        <v>0.09495354370183598</v>
       </c>
       <c r="AN24">
-        <v>0.08399736558239329</v>
+        <v>0.08399736558239337</v>
       </c>
       <c r="AO24">
-        <v>0.07304118746295066</v>
+        <v>0.07304118746295074</v>
       </c>
       <c r="AP24">
-        <v>0.06208500934350807</v>
+        <v>0.06208500934350814</v>
       </c>
       <c r="AQ24">
-        <v>0.05112883122406548</v>
+        <v>0.05112883122406554</v>
       </c>
       <c r="AR24">
-        <v>0.04017265310462286</v>
+        <v>0.04017265310462291</v>
       </c>
       <c r="AS24">
-        <v>0.02921647498518027</v>
+        <v>0.0292164749851803</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -35777,112 +35777,112 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.2257796223730455</v>
+        <v>0.225779622373045</v>
       </c>
       <c r="K25">
-        <v>0.2516155903748475</v>
+        <v>0.251615590374847</v>
       </c>
       <c r="L25">
-        <v>0.2764498190290392</v>
+        <v>0.276449819029039</v>
       </c>
       <c r="M25">
-        <v>0.3052915830431094</v>
+        <v>0.305291583043109</v>
       </c>
       <c r="N25">
-        <v>0.3069164578080537</v>
+        <v>0.306916457808054</v>
       </c>
       <c r="O25">
-        <v>0.3085587214926906</v>
+        <v>0.308558721492691</v>
       </c>
       <c r="P25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="Q25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="R25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="S25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="T25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="U25">
-        <v>0.2921647498518027</v>
+        <v>0.292164749851803</v>
       </c>
       <c r="V25">
-        <v>0.2812085717323601</v>
+        <v>0.2812085717323604</v>
       </c>
       <c r="W25">
-        <v>0.2702523936129175</v>
+        <v>0.2702523936129178</v>
       </c>
       <c r="X25">
-        <v>0.2592962154934749</v>
+        <v>0.2592962154934752</v>
       </c>
       <c r="Y25">
-        <v>0.2483400373740323</v>
+        <v>0.2483400373740326</v>
       </c>
       <c r="Z25">
-        <v>0.2373838592545897</v>
+        <v>0.23738385925459</v>
       </c>
       <c r="AA25">
-        <v>0.2264276811351471</v>
+        <v>0.2264276811351474</v>
       </c>
       <c r="AB25">
-        <v>0.2154715030157045</v>
+        <v>0.2154715030157047</v>
       </c>
       <c r="AC25">
-        <v>0.2045153248962619</v>
+        <v>0.2045153248962621</v>
       </c>
       <c r="AD25">
-        <v>0.1935591467768193</v>
+        <v>0.1935591467768195</v>
       </c>
       <c r="AE25">
-        <v>0.1826029686573767</v>
+        <v>0.1826029686573769</v>
       </c>
       <c r="AF25">
-        <v>0.1716467905379341</v>
+        <v>0.1716467905379343</v>
       </c>
       <c r="AG25">
-        <v>0.1606906124184915</v>
+        <v>0.1606906124184917</v>
       </c>
       <c r="AH25">
-        <v>0.1497344342990489</v>
+        <v>0.1497344342990491</v>
       </c>
       <c r="AI25">
-        <v>0.1387782561796063</v>
+        <v>0.1387782561796064</v>
       </c>
       <c r="AJ25">
-        <v>0.1278220780601637</v>
+        <v>0.1278220780601638</v>
       </c>
       <c r="AK25">
-        <v>0.1168658999407211</v>
+        <v>0.1168658999407212</v>
       </c>
       <c r="AL25">
-        <v>0.1059097218212785</v>
+        <v>0.1059097218212786</v>
       </c>
       <c r="AM25">
-        <v>0.09495354370183587</v>
+        <v>0.09495354370183598</v>
       </c>
       <c r="AN25">
-        <v>0.08399736558239329</v>
+        <v>0.08399736558239337</v>
       </c>
       <c r="AO25">
-        <v>0.07304118746295066</v>
+        <v>0.07304118746295074</v>
       </c>
       <c r="AP25">
-        <v>0.06208500934350807</v>
+        <v>0.06208500934350814</v>
       </c>
       <c r="AQ25">
-        <v>0.05112883122406548</v>
+        <v>0.05112883122406554</v>
       </c>
       <c r="AR25">
-        <v>0.04017265310462286</v>
+        <v>0.04017265310462291</v>
       </c>
       <c r="AS25">
-        <v>0.02921647498518027</v>
+        <v>0.0292164749851803</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -35902,22 +35902,22 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.1615743941938774</v>
+        <v>0.161574394193877</v>
       </c>
       <c r="K26">
-        <v>0.1677973576807739</v>
+        <v>0.167797357680774</v>
       </c>
       <c r="L26">
-        <v>0.1858845573122886</v>
+        <v>0.185884557312289</v>
       </c>
       <c r="M26">
-        <v>0.1976337643049704</v>
+        <v>0.19763376430497</v>
       </c>
       <c r="N26">
-        <v>0.1986856443244558</v>
+        <v>0.198685644324456</v>
       </c>
       <c r="O26">
-        <v>0.1997487812466759</v>
+        <v>0.199748781246676</v>
       </c>
       <c r="P26">
         <v>0.191151657321104</v>
@@ -36027,22 +36027,22 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.1615743941938774</v>
+        <v>0.161574394193877</v>
       </c>
       <c r="K27">
-        <v>0.1677973576807739</v>
+        <v>0.167797357680774</v>
       </c>
       <c r="L27">
-        <v>0.1858845573122886</v>
+        <v>0.185884557312289</v>
       </c>
       <c r="M27">
-        <v>0.1976337643049704</v>
+        <v>0.19763376430497</v>
       </c>
       <c r="N27">
-        <v>0.1986856443244558</v>
+        <v>0.198685644324456</v>
       </c>
       <c r="O27">
-        <v>0.1997487812466759</v>
+        <v>0.199748781246676</v>
       </c>
       <c r="P27">
         <v>0.191151657321104</v>
@@ -36277,112 +36277,112 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.1176790032321918</v>
+        <v>0.117679003232192</v>
       </c>
       <c r="K29">
-        <v>0.1218579433136033</v>
+        <v>0.121857943313603</v>
       </c>
       <c r="L29">
-        <v>0.1291790415118761</v>
+        <v>0.129179041511876</v>
       </c>
       <c r="M29">
-        <v>0.1406359555811563</v>
+        <v>0.140635955581156</v>
       </c>
       <c r="N29">
-        <v>0.1413844721730316</v>
+        <v>0.141384472173032</v>
       </c>
       <c r="O29">
         <v>0.14214099916373</v>
       </c>
       <c r="P29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="Q29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="R29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="S29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="T29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="U29">
-        <v>0.1367459672883011</v>
+        <v>0.136745967288301</v>
       </c>
       <c r="V29">
-        <v>0.1316179935149898</v>
+        <v>0.1316179935149897</v>
       </c>
       <c r="W29">
-        <v>0.1264900197416785</v>
+        <v>0.1264900197416784</v>
       </c>
       <c r="X29">
-        <v>0.1213620459683672</v>
+        <v>0.1213620459683671</v>
       </c>
       <c r="Y29">
         <v>0.1162340721950559</v>
       </c>
       <c r="Z29">
-        <v>0.1111060984217446</v>
+        <v>0.1111060984217445</v>
       </c>
       <c r="AA29">
         <v>0.1059781246484333</v>
       </c>
       <c r="AB29">
-        <v>0.1008501508751221</v>
+        <v>0.100850150875122</v>
       </c>
       <c r="AC29">
-        <v>0.09572217710181079</v>
+        <v>0.09572217710181069</v>
       </c>
       <c r="AD29">
-        <v>0.09059420332849949</v>
+        <v>0.09059420332849941</v>
       </c>
       <c r="AE29">
-        <v>0.08546622955518818</v>
+        <v>0.08546622955518811</v>
       </c>
       <c r="AF29">
-        <v>0.08033825578187691</v>
+        <v>0.08033825578187685</v>
       </c>
       <c r="AG29">
-        <v>0.07521028200856561</v>
+        <v>0.07521028200856554</v>
       </c>
       <c r="AH29">
-        <v>0.07008230823525431</v>
+        <v>0.07008230823525426</v>
       </c>
       <c r="AI29">
-        <v>0.06495433446194301</v>
+        <v>0.06495433446194297</v>
       </c>
       <c r="AJ29">
-        <v>0.05982636068863173</v>
+        <v>0.05982636068863168</v>
       </c>
       <c r="AK29">
-        <v>0.05469838691532045</v>
+        <v>0.0546983869153204</v>
       </c>
       <c r="AL29">
-        <v>0.04957041314200915</v>
+        <v>0.04957041314200911</v>
       </c>
       <c r="AM29">
-        <v>0.04444243936869786</v>
+        <v>0.04444243936869782</v>
       </c>
       <c r="AN29">
-        <v>0.03931446559538657</v>
+        <v>0.03931446559538654</v>
       </c>
       <c r="AO29">
-        <v>0.03418649182207528</v>
+        <v>0.03418649182207524</v>
       </c>
       <c r="AP29">
-        <v>0.02905851804876398</v>
+        <v>0.02905851804876396</v>
       </c>
       <c r="AQ29">
-        <v>0.0239305442754527</v>
+        <v>0.02393054427545268</v>
       </c>
       <c r="AR29">
-        <v>0.0188025705021414</v>
+        <v>0.01880257050214138</v>
       </c>
       <c r="AS29">
-        <v>0.01367459672883011</v>
+        <v>0.0136745967288301</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -36530,109 +36530,109 @@
         <v>8.33281081754115E-07</v>
       </c>
       <c r="K31">
-        <v>6.568975162066164E-07</v>
+        <v>6.56897516206616E-07</v>
       </c>
       <c r="L31">
-        <v>5.567354013282249E-07</v>
+        <v>5.56735401328225E-07</v>
       </c>
       <c r="M31">
-        <v>8.037602737132051E-07</v>
+        <v>8.037602737132049E-07</v>
       </c>
       <c r="N31">
-        <v>1.660178012224008E-06</v>
+        <v>1.66017801222401E-06</v>
       </c>
       <c r="O31">
-        <v>1.503507095431889E-06</v>
+        <v>1.50350709543189E-06</v>
       </c>
       <c r="P31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="Q31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="R31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="S31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="T31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="U31">
-        <v>1.195880420763447E-06</v>
+        <v>1.19588042076345E-06</v>
       </c>
       <c r="V31">
-        <v>1.151034904984818E-06</v>
+        <v>1.151034904984821E-06</v>
       </c>
       <c r="W31">
-        <v>1.106189389206188E-06</v>
+        <v>1.106189389206191E-06</v>
       </c>
       <c r="X31">
-        <v>1.061343873427559E-06</v>
+        <v>1.061343873427562E-06</v>
       </c>
       <c r="Y31">
-        <v>1.01649835764893E-06</v>
+        <v>1.016498357648932E-06</v>
       </c>
       <c r="Z31">
-        <v>9.716528418703004E-07</v>
+        <v>9.716528418703031E-07</v>
       </c>
       <c r="AA31">
-        <v>9.268073260916713E-07</v>
+        <v>9.268073260916738E-07</v>
       </c>
       <c r="AB31">
-        <v>8.819618103130419E-07</v>
+        <v>8.819618103130444E-07</v>
       </c>
       <c r="AC31">
-        <v>8.371162945344129E-07</v>
+        <v>8.371162945344151E-07</v>
       </c>
       <c r="AD31">
-        <v>7.922707787557836E-07</v>
+        <v>7.922707787557856E-07</v>
       </c>
       <c r="AE31">
-        <v>7.474252629771542E-07</v>
+        <v>7.474252629771561E-07</v>
       </c>
       <c r="AF31">
-        <v>7.025797471985251E-07</v>
+        <v>7.02579747198527E-07</v>
       </c>
       <c r="AG31">
-        <v>6.577342314198958E-07</v>
+        <v>6.577342314198976E-07</v>
       </c>
       <c r="AH31">
-        <v>6.128887156412665E-07</v>
+        <v>6.128887156412681E-07</v>
       </c>
       <c r="AI31">
-        <v>5.680431998626372E-07</v>
+        <v>5.680431998626387E-07</v>
       </c>
       <c r="AJ31">
-        <v>5.23197684084008E-07</v>
+        <v>5.231976840840095E-07</v>
       </c>
       <c r="AK31">
-        <v>4.783521683053787E-07</v>
+        <v>4.7835216830538E-07</v>
       </c>
       <c r="AL31">
-        <v>4.335066525267495E-07</v>
+        <v>4.335066525267506E-07</v>
       </c>
       <c r="AM31">
-        <v>3.886611367481202E-07</v>
+        <v>3.886611367481212E-07</v>
       </c>
       <c r="AN31">
-        <v>3.43815620969491E-07</v>
+        <v>3.43815620969492E-07</v>
       </c>
       <c r="AO31">
-        <v>2.989701051908617E-07</v>
+        <v>2.989701051908625E-07</v>
       </c>
       <c r="AP31">
-        <v>2.541245894122325E-07</v>
+        <v>2.541245894122331E-07</v>
       </c>
       <c r="AQ31">
-        <v>2.092790736336033E-07</v>
+        <v>2.092790736336038E-07</v>
       </c>
       <c r="AR31">
-        <v>1.644335578549739E-07</v>
+        <v>1.644335578549743E-07</v>
       </c>
       <c r="AS31">
-        <v>1.195880420763447E-07</v>
+        <v>1.19588042076345E-07</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -36652,112 +36652,112 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.1271533873611312</v>
+        <v>0.127153387361131</v>
       </c>
       <c r="K32">
-        <v>0.1278195087035352</v>
+        <v>0.127819508703535</v>
       </c>
       <c r="L32">
         <v>0.128492646050898</v>
       </c>
       <c r="M32">
-        <v>0.1291729108354591</v>
+        <v>0.129172910835459</v>
       </c>
       <c r="N32">
-        <v>0.1298604168617923</v>
+        <v>0.129860416861792</v>
       </c>
       <c r="O32">
-        <v>0.1305552803702761</v>
+        <v>0.130555280370276</v>
       </c>
       <c r="P32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="Q32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="R32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="S32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="T32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="U32">
-        <v>0.1278551709611395</v>
+        <v>0.127855170961139</v>
       </c>
       <c r="V32">
-        <v>0.1230606020500968</v>
+        <v>0.1230606020500963</v>
       </c>
       <c r="W32">
-        <v>0.118266033139054</v>
+        <v>0.1182660331390536</v>
       </c>
       <c r="X32">
-        <v>0.1134714642280113</v>
+        <v>0.1134714642280109</v>
       </c>
       <c r="Y32">
-        <v>0.1086768953169686</v>
+        <v>0.1086768953169682</v>
       </c>
       <c r="Z32">
-        <v>0.1038823264059258</v>
+        <v>0.1038823264059254</v>
       </c>
       <c r="AA32">
-        <v>0.09908775749488311</v>
+        <v>0.09908775749488273</v>
       </c>
       <c r="AB32">
-        <v>0.09429318858384036</v>
+        <v>0.09429318858383999</v>
       </c>
       <c r="AC32">
-        <v>0.08949861967279765</v>
+        <v>0.08949861967279729</v>
       </c>
       <c r="AD32">
-        <v>0.08470405076175491</v>
+        <v>0.08470405076175458</v>
       </c>
       <c r="AE32">
-        <v>0.07990948185071217</v>
+        <v>0.07990948185071185</v>
       </c>
       <c r="AF32">
-        <v>0.07511491293966946</v>
+        <v>0.07511491293966917</v>
       </c>
       <c r="AG32">
-        <v>0.07032034402862672</v>
+        <v>0.07032034402862644</v>
       </c>
       <c r="AH32">
-        <v>0.06552577511758399</v>
+        <v>0.06552577511758374</v>
       </c>
       <c r="AI32">
-        <v>0.06073120620654126</v>
+        <v>0.06073120620654102</v>
       </c>
       <c r="AJ32">
-        <v>0.05593663729549853</v>
+        <v>0.05593663729549831</v>
       </c>
       <c r="AK32">
-        <v>0.0511420683844558</v>
+        <v>0.0511420683844556</v>
       </c>
       <c r="AL32">
-        <v>0.04634749947341306</v>
+        <v>0.04634749947341288</v>
       </c>
       <c r="AM32">
-        <v>0.04155293056237033</v>
+        <v>0.04155293056237017</v>
       </c>
       <c r="AN32">
-        <v>0.03675836165132761</v>
+        <v>0.03675836165132747</v>
       </c>
       <c r="AO32">
-        <v>0.03196379274028487</v>
+        <v>0.03196379274028474</v>
       </c>
       <c r="AP32">
-        <v>0.02716922382924214</v>
+        <v>0.02716922382924204</v>
       </c>
       <c r="AQ32">
-        <v>0.02237465491819941</v>
+        <v>0.02237465491819933</v>
       </c>
       <c r="AR32">
-        <v>0.01758008600715668</v>
+        <v>0.01758008600715661</v>
       </c>
       <c r="AS32">
-        <v>0.01278551709611395</v>
+        <v>0.0127855170961139</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -36905,109 +36905,109 @@
         <v>1.26628825388036</v>
       </c>
       <c r="K34">
-        <v>1.494125521989148</v>
+        <v>1.49412552198915</v>
       </c>
       <c r="L34">
-        <v>1.692547742384493</v>
+        <v>1.69254774238449</v>
       </c>
       <c r="M34">
-        <v>1.945772166554108</v>
+        <v>1.94577216655411</v>
       </c>
       <c r="N34">
-        <v>1.956128285973616</v>
+        <v>1.95612828597362</v>
       </c>
       <c r="O34">
-        <v>1.966595233459874</v>
+        <v>1.96659523345987</v>
       </c>
       <c r="P34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Q34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="R34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="S34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="T34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="U34">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="V34">
-        <v>1.746304974129554</v>
+        <v>1.746304974129552</v>
       </c>
       <c r="W34">
-        <v>1.678267117994636</v>
+        <v>1.678267117994635</v>
       </c>
       <c r="X34">
-        <v>1.610229261859719</v>
+        <v>1.610229261859717</v>
       </c>
       <c r="Y34">
-        <v>1.542191405724801</v>
+        <v>1.5421914057248</v>
       </c>
       <c r="Z34">
-        <v>1.474153549589883</v>
+        <v>1.474153549589882</v>
       </c>
       <c r="AA34">
-        <v>1.406115693454966</v>
+        <v>1.406115693454964</v>
       </c>
       <c r="AB34">
-        <v>1.338077837320048</v>
+        <v>1.338077837320046</v>
       </c>
       <c r="AC34">
-        <v>1.27003998118513</v>
+        <v>1.270039981185129</v>
       </c>
       <c r="AD34">
-        <v>1.202002125050213</v>
+        <v>1.202002125050211</v>
       </c>
       <c r="AE34">
-        <v>1.133964268915295</v>
+        <v>1.133964268915294</v>
       </c>
       <c r="AF34">
-        <v>1.065926412780377</v>
+        <v>1.065926412780376</v>
       </c>
       <c r="AG34">
-        <v>0.9978885566454596</v>
+        <v>0.9978885566454585</v>
       </c>
       <c r="AH34">
-        <v>0.929850700510542</v>
+        <v>0.929850700510541</v>
       </c>
       <c r="AI34">
-        <v>0.8618128443756241</v>
+        <v>0.8618128443756232</v>
       </c>
       <c r="AJ34">
-        <v>0.7937749882407065</v>
+        <v>0.7937749882407056</v>
       </c>
       <c r="AK34">
-        <v>0.7257371321057888</v>
+        <v>0.7257371321057881</v>
       </c>
       <c r="AL34">
-        <v>0.657699275970871</v>
+        <v>0.6576992759708703</v>
       </c>
       <c r="AM34">
-        <v>0.5896614198359533</v>
+        <v>0.5896614198359528</v>
       </c>
       <c r="AN34">
-        <v>0.5216235637010358</v>
+        <v>0.5216235637010352</v>
       </c>
       <c r="AO34">
-        <v>0.4535857075661179</v>
+        <v>0.4535857075661174</v>
       </c>
       <c r="AP34">
-        <v>0.3855478514312003</v>
+        <v>0.3855478514311999</v>
       </c>
       <c r="AQ34">
-        <v>0.3175099952962827</v>
+        <v>0.3175099952962823</v>
       </c>
       <c r="AR34">
-        <v>0.2494721391613648</v>
+        <v>0.2494721391613646</v>
       </c>
       <c r="AS34">
-        <v>0.1814342830264472</v>
+        <v>0.181434283026447</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -37030,109 +37030,109 @@
         <v>1.26628825388036</v>
       </c>
       <c r="K35">
-        <v>1.494125521989148</v>
+        <v>1.49412552198915</v>
       </c>
       <c r="L35">
-        <v>1.692547742384493</v>
+        <v>1.69254774238449</v>
       </c>
       <c r="M35">
-        <v>1.945772166554108</v>
+        <v>1.94577216655411</v>
       </c>
       <c r="N35">
-        <v>1.956128285973616</v>
+        <v>1.95612828597362</v>
       </c>
       <c r="O35">
-        <v>1.966595233459874</v>
+        <v>1.96659523345987</v>
       </c>
       <c r="P35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="Q35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="R35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="S35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="T35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="U35">
-        <v>1.814342830264472</v>
+        <v>1.81434283026447</v>
       </c>
       <c r="V35">
-        <v>1.746304974129554</v>
+        <v>1.746304974129552</v>
       </c>
       <c r="W35">
-        <v>1.678267117994636</v>
+        <v>1.678267117994635</v>
       </c>
       <c r="X35">
-        <v>1.610229261859719</v>
+        <v>1.610229261859717</v>
       </c>
       <c r="Y35">
-        <v>1.542191405724801</v>
+        <v>1.5421914057248</v>
       </c>
       <c r="Z35">
-        <v>1.474153549589883</v>
+        <v>1.474153549589882</v>
       </c>
       <c r="AA35">
-        <v>1.406115693454966</v>
+        <v>1.406115693454964</v>
       </c>
       <c r="AB35">
-        <v>1.338077837320048</v>
+        <v>1.338077837320046</v>
       </c>
       <c r="AC35">
-        <v>1.27003998118513</v>
+        <v>1.270039981185129</v>
       </c>
       <c r="AD35">
-        <v>1.202002125050213</v>
+        <v>1.202002125050211</v>
       </c>
       <c r="AE35">
-        <v>1.133964268915295</v>
+        <v>1.133964268915294</v>
       </c>
       <c r="AF35">
-        <v>1.065926412780377</v>
+        <v>1.065926412780376</v>
       </c>
       <c r="AG35">
-        <v>0.9978885566454596</v>
+        <v>0.9978885566454585</v>
       </c>
       <c r="AH35">
-        <v>0.929850700510542</v>
+        <v>0.929850700510541</v>
       </c>
       <c r="AI35">
-        <v>0.8618128443756241</v>
+        <v>0.8618128443756232</v>
       </c>
       <c r="AJ35">
-        <v>0.7937749882407065</v>
+        <v>0.7937749882407056</v>
       </c>
       <c r="AK35">
-        <v>0.7257371321057888</v>
+        <v>0.7257371321057881</v>
       </c>
       <c r="AL35">
-        <v>0.657699275970871</v>
+        <v>0.6576992759708703</v>
       </c>
       <c r="AM35">
-        <v>0.5896614198359533</v>
+        <v>0.5896614198359528</v>
       </c>
       <c r="AN35">
-        <v>0.5216235637010358</v>
+        <v>0.5216235637010352</v>
       </c>
       <c r="AO35">
-        <v>0.4535857075661179</v>
+        <v>0.4535857075661174</v>
       </c>
       <c r="AP35">
-        <v>0.3855478514312003</v>
+        <v>0.3855478514311999</v>
       </c>
       <c r="AQ35">
-        <v>0.3175099952962827</v>
+        <v>0.3175099952962823</v>
       </c>
       <c r="AR35">
-        <v>0.2494721391613648</v>
+        <v>0.2494721391613646</v>
       </c>
       <c r="AS35">
-        <v>0.1814342830264472</v>
+        <v>0.181434283026447</v>
       </c>
     </row>
     <row r="36" spans="1:45">

--- a/iran/transformations/templates/calibrated/iran/model_input_variables_iran_ip_calibrated.xlsx
+++ b/iran/transformations/templates/calibrated/iran/model_input_variables_iran_ip_calibrated.xlsx
@@ -11,13 +11,19 @@
     <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
     <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
     <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
+    <sheet name="strategy_id-7015" sheetId="5" r:id="rId5"/>
+    <sheet name="strategy_id-7016" sheetId="6" r:id="rId6"/>
+    <sheet name="strategy_id-7017" sheetId="7" r:id="rId7"/>
+    <sheet name="strategy_id-7018" sheetId="8" r:id="rId8"/>
+    <sheet name="strategy_id-7020" sheetId="9" r:id="rId9"/>
+    <sheet name="strategy_id-7033" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="196">
   <si>
     <t>subsector</t>
   </si>
@@ -23958,6 +23964,1388 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="W2">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="X2">
+        <v>0.1</v>
+      </c>
+      <c r="Y2">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Z2">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AA2">
+        <v>0.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.2333333333333334</v>
+      </c>
+      <c r="AC2">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AD2">
+        <v>0.3</v>
+      </c>
+      <c r="AE2">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AF2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="AG2">
+        <v>0.4</v>
+      </c>
+      <c r="AH2">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AI2">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AJ2">
+        <v>0.5</v>
+      </c>
+      <c r="AK2">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AL2">
+        <v>0.5666666666666668</v>
+      </c>
+      <c r="AM2">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AO2">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="AP2">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="AQ2">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AR2">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AS2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="W3">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="X3">
+        <v>0.1</v>
+      </c>
+      <c r="Y3">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Z3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AA3">
+        <v>0.2</v>
+      </c>
+      <c r="AB3">
+        <v>0.2333333333333334</v>
+      </c>
+      <c r="AC3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AD3">
+        <v>0.3</v>
+      </c>
+      <c r="AE3">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AF3">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="AG3">
+        <v>0.4</v>
+      </c>
+      <c r="AH3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AI3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AJ3">
+        <v>0.5</v>
+      </c>
+      <c r="AK3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AL3">
+        <v>0.5666666666666668</v>
+      </c>
+      <c r="AM3">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AN3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AO3">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="AP3">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="AQ3">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AR3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AS3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="W4">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="X4">
+        <v>0.1</v>
+      </c>
+      <c r="Y4">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Z4">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AA4">
+        <v>0.2</v>
+      </c>
+      <c r="AB4">
+        <v>0.2333333333333334</v>
+      </c>
+      <c r="AC4">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AD4">
+        <v>0.3</v>
+      </c>
+      <c r="AE4">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AF4">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="AG4">
+        <v>0.4</v>
+      </c>
+      <c r="AH4">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AI4">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AJ4">
+        <v>0.5</v>
+      </c>
+      <c r="AK4">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AL4">
+        <v>0.5666666666666668</v>
+      </c>
+      <c r="AM4">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AN4">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AO4">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="AP4">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="AQ4">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AR4">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AS4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="W5">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="X5">
+        <v>0.1</v>
+      </c>
+      <c r="Y5">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Z5">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AA5">
+        <v>0.2</v>
+      </c>
+      <c r="AB5">
+        <v>0.2333333333333334</v>
+      </c>
+      <c r="AC5">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AD5">
+        <v>0.3</v>
+      </c>
+      <c r="AE5">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AF5">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="AG5">
+        <v>0.4</v>
+      </c>
+      <c r="AH5">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AI5">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5</v>
+      </c>
+      <c r="AK5">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AL5">
+        <v>0.5666666666666668</v>
+      </c>
+      <c r="AM5">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AN5">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AO5">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="AP5">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AR5">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AS5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.9</v>
+      </c>
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+      <c r="M6">
+        <v>0.9</v>
+      </c>
+      <c r="N6">
+        <v>0.9</v>
+      </c>
+      <c r="O6">
+        <v>0.9</v>
+      </c>
+      <c r="P6">
+        <v>0.9</v>
+      </c>
+      <c r="Q6">
+        <v>0.9</v>
+      </c>
+      <c r="R6">
+        <v>0.9</v>
+      </c>
+      <c r="S6">
+        <v>0.9</v>
+      </c>
+      <c r="T6">
+        <v>0.9</v>
+      </c>
+      <c r="U6">
+        <v>0.9</v>
+      </c>
+      <c r="V6">
+        <v>0.9</v>
+      </c>
+      <c r="W6">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="X6">
+        <v>0.9</v>
+      </c>
+      <c r="Y6">
+        <v>0.9</v>
+      </c>
+      <c r="Z6">
+        <v>0.9</v>
+      </c>
+      <c r="AA6">
+        <v>0.9</v>
+      </c>
+      <c r="AB6">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>0.9</v>
+      </c>
+      <c r="AE6">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>0.9</v>
+      </c>
+      <c r="AH6">
+        <v>0.9</v>
+      </c>
+      <c r="AI6">
+        <v>0.9</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9</v>
+      </c>
+      <c r="AK6">
+        <v>0.9</v>
+      </c>
+      <c r="AL6">
+        <v>0.9</v>
+      </c>
+      <c r="AM6">
+        <v>0.9</v>
+      </c>
+      <c r="AN6">
+        <v>0.9</v>
+      </c>
+      <c r="AO6">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AP6">
+        <v>0.9</v>
+      </c>
+      <c r="AQ6">
+        <v>0.9</v>
+      </c>
+      <c r="AR6">
+        <v>0.9</v>
+      </c>
+      <c r="AS6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.9</v>
+      </c>
+      <c r="K7">
+        <v>0.9</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+      <c r="M7">
+        <v>0.9</v>
+      </c>
+      <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7">
+        <v>0.9</v>
+      </c>
+      <c r="P7">
+        <v>0.9</v>
+      </c>
+      <c r="Q7">
+        <v>0.9</v>
+      </c>
+      <c r="R7">
+        <v>0.9</v>
+      </c>
+      <c r="S7">
+        <v>0.9</v>
+      </c>
+      <c r="T7">
+        <v>0.9</v>
+      </c>
+      <c r="U7">
+        <v>0.9</v>
+      </c>
+      <c r="V7">
+        <v>0.9</v>
+      </c>
+      <c r="W7">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="X7">
+        <v>0.9</v>
+      </c>
+      <c r="Y7">
+        <v>0.9</v>
+      </c>
+      <c r="Z7">
+        <v>0.9</v>
+      </c>
+      <c r="AA7">
+        <v>0.9</v>
+      </c>
+      <c r="AB7">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.9</v>
+      </c>
+      <c r="AE7">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.9</v>
+      </c>
+      <c r="AH7">
+        <v>0.9</v>
+      </c>
+      <c r="AI7">
+        <v>0.9</v>
+      </c>
+      <c r="AJ7">
+        <v>0.9</v>
+      </c>
+      <c r="AK7">
+        <v>0.9</v>
+      </c>
+      <c r="AL7">
+        <v>0.9</v>
+      </c>
+      <c r="AM7">
+        <v>0.9</v>
+      </c>
+      <c r="AN7">
+        <v>0.9</v>
+      </c>
+      <c r="AO7">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AP7">
+        <v>0.9</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9</v>
+      </c>
+      <c r="AR7">
+        <v>0.9</v>
+      </c>
+      <c r="AS7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.9</v>
+      </c>
+      <c r="K8">
+        <v>0.9</v>
+      </c>
+      <c r="L8">
+        <v>0.9</v>
+      </c>
+      <c r="M8">
+        <v>0.9</v>
+      </c>
+      <c r="N8">
+        <v>0.9</v>
+      </c>
+      <c r="O8">
+        <v>0.9</v>
+      </c>
+      <c r="P8">
+        <v>0.9</v>
+      </c>
+      <c r="Q8">
+        <v>0.9</v>
+      </c>
+      <c r="R8">
+        <v>0.9</v>
+      </c>
+      <c r="S8">
+        <v>0.9</v>
+      </c>
+      <c r="T8">
+        <v>0.9</v>
+      </c>
+      <c r="U8">
+        <v>0.9</v>
+      </c>
+      <c r="V8">
+        <v>0.9</v>
+      </c>
+      <c r="W8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="X8">
+        <v>0.9</v>
+      </c>
+      <c r="Y8">
+        <v>0.9</v>
+      </c>
+      <c r="Z8">
+        <v>0.9</v>
+      </c>
+      <c r="AA8">
+        <v>0.9</v>
+      </c>
+      <c r="AB8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD8">
+        <v>0.9</v>
+      </c>
+      <c r="AE8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.9</v>
+      </c>
+      <c r="AH8">
+        <v>0.9</v>
+      </c>
+      <c r="AI8">
+        <v>0.9</v>
+      </c>
+      <c r="AJ8">
+        <v>0.9</v>
+      </c>
+      <c r="AK8">
+        <v>0.9</v>
+      </c>
+      <c r="AL8">
+        <v>0.9</v>
+      </c>
+      <c r="AM8">
+        <v>0.9</v>
+      </c>
+      <c r="AN8">
+        <v>0.9</v>
+      </c>
+      <c r="AO8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AP8">
+        <v>0.9</v>
+      </c>
+      <c r="AQ8">
+        <v>0.9</v>
+      </c>
+      <c r="AR8">
+        <v>0.9</v>
+      </c>
+      <c r="AS8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
+        <v>0.9</v>
+      </c>
+      <c r="L9">
+        <v>0.9</v>
+      </c>
+      <c r="M9">
+        <v>0.9</v>
+      </c>
+      <c r="N9">
+        <v>0.9</v>
+      </c>
+      <c r="O9">
+        <v>0.9</v>
+      </c>
+      <c r="P9">
+        <v>0.9</v>
+      </c>
+      <c r="Q9">
+        <v>0.9</v>
+      </c>
+      <c r="R9">
+        <v>0.9</v>
+      </c>
+      <c r="S9">
+        <v>0.9</v>
+      </c>
+      <c r="T9">
+        <v>0.9</v>
+      </c>
+      <c r="U9">
+        <v>0.9</v>
+      </c>
+      <c r="V9">
+        <v>0.9</v>
+      </c>
+      <c r="W9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="X9">
+        <v>0.9</v>
+      </c>
+      <c r="Y9">
+        <v>0.9</v>
+      </c>
+      <c r="Z9">
+        <v>0.9</v>
+      </c>
+      <c r="AA9">
+        <v>0.9</v>
+      </c>
+      <c r="AB9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD9">
+        <v>0.9</v>
+      </c>
+      <c r="AE9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.9</v>
+      </c>
+      <c r="AH9">
+        <v>0.9</v>
+      </c>
+      <c r="AI9">
+        <v>0.9</v>
+      </c>
+      <c r="AJ9">
+        <v>0.9</v>
+      </c>
+      <c r="AK9">
+        <v>0.9</v>
+      </c>
+      <c r="AL9">
+        <v>0.9</v>
+      </c>
+      <c r="AM9">
+        <v>0.9</v>
+      </c>
+      <c r="AN9">
+        <v>0.9</v>
+      </c>
+      <c r="AO9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AP9">
+        <v>0.9</v>
+      </c>
+      <c r="AQ9">
+        <v>0.9</v>
+      </c>
+      <c r="AR9">
+        <v>0.9</v>
+      </c>
+      <c r="AS9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.9</v>
+      </c>
+      <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="L10">
+        <v>0.9</v>
+      </c>
+      <c r="M10">
+        <v>0.9</v>
+      </c>
+      <c r="N10">
+        <v>0.9</v>
+      </c>
+      <c r="O10">
+        <v>0.9</v>
+      </c>
+      <c r="P10">
+        <v>0.9</v>
+      </c>
+      <c r="Q10">
+        <v>0.9</v>
+      </c>
+      <c r="R10">
+        <v>0.9</v>
+      </c>
+      <c r="S10">
+        <v>0.9</v>
+      </c>
+      <c r="T10">
+        <v>0.9</v>
+      </c>
+      <c r="U10">
+        <v>0.9</v>
+      </c>
+      <c r="V10">
+        <v>0.9</v>
+      </c>
+      <c r="W10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="X10">
+        <v>0.9</v>
+      </c>
+      <c r="Y10">
+        <v>0.9</v>
+      </c>
+      <c r="Z10">
+        <v>0.9</v>
+      </c>
+      <c r="AA10">
+        <v>0.9</v>
+      </c>
+      <c r="AB10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>0.9</v>
+      </c>
+      <c r="AE10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AF10">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>0.9</v>
+      </c>
+      <c r="AH10">
+        <v>0.9</v>
+      </c>
+      <c r="AI10">
+        <v>0.9</v>
+      </c>
+      <c r="AJ10">
+        <v>0.9</v>
+      </c>
+      <c r="AK10">
+        <v>0.9</v>
+      </c>
+      <c r="AL10">
+        <v>0.9</v>
+      </c>
+      <c r="AM10">
+        <v>0.9</v>
+      </c>
+      <c r="AN10">
+        <v>0.9</v>
+      </c>
+      <c r="AO10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AP10">
+        <v>0.9</v>
+      </c>
+      <c r="AQ10">
+        <v>0.9</v>
+      </c>
+      <c r="AR10">
+        <v>0.9</v>
+      </c>
+      <c r="AS10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <v>0.9</v>
+      </c>
+      <c r="L11">
+        <v>0.9</v>
+      </c>
+      <c r="M11">
+        <v>0.9</v>
+      </c>
+      <c r="N11">
+        <v>0.9</v>
+      </c>
+      <c r="O11">
+        <v>0.9</v>
+      </c>
+      <c r="P11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11">
+        <v>0.9</v>
+      </c>
+      <c r="R11">
+        <v>0.9</v>
+      </c>
+      <c r="S11">
+        <v>0.9</v>
+      </c>
+      <c r="T11">
+        <v>0.9</v>
+      </c>
+      <c r="U11">
+        <v>0.9</v>
+      </c>
+      <c r="V11">
+        <v>0.9</v>
+      </c>
+      <c r="W11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.9</v>
+      </c>
+      <c r="Y11">
+        <v>0.9</v>
+      </c>
+      <c r="Z11">
+        <v>0.9</v>
+      </c>
+      <c r="AA11">
+        <v>0.9</v>
+      </c>
+      <c r="AB11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.9</v>
+      </c>
+      <c r="AE11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>0.9</v>
+      </c>
+      <c r="AH11">
+        <v>0.9</v>
+      </c>
+      <c r="AI11">
+        <v>0.9</v>
+      </c>
+      <c r="AJ11">
+        <v>0.9</v>
+      </c>
+      <c r="AK11">
+        <v>0.9</v>
+      </c>
+      <c r="AL11">
+        <v>0.9</v>
+      </c>
+      <c r="AM11">
+        <v>0.9</v>
+      </c>
+      <c r="AN11">
+        <v>0.9</v>
+      </c>
+      <c r="AO11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AP11">
+        <v>0.9</v>
+      </c>
+      <c r="AQ11">
+        <v>0.9</v>
+      </c>
+      <c r="AR11">
+        <v>0.9</v>
+      </c>
+      <c r="AS11">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS18"/>
@@ -38495,4 +39883,5504 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.72</v>
+      </c>
+      <c r="K2">
+        <v>0.72</v>
+      </c>
+      <c r="L2">
+        <v>0.72</v>
+      </c>
+      <c r="M2">
+        <v>0.72</v>
+      </c>
+      <c r="N2">
+        <v>0.72</v>
+      </c>
+      <c r="O2">
+        <v>0.72</v>
+      </c>
+      <c r="P2">
+        <v>0.72</v>
+      </c>
+      <c r="Q2">
+        <v>0.72</v>
+      </c>
+      <c r="R2">
+        <v>0.72</v>
+      </c>
+      <c r="S2">
+        <v>0.72</v>
+      </c>
+      <c r="T2">
+        <v>0.72</v>
+      </c>
+      <c r="U2">
+        <v>0.72</v>
+      </c>
+      <c r="V2">
+        <v>0.7191666666666666</v>
+      </c>
+      <c r="W2">
+        <v>0.7183333333333333</v>
+      </c>
+      <c r="X2">
+        <v>0.7175</v>
+      </c>
+      <c r="Y2">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="Z2">
+        <v>0.7158333333333333</v>
+      </c>
+      <c r="AA2">
+        <v>0.7150000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>0.7141666666666666</v>
+      </c>
+      <c r="AC2">
+        <v>0.7133333333333334</v>
+      </c>
+      <c r="AD2">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>0.7116666666666667</v>
+      </c>
+      <c r="AF2">
+        <v>0.7108333333333333</v>
+      </c>
+      <c r="AG2">
+        <v>0.71</v>
+      </c>
+      <c r="AH2">
+        <v>0.7091666666666666</v>
+      </c>
+      <c r="AI2">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="AJ2">
+        <v>0.7075</v>
+      </c>
+      <c r="AK2">
+        <v>0.7066666666666667</v>
+      </c>
+      <c r="AL2">
+        <v>0.7058333333333333</v>
+      </c>
+      <c r="AM2">
+        <v>0.7049999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>0.7041666666666666</v>
+      </c>
+      <c r="AO2">
+        <v>0.7033333333333334</v>
+      </c>
+      <c r="AP2">
+        <v>0.7024999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.7016666666666667</v>
+      </c>
+      <c r="AR2">
+        <v>0.7008333333333332</v>
+      </c>
+      <c r="AS2">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.9875</v>
+      </c>
+      <c r="W2">
+        <v>0.975</v>
+      </c>
+      <c r="X2">
+        <v>0.9625</v>
+      </c>
+      <c r="Y2">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.9375</v>
+      </c>
+      <c r="AA2">
+        <v>0.925</v>
+      </c>
+      <c r="AB2">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.9</v>
+      </c>
+      <c r="AD2">
+        <v>0.8875</v>
+      </c>
+      <c r="AE2">
+        <v>0.875</v>
+      </c>
+      <c r="AF2">
+        <v>0.8625</v>
+      </c>
+      <c r="AG2">
+        <v>0.85</v>
+      </c>
+      <c r="AH2">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>0.825</v>
+      </c>
+      <c r="AJ2">
+        <v>0.8125</v>
+      </c>
+      <c r="AK2">
+        <v>0.8</v>
+      </c>
+      <c r="AL2">
+        <v>0.7875</v>
+      </c>
+      <c r="AM2">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.7625</v>
+      </c>
+      <c r="AO2">
+        <v>0.75</v>
+      </c>
+      <c r="AP2">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.725</v>
+      </c>
+      <c r="AR2">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0.9875</v>
+      </c>
+      <c r="W3">
+        <v>0.975</v>
+      </c>
+      <c r="X3">
+        <v>0.9625</v>
+      </c>
+      <c r="Y3">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.9375</v>
+      </c>
+      <c r="AA3">
+        <v>0.925</v>
+      </c>
+      <c r="AB3">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.9</v>
+      </c>
+      <c r="AD3">
+        <v>0.8875</v>
+      </c>
+      <c r="AE3">
+        <v>0.875</v>
+      </c>
+      <c r="AF3">
+        <v>0.8625</v>
+      </c>
+      <c r="AG3">
+        <v>0.85</v>
+      </c>
+      <c r="AH3">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.825</v>
+      </c>
+      <c r="AJ3">
+        <v>0.8125</v>
+      </c>
+      <c r="AK3">
+        <v>0.8</v>
+      </c>
+      <c r="AL3">
+        <v>0.7875</v>
+      </c>
+      <c r="AM3">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>0.7625</v>
+      </c>
+      <c r="AO3">
+        <v>0.75</v>
+      </c>
+      <c r="AP3">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.725</v>
+      </c>
+      <c r="AR3">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0.9875</v>
+      </c>
+      <c r="W4">
+        <v>0.975</v>
+      </c>
+      <c r="X4">
+        <v>0.9625</v>
+      </c>
+      <c r="Y4">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.9375</v>
+      </c>
+      <c r="AA4">
+        <v>0.925</v>
+      </c>
+      <c r="AB4">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.9</v>
+      </c>
+      <c r="AD4">
+        <v>0.8875</v>
+      </c>
+      <c r="AE4">
+        <v>0.875</v>
+      </c>
+      <c r="AF4">
+        <v>0.8625</v>
+      </c>
+      <c r="AG4">
+        <v>0.85</v>
+      </c>
+      <c r="AH4">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>0.825</v>
+      </c>
+      <c r="AJ4">
+        <v>0.8125</v>
+      </c>
+      <c r="AK4">
+        <v>0.8</v>
+      </c>
+      <c r="AL4">
+        <v>0.7875</v>
+      </c>
+      <c r="AM4">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>0.7625</v>
+      </c>
+      <c r="AO4">
+        <v>0.75</v>
+      </c>
+      <c r="AP4">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>0.725</v>
+      </c>
+      <c r="AR4">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0.9875</v>
+      </c>
+      <c r="W5">
+        <v>0.975</v>
+      </c>
+      <c r="X5">
+        <v>0.9625</v>
+      </c>
+      <c r="Y5">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.9375</v>
+      </c>
+      <c r="AA5">
+        <v>0.925</v>
+      </c>
+      <c r="AB5">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.9</v>
+      </c>
+      <c r="AD5">
+        <v>0.8875</v>
+      </c>
+      <c r="AE5">
+        <v>0.875</v>
+      </c>
+      <c r="AF5">
+        <v>0.8625</v>
+      </c>
+      <c r="AG5">
+        <v>0.85</v>
+      </c>
+      <c r="AH5">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI5">
+        <v>0.825</v>
+      </c>
+      <c r="AJ5">
+        <v>0.8125</v>
+      </c>
+      <c r="AK5">
+        <v>0.8</v>
+      </c>
+      <c r="AL5">
+        <v>0.7875</v>
+      </c>
+      <c r="AM5">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN5">
+        <v>0.7625</v>
+      </c>
+      <c r="AO5">
+        <v>0.75</v>
+      </c>
+      <c r="AP5">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ5">
+        <v>0.725</v>
+      </c>
+      <c r="AR5">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0.9875</v>
+      </c>
+      <c r="W6">
+        <v>0.975</v>
+      </c>
+      <c r="X6">
+        <v>0.9625</v>
+      </c>
+      <c r="Y6">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.9375</v>
+      </c>
+      <c r="AA6">
+        <v>0.925</v>
+      </c>
+      <c r="AB6">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>0.9</v>
+      </c>
+      <c r="AD6">
+        <v>0.8875</v>
+      </c>
+      <c r="AE6">
+        <v>0.875</v>
+      </c>
+      <c r="AF6">
+        <v>0.8625</v>
+      </c>
+      <c r="AG6">
+        <v>0.85</v>
+      </c>
+      <c r="AH6">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.825</v>
+      </c>
+      <c r="AJ6">
+        <v>0.8125</v>
+      </c>
+      <c r="AK6">
+        <v>0.8</v>
+      </c>
+      <c r="AL6">
+        <v>0.7875</v>
+      </c>
+      <c r="AM6">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN6">
+        <v>0.7625</v>
+      </c>
+      <c r="AO6">
+        <v>0.75</v>
+      </c>
+      <c r="AP6">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>0.725</v>
+      </c>
+      <c r="AR6">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0.9875</v>
+      </c>
+      <c r="W7">
+        <v>0.975</v>
+      </c>
+      <c r="X7">
+        <v>0.9625</v>
+      </c>
+      <c r="Y7">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.9375</v>
+      </c>
+      <c r="AA7">
+        <v>0.925</v>
+      </c>
+      <c r="AB7">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.9</v>
+      </c>
+      <c r="AD7">
+        <v>0.8875</v>
+      </c>
+      <c r="AE7">
+        <v>0.875</v>
+      </c>
+      <c r="AF7">
+        <v>0.8625</v>
+      </c>
+      <c r="AG7">
+        <v>0.85</v>
+      </c>
+      <c r="AH7">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI7">
+        <v>0.825</v>
+      </c>
+      <c r="AJ7">
+        <v>0.8125</v>
+      </c>
+      <c r="AK7">
+        <v>0.8</v>
+      </c>
+      <c r="AL7">
+        <v>0.7875</v>
+      </c>
+      <c r="AM7">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.7625</v>
+      </c>
+      <c r="AO7">
+        <v>0.75</v>
+      </c>
+      <c r="AP7">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.725</v>
+      </c>
+      <c r="AR7">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0.9875</v>
+      </c>
+      <c r="W8">
+        <v>0.975</v>
+      </c>
+      <c r="X8">
+        <v>0.9625</v>
+      </c>
+      <c r="Y8">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>0.9375</v>
+      </c>
+      <c r="AA8">
+        <v>0.925</v>
+      </c>
+      <c r="AB8">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>0.9</v>
+      </c>
+      <c r="AD8">
+        <v>0.8875</v>
+      </c>
+      <c r="AE8">
+        <v>0.875</v>
+      </c>
+      <c r="AF8">
+        <v>0.8625</v>
+      </c>
+      <c r="AG8">
+        <v>0.85</v>
+      </c>
+      <c r="AH8">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI8">
+        <v>0.825</v>
+      </c>
+      <c r="AJ8">
+        <v>0.8125</v>
+      </c>
+      <c r="AK8">
+        <v>0.8</v>
+      </c>
+      <c r="AL8">
+        <v>0.7875</v>
+      </c>
+      <c r="AM8">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>0.7625</v>
+      </c>
+      <c r="AO8">
+        <v>0.75</v>
+      </c>
+      <c r="AP8">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ8">
+        <v>0.725</v>
+      </c>
+      <c r="AR8">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1.5</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0.9875</v>
+      </c>
+      <c r="W9">
+        <v>0.975</v>
+      </c>
+      <c r="X9">
+        <v>0.9625</v>
+      </c>
+      <c r="Y9">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.9375</v>
+      </c>
+      <c r="AA9">
+        <v>0.925</v>
+      </c>
+      <c r="AB9">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.9</v>
+      </c>
+      <c r="AD9">
+        <v>0.8875</v>
+      </c>
+      <c r="AE9">
+        <v>0.875</v>
+      </c>
+      <c r="AF9">
+        <v>0.8625</v>
+      </c>
+      <c r="AG9">
+        <v>0.85</v>
+      </c>
+      <c r="AH9">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.825</v>
+      </c>
+      <c r="AJ9">
+        <v>0.8125</v>
+      </c>
+      <c r="AK9">
+        <v>0.8</v>
+      </c>
+      <c r="AL9">
+        <v>0.7875</v>
+      </c>
+      <c r="AM9">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.7625</v>
+      </c>
+      <c r="AO9">
+        <v>0.75</v>
+      </c>
+      <c r="AP9">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>0.725</v>
+      </c>
+      <c r="AR9">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1.5</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0.9875</v>
+      </c>
+      <c r="W10">
+        <v>0.975</v>
+      </c>
+      <c r="X10">
+        <v>0.9625</v>
+      </c>
+      <c r="Y10">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>0.9375</v>
+      </c>
+      <c r="AA10">
+        <v>0.925</v>
+      </c>
+      <c r="AB10">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.9</v>
+      </c>
+      <c r="AD10">
+        <v>0.8875</v>
+      </c>
+      <c r="AE10">
+        <v>0.875</v>
+      </c>
+      <c r="AF10">
+        <v>0.8625</v>
+      </c>
+      <c r="AG10">
+        <v>0.85</v>
+      </c>
+      <c r="AH10">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI10">
+        <v>0.825</v>
+      </c>
+      <c r="AJ10">
+        <v>0.8125</v>
+      </c>
+      <c r="AK10">
+        <v>0.8</v>
+      </c>
+      <c r="AL10">
+        <v>0.7875</v>
+      </c>
+      <c r="AM10">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN10">
+        <v>0.7625</v>
+      </c>
+      <c r="AO10">
+        <v>0.75</v>
+      </c>
+      <c r="AP10">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ10">
+        <v>0.725</v>
+      </c>
+      <c r="AR10">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1.5</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.9875</v>
+      </c>
+      <c r="W11">
+        <v>0.975</v>
+      </c>
+      <c r="X11">
+        <v>0.9625</v>
+      </c>
+      <c r="Y11">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>0.9375</v>
+      </c>
+      <c r="AA11">
+        <v>0.925</v>
+      </c>
+      <c r="AB11">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.9</v>
+      </c>
+      <c r="AD11">
+        <v>0.8875</v>
+      </c>
+      <c r="AE11">
+        <v>0.875</v>
+      </c>
+      <c r="AF11">
+        <v>0.8625</v>
+      </c>
+      <c r="AG11">
+        <v>0.85</v>
+      </c>
+      <c r="AH11">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI11">
+        <v>0.825</v>
+      </c>
+      <c r="AJ11">
+        <v>0.8125</v>
+      </c>
+      <c r="AK11">
+        <v>0.8</v>
+      </c>
+      <c r="AL11">
+        <v>0.7875</v>
+      </c>
+      <c r="AM11">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.7625</v>
+      </c>
+      <c r="AO11">
+        <v>0.75</v>
+      </c>
+      <c r="AP11">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ11">
+        <v>0.725</v>
+      </c>
+      <c r="AR11">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0.9875</v>
+      </c>
+      <c r="W12">
+        <v>0.975</v>
+      </c>
+      <c r="X12">
+        <v>0.9625</v>
+      </c>
+      <c r="Y12">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>0.9375</v>
+      </c>
+      <c r="AA12">
+        <v>0.925</v>
+      </c>
+      <c r="AB12">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC12">
+        <v>0.9</v>
+      </c>
+      <c r="AD12">
+        <v>0.8875</v>
+      </c>
+      <c r="AE12">
+        <v>0.875</v>
+      </c>
+      <c r="AF12">
+        <v>0.8625</v>
+      </c>
+      <c r="AG12">
+        <v>0.85</v>
+      </c>
+      <c r="AH12">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI12">
+        <v>0.825</v>
+      </c>
+      <c r="AJ12">
+        <v>0.8125</v>
+      </c>
+      <c r="AK12">
+        <v>0.8</v>
+      </c>
+      <c r="AL12">
+        <v>0.7875</v>
+      </c>
+      <c r="AM12">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN12">
+        <v>0.7625</v>
+      </c>
+      <c r="AO12">
+        <v>0.75</v>
+      </c>
+      <c r="AP12">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ12">
+        <v>0.725</v>
+      </c>
+      <c r="AR12">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1.5</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0.9875</v>
+      </c>
+      <c r="W13">
+        <v>0.975</v>
+      </c>
+      <c r="X13">
+        <v>0.9625</v>
+      </c>
+      <c r="Y13">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z13">
+        <v>0.9375</v>
+      </c>
+      <c r="AA13">
+        <v>0.925</v>
+      </c>
+      <c r="AB13">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC13">
+        <v>0.9</v>
+      </c>
+      <c r="AD13">
+        <v>0.8875</v>
+      </c>
+      <c r="AE13">
+        <v>0.875</v>
+      </c>
+      <c r="AF13">
+        <v>0.8625</v>
+      </c>
+      <c r="AG13">
+        <v>0.85</v>
+      </c>
+      <c r="AH13">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI13">
+        <v>0.825</v>
+      </c>
+      <c r="AJ13">
+        <v>0.8125</v>
+      </c>
+      <c r="AK13">
+        <v>0.8</v>
+      </c>
+      <c r="AL13">
+        <v>0.7875</v>
+      </c>
+      <c r="AM13">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN13">
+        <v>0.7625</v>
+      </c>
+      <c r="AO13">
+        <v>0.75</v>
+      </c>
+      <c r="AP13">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ13">
+        <v>0.725</v>
+      </c>
+      <c r="AR13">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>1.5</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0.9875</v>
+      </c>
+      <c r="W14">
+        <v>0.975</v>
+      </c>
+      <c r="X14">
+        <v>0.9625</v>
+      </c>
+      <c r="Y14">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>0.9375</v>
+      </c>
+      <c r="AA14">
+        <v>0.925</v>
+      </c>
+      <c r="AB14">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC14">
+        <v>0.9</v>
+      </c>
+      <c r="AD14">
+        <v>0.8875</v>
+      </c>
+      <c r="AE14">
+        <v>0.875</v>
+      </c>
+      <c r="AF14">
+        <v>0.8625</v>
+      </c>
+      <c r="AG14">
+        <v>0.85</v>
+      </c>
+      <c r="AH14">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI14">
+        <v>0.825</v>
+      </c>
+      <c r="AJ14">
+        <v>0.8125</v>
+      </c>
+      <c r="AK14">
+        <v>0.8</v>
+      </c>
+      <c r="AL14">
+        <v>0.7875</v>
+      </c>
+      <c r="AM14">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN14">
+        <v>0.7625</v>
+      </c>
+      <c r="AO14">
+        <v>0.75</v>
+      </c>
+      <c r="AP14">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ14">
+        <v>0.725</v>
+      </c>
+      <c r="AR14">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1.5</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0.9875</v>
+      </c>
+      <c r="W15">
+        <v>0.975</v>
+      </c>
+      <c r="X15">
+        <v>0.9625</v>
+      </c>
+      <c r="Y15">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.9375</v>
+      </c>
+      <c r="AA15">
+        <v>0.925</v>
+      </c>
+      <c r="AB15">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC15">
+        <v>0.9</v>
+      </c>
+      <c r="AD15">
+        <v>0.8875</v>
+      </c>
+      <c r="AE15">
+        <v>0.875</v>
+      </c>
+      <c r="AF15">
+        <v>0.8625</v>
+      </c>
+      <c r="AG15">
+        <v>0.85</v>
+      </c>
+      <c r="AH15">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI15">
+        <v>0.825</v>
+      </c>
+      <c r="AJ15">
+        <v>0.8125</v>
+      </c>
+      <c r="AK15">
+        <v>0.8</v>
+      </c>
+      <c r="AL15">
+        <v>0.7875</v>
+      </c>
+      <c r="AM15">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN15">
+        <v>0.7625</v>
+      </c>
+      <c r="AO15">
+        <v>0.75</v>
+      </c>
+      <c r="AP15">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ15">
+        <v>0.725</v>
+      </c>
+      <c r="AR15">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>1.5</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0.9875</v>
+      </c>
+      <c r="W16">
+        <v>0.975</v>
+      </c>
+      <c r="X16">
+        <v>0.9625</v>
+      </c>
+      <c r="Y16">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>0.9375</v>
+      </c>
+      <c r="AA16">
+        <v>0.925</v>
+      </c>
+      <c r="AB16">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC16">
+        <v>0.9</v>
+      </c>
+      <c r="AD16">
+        <v>0.8875</v>
+      </c>
+      <c r="AE16">
+        <v>0.875</v>
+      </c>
+      <c r="AF16">
+        <v>0.8625</v>
+      </c>
+      <c r="AG16">
+        <v>0.85</v>
+      </c>
+      <c r="AH16">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI16">
+        <v>0.825</v>
+      </c>
+      <c r="AJ16">
+        <v>0.8125</v>
+      </c>
+      <c r="AK16">
+        <v>0.8</v>
+      </c>
+      <c r="AL16">
+        <v>0.7875</v>
+      </c>
+      <c r="AM16">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN16">
+        <v>0.7625</v>
+      </c>
+      <c r="AO16">
+        <v>0.75</v>
+      </c>
+      <c r="AP16">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ16">
+        <v>0.725</v>
+      </c>
+      <c r="AR16">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>1.5</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0.9875</v>
+      </c>
+      <c r="W17">
+        <v>0.975</v>
+      </c>
+      <c r="X17">
+        <v>0.9625</v>
+      </c>
+      <c r="Y17">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z17">
+        <v>0.9375</v>
+      </c>
+      <c r="AA17">
+        <v>0.925</v>
+      </c>
+      <c r="AB17">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC17">
+        <v>0.9</v>
+      </c>
+      <c r="AD17">
+        <v>0.8875</v>
+      </c>
+      <c r="AE17">
+        <v>0.875</v>
+      </c>
+      <c r="AF17">
+        <v>0.8625</v>
+      </c>
+      <c r="AG17">
+        <v>0.85</v>
+      </c>
+      <c r="AH17">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI17">
+        <v>0.825</v>
+      </c>
+      <c r="AJ17">
+        <v>0.8125</v>
+      </c>
+      <c r="AK17">
+        <v>0.8</v>
+      </c>
+      <c r="AL17">
+        <v>0.7875</v>
+      </c>
+      <c r="AM17">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN17">
+        <v>0.7625</v>
+      </c>
+      <c r="AO17">
+        <v>0.75</v>
+      </c>
+      <c r="AP17">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ17">
+        <v>0.725</v>
+      </c>
+      <c r="AR17">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1.5</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0.9875</v>
+      </c>
+      <c r="W18">
+        <v>0.975</v>
+      </c>
+      <c r="X18">
+        <v>0.9625</v>
+      </c>
+      <c r="Y18">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z18">
+        <v>0.9375</v>
+      </c>
+      <c r="AA18">
+        <v>0.925</v>
+      </c>
+      <c r="AB18">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC18">
+        <v>0.9</v>
+      </c>
+      <c r="AD18">
+        <v>0.8875</v>
+      </c>
+      <c r="AE18">
+        <v>0.875</v>
+      </c>
+      <c r="AF18">
+        <v>0.8625</v>
+      </c>
+      <c r="AG18">
+        <v>0.85</v>
+      </c>
+      <c r="AH18">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI18">
+        <v>0.825</v>
+      </c>
+      <c r="AJ18">
+        <v>0.8125</v>
+      </c>
+      <c r="AK18">
+        <v>0.8</v>
+      </c>
+      <c r="AL18">
+        <v>0.7875</v>
+      </c>
+      <c r="AM18">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN18">
+        <v>0.7625</v>
+      </c>
+      <c r="AO18">
+        <v>0.75</v>
+      </c>
+      <c r="AP18">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ18">
+        <v>0.725</v>
+      </c>
+      <c r="AR18">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>1.5</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0.9875</v>
+      </c>
+      <c r="W19">
+        <v>0.975</v>
+      </c>
+      <c r="X19">
+        <v>0.9625</v>
+      </c>
+      <c r="Y19">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z19">
+        <v>0.9375</v>
+      </c>
+      <c r="AA19">
+        <v>0.925</v>
+      </c>
+      <c r="AB19">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC19">
+        <v>0.9</v>
+      </c>
+      <c r="AD19">
+        <v>0.8875</v>
+      </c>
+      <c r="AE19">
+        <v>0.875</v>
+      </c>
+      <c r="AF19">
+        <v>0.8625</v>
+      </c>
+      <c r="AG19">
+        <v>0.85</v>
+      </c>
+      <c r="AH19">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI19">
+        <v>0.825</v>
+      </c>
+      <c r="AJ19">
+        <v>0.8125</v>
+      </c>
+      <c r="AK19">
+        <v>0.8</v>
+      </c>
+      <c r="AL19">
+        <v>0.7875</v>
+      </c>
+      <c r="AM19">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN19">
+        <v>0.7625</v>
+      </c>
+      <c r="AO19">
+        <v>0.75</v>
+      </c>
+      <c r="AP19">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ19">
+        <v>0.725</v>
+      </c>
+      <c r="AR19">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>1.5</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0.9875</v>
+      </c>
+      <c r="W20">
+        <v>0.975</v>
+      </c>
+      <c r="X20">
+        <v>0.9625</v>
+      </c>
+      <c r="Y20">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>0.9375</v>
+      </c>
+      <c r="AA20">
+        <v>0.925</v>
+      </c>
+      <c r="AB20">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC20">
+        <v>0.9</v>
+      </c>
+      <c r="AD20">
+        <v>0.8875</v>
+      </c>
+      <c r="AE20">
+        <v>0.875</v>
+      </c>
+      <c r="AF20">
+        <v>0.8625</v>
+      </c>
+      <c r="AG20">
+        <v>0.85</v>
+      </c>
+      <c r="AH20">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI20">
+        <v>0.825</v>
+      </c>
+      <c r="AJ20">
+        <v>0.8125</v>
+      </c>
+      <c r="AK20">
+        <v>0.8</v>
+      </c>
+      <c r="AL20">
+        <v>0.7875</v>
+      </c>
+      <c r="AM20">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN20">
+        <v>0.7625</v>
+      </c>
+      <c r="AO20">
+        <v>0.75</v>
+      </c>
+      <c r="AP20">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ20">
+        <v>0.725</v>
+      </c>
+      <c r="AR20">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.9875</v>
+      </c>
+      <c r="W21">
+        <v>0.975</v>
+      </c>
+      <c r="X21">
+        <v>0.9625</v>
+      </c>
+      <c r="Y21">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z21">
+        <v>0.9375</v>
+      </c>
+      <c r="AA21">
+        <v>0.925</v>
+      </c>
+      <c r="AB21">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC21">
+        <v>0.9</v>
+      </c>
+      <c r="AD21">
+        <v>0.8875</v>
+      </c>
+      <c r="AE21">
+        <v>0.875</v>
+      </c>
+      <c r="AF21">
+        <v>0.8625</v>
+      </c>
+      <c r="AG21">
+        <v>0.85</v>
+      </c>
+      <c r="AH21">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI21">
+        <v>0.825</v>
+      </c>
+      <c r="AJ21">
+        <v>0.8125</v>
+      </c>
+      <c r="AK21">
+        <v>0.8</v>
+      </c>
+      <c r="AL21">
+        <v>0.7875</v>
+      </c>
+      <c r="AM21">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN21">
+        <v>0.7625</v>
+      </c>
+      <c r="AO21">
+        <v>0.75</v>
+      </c>
+      <c r="AP21">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ21">
+        <v>0.725</v>
+      </c>
+      <c r="AR21">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS21">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.332999174469524</v>
+      </c>
+      <c r="K2">
+        <v>0.390673007118402</v>
+      </c>
+      <c r="L2">
+        <v>0.458777445667396</v>
+      </c>
+      <c r="M2">
+        <v>0.542881659281979</v>
+      </c>
+      <c r="N2">
+        <v>0.545771076342632</v>
+      </c>
+      <c r="O2">
+        <v>0.548691415073255</v>
+      </c>
+      <c r="P2">
+        <v>0.506498748157876</v>
+      </c>
+      <c r="Q2">
+        <v>0.506498748157876</v>
+      </c>
+      <c r="R2">
+        <v>0.506498748157876</v>
+      </c>
+      <c r="S2">
+        <v>0.506498748157876</v>
+      </c>
+      <c r="T2">
+        <v>0.506498748157876</v>
+      </c>
+      <c r="U2">
+        <v>0.506498748157876</v>
+      </c>
+      <c r="V2">
+        <v>0.4917258680032713</v>
+      </c>
+      <c r="W2">
+        <v>0.4769529878486665</v>
+      </c>
+      <c r="X2">
+        <v>0.4621801076940619</v>
+      </c>
+      <c r="Y2">
+        <v>0.4474072275394572</v>
+      </c>
+      <c r="Z2">
+        <v>0.4326343473848523</v>
+      </c>
+      <c r="AA2">
+        <v>0.4178614672302477</v>
+      </c>
+      <c r="AB2">
+        <v>0.4030885870756429</v>
+      </c>
+      <c r="AC2">
+        <v>0.3883157069210383</v>
+      </c>
+      <c r="AD2">
+        <v>0.3735428267664335</v>
+      </c>
+      <c r="AE2">
+        <v>0.3587699466118288</v>
+      </c>
+      <c r="AF2">
+        <v>0.3439970664572242</v>
+      </c>
+      <c r="AG2">
+        <v>0.3292241863026194</v>
+      </c>
+      <c r="AH2">
+        <v>0.3144513061480147</v>
+      </c>
+      <c r="AI2">
+        <v>0.2996784259934099</v>
+      </c>
+      <c r="AJ2">
+        <v>0.2849055458388052</v>
+      </c>
+      <c r="AK2">
+        <v>0.2701326656842005</v>
+      </c>
+      <c r="AL2">
+        <v>0.2553597855295958</v>
+      </c>
+      <c r="AM2">
+        <v>0.2405869053749911</v>
+      </c>
+      <c r="AN2">
+        <v>0.2258140252203864</v>
+      </c>
+      <c r="AO2">
+        <v>0.2110411450657816</v>
+      </c>
+      <c r="AP2">
+        <v>0.1962682649111769</v>
+      </c>
+      <c r="AQ2">
+        <v>0.1814953847565722</v>
+      </c>
+      <c r="AR2">
+        <v>0.1667225046019675</v>
+      </c>
+      <c r="AS2">
+        <v>0.1519496244473628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.225779622373045</v>
+      </c>
+      <c r="K3">
+        <v>0.251615590374847</v>
+      </c>
+      <c r="L3">
+        <v>0.276449819029039</v>
+      </c>
+      <c r="M3">
+        <v>0.305291583043109</v>
+      </c>
+      <c r="N3">
+        <v>0.306916457808054</v>
+      </c>
+      <c r="O3">
+        <v>0.308558721492691</v>
+      </c>
+      <c r="P3">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="Q3">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="R3">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="S3">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="T3">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="U3">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="V3">
+        <v>0.2836432779811254</v>
+      </c>
+      <c r="W3">
+        <v>0.2751218061104478</v>
+      </c>
+      <c r="X3">
+        <v>0.2666003342397703</v>
+      </c>
+      <c r="Y3">
+        <v>0.2580788623690927</v>
+      </c>
+      <c r="Z3">
+        <v>0.2495573904984151</v>
+      </c>
+      <c r="AA3">
+        <v>0.2410359186277375</v>
+      </c>
+      <c r="AB3">
+        <v>0.2325144467570599</v>
+      </c>
+      <c r="AC3">
+        <v>0.2239929748863823</v>
+      </c>
+      <c r="AD3">
+        <v>0.2154715030157047</v>
+      </c>
+      <c r="AE3">
+        <v>0.2069500311450271</v>
+      </c>
+      <c r="AF3">
+        <v>0.1984285592743495</v>
+      </c>
+      <c r="AG3">
+        <v>0.189907087403672</v>
+      </c>
+      <c r="AH3">
+        <v>0.1813856155329944</v>
+      </c>
+      <c r="AI3">
+        <v>0.1728641436623168</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1643426717916392</v>
+      </c>
+      <c r="AK3">
+        <v>0.1558211999209616</v>
+      </c>
+      <c r="AL3">
+        <v>0.147299728050284</v>
+      </c>
+      <c r="AM3">
+        <v>0.1387782561796064</v>
+      </c>
+      <c r="AN3">
+        <v>0.1302567843089288</v>
+      </c>
+      <c r="AO3">
+        <v>0.1217353124382513</v>
+      </c>
+      <c r="AP3">
+        <v>0.1132138405675737</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1046923686968961</v>
+      </c>
+      <c r="AR3">
+        <v>0.09617089682621847</v>
+      </c>
+      <c r="AS3">
+        <v>0.0876494249555409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.225779622373045</v>
+      </c>
+      <c r="K4">
+        <v>0.251615590374847</v>
+      </c>
+      <c r="L4">
+        <v>0.276449819029039</v>
+      </c>
+      <c r="M4">
+        <v>0.305291583043109</v>
+      </c>
+      <c r="N4">
+        <v>0.306916457808054</v>
+      </c>
+      <c r="O4">
+        <v>0.308558721492691</v>
+      </c>
+      <c r="P4">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="Q4">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="R4">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="S4">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="T4">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="U4">
+        <v>0.292164749851803</v>
+      </c>
+      <c r="V4">
+        <v>0.2836432779811254</v>
+      </c>
+      <c r="W4">
+        <v>0.2751218061104478</v>
+      </c>
+      <c r="X4">
+        <v>0.2666003342397703</v>
+      </c>
+      <c r="Y4">
+        <v>0.2580788623690927</v>
+      </c>
+      <c r="Z4">
+        <v>0.2495573904984151</v>
+      </c>
+      <c r="AA4">
+        <v>0.2410359186277375</v>
+      </c>
+      <c r="AB4">
+        <v>0.2325144467570599</v>
+      </c>
+      <c r="AC4">
+        <v>0.2239929748863823</v>
+      </c>
+      <c r="AD4">
+        <v>0.2154715030157047</v>
+      </c>
+      <c r="AE4">
+        <v>0.2069500311450271</v>
+      </c>
+      <c r="AF4">
+        <v>0.1984285592743495</v>
+      </c>
+      <c r="AG4">
+        <v>0.189907087403672</v>
+      </c>
+      <c r="AH4">
+        <v>0.1813856155329944</v>
+      </c>
+      <c r="AI4">
+        <v>0.1728641436623168</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1643426717916392</v>
+      </c>
+      <c r="AK4">
+        <v>0.1558211999209616</v>
+      </c>
+      <c r="AL4">
+        <v>0.147299728050284</v>
+      </c>
+      <c r="AM4">
+        <v>0.1387782561796064</v>
+      </c>
+      <c r="AN4">
+        <v>0.1302567843089288</v>
+      </c>
+      <c r="AO4">
+        <v>0.1217353124382513</v>
+      </c>
+      <c r="AP4">
+        <v>0.1132138405675737</v>
+      </c>
+      <c r="AQ4">
+        <v>0.1046923686968961</v>
+      </c>
+      <c r="AR4">
+        <v>0.09617089682621847</v>
+      </c>
+      <c r="AS4">
+        <v>0.0876494249555409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.161574394193877</v>
+      </c>
+      <c r="K5">
+        <v>0.167797357680774</v>
+      </c>
+      <c r="L5">
+        <v>0.185884557312289</v>
+      </c>
+      <c r="M5">
+        <v>0.19763376430497</v>
+      </c>
+      <c r="N5">
+        <v>0.198685644324456</v>
+      </c>
+      <c r="O5">
+        <v>0.199748781246676</v>
+      </c>
+      <c r="P5">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="Q5">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="R5">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="S5">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="T5">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="U5">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="V5">
+        <v>0.1855764006492385</v>
+      </c>
+      <c r="W5">
+        <v>0.1800011439773729</v>
+      </c>
+      <c r="X5">
+        <v>0.1744258873055074</v>
+      </c>
+      <c r="Y5">
+        <v>0.1688506306336419</v>
+      </c>
+      <c r="Z5">
+        <v>0.1632753739617763</v>
+      </c>
+      <c r="AA5">
+        <v>0.1577001172899108</v>
+      </c>
+      <c r="AB5">
+        <v>0.1521248606180453</v>
+      </c>
+      <c r="AC5">
+        <v>0.1465496039461797</v>
+      </c>
+      <c r="AD5">
+        <v>0.1409743472743142</v>
+      </c>
+      <c r="AE5">
+        <v>0.1353990906024486</v>
+      </c>
+      <c r="AF5">
+        <v>0.1298238339305831</v>
+      </c>
+      <c r="AG5">
+        <v>0.1242485772587176</v>
+      </c>
+      <c r="AH5">
+        <v>0.1186733205868521</v>
+      </c>
+      <c r="AI5">
+        <v>0.1130980639149865</v>
+      </c>
+      <c r="AJ5">
+        <v>0.107522807243121</v>
+      </c>
+      <c r="AK5">
+        <v>0.1019475505712555</v>
+      </c>
+      <c r="AL5">
+        <v>0.09637229389938992</v>
+      </c>
+      <c r="AM5">
+        <v>0.0907970372275244</v>
+      </c>
+      <c r="AN5">
+        <v>0.08522178055565888</v>
+      </c>
+      <c r="AO5">
+        <v>0.07964652388379333</v>
+      </c>
+      <c r="AP5">
+        <v>0.0740712672119278</v>
+      </c>
+      <c r="AQ5">
+        <v>0.06849601054006227</v>
+      </c>
+      <c r="AR5">
+        <v>0.06292075386819673</v>
+      </c>
+      <c r="AS5">
+        <v>0.0573454971963312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.161574394193877</v>
+      </c>
+      <c r="K6">
+        <v>0.167797357680774</v>
+      </c>
+      <c r="L6">
+        <v>0.185884557312289</v>
+      </c>
+      <c r="M6">
+        <v>0.19763376430497</v>
+      </c>
+      <c r="N6">
+        <v>0.198685644324456</v>
+      </c>
+      <c r="O6">
+        <v>0.199748781246676</v>
+      </c>
+      <c r="P6">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="Q6">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="R6">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="S6">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="T6">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="U6">
+        <v>0.191151657321104</v>
+      </c>
+      <c r="V6">
+        <v>0.1855764006492385</v>
+      </c>
+      <c r="W6">
+        <v>0.1800011439773729</v>
+      </c>
+      <c r="X6">
+        <v>0.1744258873055074</v>
+      </c>
+      <c r="Y6">
+        <v>0.1688506306336419</v>
+      </c>
+      <c r="Z6">
+        <v>0.1632753739617763</v>
+      </c>
+      <c r="AA6">
+        <v>0.1577001172899108</v>
+      </c>
+      <c r="AB6">
+        <v>0.1521248606180453</v>
+      </c>
+      <c r="AC6">
+        <v>0.1465496039461797</v>
+      </c>
+      <c r="AD6">
+        <v>0.1409743472743142</v>
+      </c>
+      <c r="AE6">
+        <v>0.1353990906024486</v>
+      </c>
+      <c r="AF6">
+        <v>0.1298238339305831</v>
+      </c>
+      <c r="AG6">
+        <v>0.1242485772587176</v>
+      </c>
+      <c r="AH6">
+        <v>0.1186733205868521</v>
+      </c>
+      <c r="AI6">
+        <v>0.1130980639149865</v>
+      </c>
+      <c r="AJ6">
+        <v>0.107522807243121</v>
+      </c>
+      <c r="AK6">
+        <v>0.1019475505712555</v>
+      </c>
+      <c r="AL6">
+        <v>0.09637229389938992</v>
+      </c>
+      <c r="AM6">
+        <v>0.0907970372275244</v>
+      </c>
+      <c r="AN6">
+        <v>0.08522178055565888</v>
+      </c>
+      <c r="AO6">
+        <v>0.07964652388379333</v>
+      </c>
+      <c r="AP6">
+        <v>0.0740712672119278</v>
+      </c>
+      <c r="AQ6">
+        <v>0.06849601054006227</v>
+      </c>
+      <c r="AR6">
+        <v>0.06292075386819673</v>
+      </c>
+      <c r="AS6">
+        <v>0.0573454971963312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.117679003232192</v>
+      </c>
+      <c r="K7">
+        <v>0.121857943313603</v>
+      </c>
+      <c r="L7">
+        <v>0.129179041511876</v>
+      </c>
+      <c r="M7">
+        <v>0.140635955581156</v>
+      </c>
+      <c r="N7">
+        <v>0.141384472173032</v>
+      </c>
+      <c r="O7">
+        <v>0.14214099916373</v>
+      </c>
+      <c r="P7">
+        <v>0.136745967288301</v>
+      </c>
+      <c r="Q7">
+        <v>0.136745967288301</v>
+      </c>
+      <c r="R7">
+        <v>0.136745967288301</v>
+      </c>
+      <c r="S7">
+        <v>0.136745967288301</v>
+      </c>
+      <c r="T7">
+        <v>0.136745967288301</v>
+      </c>
+      <c r="U7">
+        <v>0.136745967288301</v>
+      </c>
+      <c r="V7">
+        <v>0.1327575432423922</v>
+      </c>
+      <c r="W7">
+        <v>0.1287691191964834</v>
+      </c>
+      <c r="X7">
+        <v>0.1247806951505746</v>
+      </c>
+      <c r="Y7">
+        <v>0.1207922711046659</v>
+      </c>
+      <c r="Z7">
+        <v>0.1168038470587571</v>
+      </c>
+      <c r="AA7">
+        <v>0.1128154230128483</v>
+      </c>
+      <c r="AB7">
+        <v>0.1088269989669395</v>
+      </c>
+      <c r="AC7">
+        <v>0.1048385749210308</v>
+      </c>
+      <c r="AD7">
+        <v>0.100850150875122</v>
+      </c>
+      <c r="AE7">
+        <v>0.09686172682921319</v>
+      </c>
+      <c r="AF7">
+        <v>0.09287330278330444</v>
+      </c>
+      <c r="AG7">
+        <v>0.08888487873739565</v>
+      </c>
+      <c r="AH7">
+        <v>0.08489645469148686</v>
+      </c>
+      <c r="AI7">
+        <v>0.08090803064557808</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0769196065996693</v>
+      </c>
+      <c r="AK7">
+        <v>0.07293118255376052</v>
+      </c>
+      <c r="AL7">
+        <v>0.06894275850785174</v>
+      </c>
+      <c r="AM7">
+        <v>0.06495433446194296</v>
+      </c>
+      <c r="AN7">
+        <v>0.06096591041603419</v>
+      </c>
+      <c r="AO7">
+        <v>0.05697748637012541</v>
+      </c>
+      <c r="AP7">
+        <v>0.05298906232421663</v>
+      </c>
+      <c r="AQ7">
+        <v>0.04900063827830786</v>
+      </c>
+      <c r="AR7">
+        <v>0.04501221423239907</v>
+      </c>
+      <c r="AS7">
+        <v>0.04102379018649029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.127153387361131</v>
+      </c>
+      <c r="K8">
+        <v>0.127819508703535</v>
+      </c>
+      <c r="L8">
+        <v>0.128492646050898</v>
+      </c>
+      <c r="M8">
+        <v>0.129172910835459</v>
+      </c>
+      <c r="N8">
+        <v>0.129860416861792</v>
+      </c>
+      <c r="O8">
+        <v>0.130555280370276</v>
+      </c>
+      <c r="P8">
+        <v>0.127855170961139</v>
+      </c>
+      <c r="Q8">
+        <v>0.127855170961139</v>
+      </c>
+      <c r="R8">
+        <v>0.127855170961139</v>
+      </c>
+      <c r="S8">
+        <v>0.127855170961139</v>
+      </c>
+      <c r="T8">
+        <v>0.127855170961139</v>
+      </c>
+      <c r="U8">
+        <v>0.127855170961139</v>
+      </c>
+      <c r="V8">
+        <v>0.1241260618081058</v>
+      </c>
+      <c r="W8">
+        <v>0.1203969526550726</v>
+      </c>
+      <c r="X8">
+        <v>0.1166678435020393</v>
+      </c>
+      <c r="Y8">
+        <v>0.1129387343490061</v>
+      </c>
+      <c r="Z8">
+        <v>0.1092096251959729</v>
+      </c>
+      <c r="AA8">
+        <v>0.1054805160429397</v>
+      </c>
+      <c r="AB8">
+        <v>0.1017514068899064</v>
+      </c>
+      <c r="AC8">
+        <v>0.09802229773687324</v>
+      </c>
+      <c r="AD8">
+        <v>0.09429318858384</v>
+      </c>
+      <c r="AE8">
+        <v>0.09056407943080677</v>
+      </c>
+      <c r="AF8">
+        <v>0.08683497027777357</v>
+      </c>
+      <c r="AG8">
+        <v>0.08310586112474035</v>
+      </c>
+      <c r="AH8">
+        <v>0.07937675197170713</v>
+      </c>
+      <c r="AI8">
+        <v>0.07564764281867389</v>
+      </c>
+      <c r="AJ8">
+        <v>0.07191853366564069</v>
+      </c>
+      <c r="AK8">
+        <v>0.06818942451260745</v>
+      </c>
+      <c r="AL8">
+        <v>0.06446031535957424</v>
+      </c>
+      <c r="AM8">
+        <v>0.06073120620654102</v>
+      </c>
+      <c r="AN8">
+        <v>0.0570020970535078</v>
+      </c>
+      <c r="AO8">
+        <v>0.05327298790047458</v>
+      </c>
+      <c r="AP8">
+        <v>0.04954387874744136</v>
+      </c>
+      <c r="AQ8">
+        <v>0.04581476959440814</v>
+      </c>
+      <c r="AR8">
+        <v>0.04208566044137491</v>
+      </c>
+      <c r="AS8">
+        <v>0.03835655128834169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.0001445489997698</v>
+      </c>
+      <c r="K9">
+        <v>0.0001182280184924</v>
+      </c>
+      <c r="L9">
+        <v>0.000124951503108</v>
+      </c>
+      <c r="M9">
+        <v>0.0001986390772273</v>
+      </c>
+      <c r="N9">
+        <v>0.0002500248420126</v>
+      </c>
+      <c r="O9">
+        <v>0.000222099278516</v>
+      </c>
+      <c r="P9">
+        <v>0.0001964406559271</v>
+      </c>
+      <c r="Q9">
+        <v>0.0001964406559271</v>
+      </c>
+      <c r="R9">
+        <v>0.0001964406559271</v>
+      </c>
+      <c r="S9">
+        <v>0.0001964406559271</v>
+      </c>
+      <c r="T9">
+        <v>0.0001964406559271</v>
+      </c>
+      <c r="U9">
+        <v>0.0001964406559271</v>
+      </c>
+      <c r="V9">
+        <v>0.0001907111367958929</v>
+      </c>
+      <c r="W9">
+        <v>0.0001849816176646858</v>
+      </c>
+      <c r="X9">
+        <v>0.0001792520985334788</v>
+      </c>
+      <c r="Y9">
+        <v>0.0001735225794022717</v>
+      </c>
+      <c r="Z9">
+        <v>0.0001677930602710646</v>
+      </c>
+      <c r="AA9">
+        <v>0.0001620635411398575</v>
+      </c>
+      <c r="AB9">
+        <v>0.0001563340220086504</v>
+      </c>
+      <c r="AC9">
+        <v>0.0001506045028774434</v>
+      </c>
+      <c r="AD9">
+        <v>0.0001448749837462362</v>
+      </c>
+      <c r="AE9">
+        <v>0.0001391454646150291</v>
+      </c>
+      <c r="AF9">
+        <v>0.0001334159454838221</v>
+      </c>
+      <c r="AG9">
+        <v>0.000127686426352615</v>
+      </c>
+      <c r="AH9">
+        <v>0.0001219569072214079</v>
+      </c>
+      <c r="AI9">
+        <v>0.0001162273880902008</v>
+      </c>
+      <c r="AJ9">
+        <v>0.0001104978689589937</v>
+      </c>
+      <c r="AK9">
+        <v>0.0001047683498277867</v>
+      </c>
+      <c r="AL9">
+        <v>9.903883069657958E-05</v>
+      </c>
+      <c r="AM9">
+        <v>9.33093115653725E-05</v>
+      </c>
+      <c r="AN9">
+        <v>8.757979243416542E-05</v>
+      </c>
+      <c r="AO9">
+        <v>8.185027330295832E-05</v>
+      </c>
+      <c r="AP9">
+        <v>7.612075417175125E-05</v>
+      </c>
+      <c r="AQ9">
+        <v>7.039123504054417E-05</v>
+      </c>
+      <c r="AR9">
+        <v>6.466171590933707E-05</v>
+      </c>
+      <c r="AS9">
+        <v>5.893219677813E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.26628825388036</v>
+      </c>
+      <c r="K10">
+        <v>1.49412552198915</v>
+      </c>
+      <c r="L10">
+        <v>1.69254774238449</v>
+      </c>
+      <c r="M10">
+        <v>1.94577216655411</v>
+      </c>
+      <c r="N10">
+        <v>1.95612828597362</v>
+      </c>
+      <c r="O10">
+        <v>1.96659523345987</v>
+      </c>
+      <c r="P10">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="Q10">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="R10">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="S10">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="T10">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="U10">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="V10">
+        <v>1.761424497715089</v>
+      </c>
+      <c r="W10">
+        <v>1.708506165165709</v>
+      </c>
+      <c r="X10">
+        <v>1.655587832616329</v>
+      </c>
+      <c r="Y10">
+        <v>1.602669500066949</v>
+      </c>
+      <c r="Z10">
+        <v>1.549751167517568</v>
+      </c>
+      <c r="AA10">
+        <v>1.496832834968188</v>
+      </c>
+      <c r="AB10">
+        <v>1.443914502418807</v>
+      </c>
+      <c r="AC10">
+        <v>1.390996169869427</v>
+      </c>
+      <c r="AD10">
+        <v>1.338077837320047</v>
+      </c>
+      <c r="AE10">
+        <v>1.285159504770666</v>
+      </c>
+      <c r="AF10">
+        <v>1.232241172221286</v>
+      </c>
+      <c r="AG10">
+        <v>1.179322839671906</v>
+      </c>
+      <c r="AH10">
+        <v>1.126404507122525</v>
+      </c>
+      <c r="AI10">
+        <v>1.073486174573145</v>
+      </c>
+      <c r="AJ10">
+        <v>1.020567842023764</v>
+      </c>
+      <c r="AK10">
+        <v>0.967649509474384</v>
+      </c>
+      <c r="AL10">
+        <v>0.9147311769250035</v>
+      </c>
+      <c r="AM10">
+        <v>0.8618128443756232</v>
+      </c>
+      <c r="AN10">
+        <v>0.8088945118262429</v>
+      </c>
+      <c r="AO10">
+        <v>0.7559761792768624</v>
+      </c>
+      <c r="AP10">
+        <v>0.7030578467274822</v>
+      </c>
+      <c r="AQ10">
+        <v>0.6501395141781018</v>
+      </c>
+      <c r="AR10">
+        <v>0.5972211816287213</v>
+      </c>
+      <c r="AS10">
+        <v>0.544302849079341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.26628825388036</v>
+      </c>
+      <c r="K11">
+        <v>1.49412552198915</v>
+      </c>
+      <c r="L11">
+        <v>1.69254774238449</v>
+      </c>
+      <c r="M11">
+        <v>1.94577216655411</v>
+      </c>
+      <c r="N11">
+        <v>1.95612828597362</v>
+      </c>
+      <c r="O11">
+        <v>1.96659523345987</v>
+      </c>
+      <c r="P11">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="Q11">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="R11">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="S11">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="T11">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="U11">
+        <v>1.81434283026447</v>
+      </c>
+      <c r="V11">
+        <v>1.761424497715089</v>
+      </c>
+      <c r="W11">
+        <v>1.708506165165709</v>
+      </c>
+      <c r="X11">
+        <v>1.655587832616329</v>
+      </c>
+      <c r="Y11">
+        <v>1.602669500066949</v>
+      </c>
+      <c r="Z11">
+        <v>1.549751167517568</v>
+      </c>
+      <c r="AA11">
+        <v>1.496832834968188</v>
+      </c>
+      <c r="AB11">
+        <v>1.443914502418807</v>
+      </c>
+      <c r="AC11">
+        <v>1.390996169869427</v>
+      </c>
+      <c r="AD11">
+        <v>1.338077837320047</v>
+      </c>
+      <c r="AE11">
+        <v>1.285159504770666</v>
+      </c>
+      <c r="AF11">
+        <v>1.232241172221286</v>
+      </c>
+      <c r="AG11">
+        <v>1.179322839671906</v>
+      </c>
+      <c r="AH11">
+        <v>1.126404507122525</v>
+      </c>
+      <c r="AI11">
+        <v>1.073486174573145</v>
+      </c>
+      <c r="AJ11">
+        <v>1.020567842023764</v>
+      </c>
+      <c r="AK11">
+        <v>0.967649509474384</v>
+      </c>
+      <c r="AL11">
+        <v>0.9147311769250035</v>
+      </c>
+      <c r="AM11">
+        <v>0.8618128443756232</v>
+      </c>
+      <c r="AN11">
+        <v>0.8088945118262429</v>
+      </c>
+      <c r="AO11">
+        <v>0.7559761792768624</v>
+      </c>
+      <c r="AP11">
+        <v>0.7030578467274822</v>
+      </c>
+      <c r="AQ11">
+        <v>0.6501395141781018</v>
+      </c>
+      <c r="AR11">
+        <v>0.5972211816287213</v>
+      </c>
+      <c r="AS11">
+        <v>0.544302849079341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.9625</v>
+      </c>
+      <c r="W2">
+        <v>0.9249999999999999</v>
+      </c>
+      <c r="X2">
+        <v>0.8875</v>
+      </c>
+      <c r="Y2">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.8125</v>
+      </c>
+      <c r="AA2">
+        <v>0.775</v>
+      </c>
+      <c r="AB2">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>0.6625</v>
+      </c>
+      <c r="AE2">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.5875000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.55</v>
+      </c>
+      <c r="AH2">
+        <v>0.5125000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>0.475</v>
+      </c>
+      <c r="AJ2">
+        <v>0.4375</v>
+      </c>
+      <c r="AK2">
+        <v>0.4</v>
+      </c>
+      <c r="AL2">
+        <v>0.3625</v>
+      </c>
+      <c r="AM2">
+        <v>0.325</v>
+      </c>
+      <c r="AN2">
+        <v>0.2875</v>
+      </c>
+      <c r="AO2">
+        <v>0.25</v>
+      </c>
+      <c r="AP2">
+        <v>0.2125</v>
+      </c>
+      <c r="AQ2">
+        <v>0.175</v>
+      </c>
+      <c r="AR2">
+        <v>0.1375</v>
+      </c>
+      <c r="AS2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.03741</v>
+      </c>
+      <c r="K3">
+        <v>0.03741</v>
+      </c>
+      <c r="L3">
+        <v>0.03741</v>
+      </c>
+      <c r="M3">
+        <v>0.03741</v>
+      </c>
+      <c r="N3">
+        <v>0.03741</v>
+      </c>
+      <c r="O3">
+        <v>0.03741</v>
+      </c>
+      <c r="P3">
+        <v>0.03741</v>
+      </c>
+      <c r="Q3">
+        <v>0.03741</v>
+      </c>
+      <c r="R3">
+        <v>0.03741</v>
+      </c>
+      <c r="S3">
+        <v>0.03741</v>
+      </c>
+      <c r="T3">
+        <v>0.03741</v>
+      </c>
+      <c r="U3">
+        <v>0.03741</v>
+      </c>
+      <c r="V3">
+        <v>0.036007125</v>
+      </c>
+      <c r="W3">
+        <v>0.03460425</v>
+      </c>
+      <c r="X3">
+        <v>0.033201375</v>
+      </c>
+      <c r="Y3">
+        <v>0.0317985</v>
+      </c>
+      <c r="Z3">
+        <v>0.030395625</v>
+      </c>
+      <c r="AA3">
+        <v>0.02899275</v>
+      </c>
+      <c r="AB3">
+        <v>0.027589875</v>
+      </c>
+      <c r="AC3">
+        <v>0.026187</v>
+      </c>
+      <c r="AD3">
+        <v>0.024784125</v>
+      </c>
+      <c r="AE3">
+        <v>0.02338125</v>
+      </c>
+      <c r="AF3">
+        <v>0.021978375</v>
+      </c>
+      <c r="AG3">
+        <v>0.0205755</v>
+      </c>
+      <c r="AH3">
+        <v>0.019172625</v>
+      </c>
+      <c r="AI3">
+        <v>0.01776975</v>
+      </c>
+      <c r="AJ3">
+        <v>0.016366875</v>
+      </c>
+      <c r="AK3">
+        <v>0.014964</v>
+      </c>
+      <c r="AL3">
+        <v>0.013561125</v>
+      </c>
+      <c r="AM3">
+        <v>0.01215825</v>
+      </c>
+      <c r="AN3">
+        <v>0.010755375</v>
+      </c>
+      <c r="AO3">
+        <v>0.009352499999999998</v>
+      </c>
+      <c r="AP3">
+        <v>0.007949625</v>
+      </c>
+      <c r="AQ3">
+        <v>0.006546750000000001</v>
+      </c>
+      <c r="AR3">
+        <v>0.005143874999999999</v>
+      </c>
+      <c r="AS3">
+        <v>0.003741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.0007</v>
+      </c>
+      <c r="K4">
+        <v>0.0007</v>
+      </c>
+      <c r="L4">
+        <v>0.0007</v>
+      </c>
+      <c r="M4">
+        <v>0.0007</v>
+      </c>
+      <c r="N4">
+        <v>0.0007</v>
+      </c>
+      <c r="O4">
+        <v>0.0007</v>
+      </c>
+      <c r="P4">
+        <v>0.0007</v>
+      </c>
+      <c r="Q4">
+        <v>0.0007</v>
+      </c>
+      <c r="R4">
+        <v>0.0007</v>
+      </c>
+      <c r="S4">
+        <v>0.0007</v>
+      </c>
+      <c r="T4">
+        <v>0.0007</v>
+      </c>
+      <c r="U4">
+        <v>0.0007</v>
+      </c>
+      <c r="V4">
+        <v>0.0006737500000000001</v>
+      </c>
+      <c r="W4">
+        <v>0.0006475000000000001</v>
+      </c>
+      <c r="X4">
+        <v>0.0006212499999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.000595</v>
+      </c>
+      <c r="Z4">
+        <v>0.00056875</v>
+      </c>
+      <c r="AA4">
+        <v>0.0005425</v>
+      </c>
+      <c r="AB4">
+        <v>0.0005162499999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.0004900000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>0.00046375</v>
+      </c>
+      <c r="AE4">
+        <v>0.0004375</v>
+      </c>
+      <c r="AF4">
+        <v>0.00041125</v>
+      </c>
+      <c r="AG4">
+        <v>0.000385</v>
+      </c>
+      <c r="AH4">
+        <v>0.00035875</v>
+      </c>
+      <c r="AI4">
+        <v>0.0003325</v>
+      </c>
+      <c r="AJ4">
+        <v>0.00030625</v>
+      </c>
+      <c r="AK4">
+        <v>0.00028</v>
+      </c>
+      <c r="AL4">
+        <v>0.00025375</v>
+      </c>
+      <c r="AM4">
+        <v>0.0002275</v>
+      </c>
+      <c r="AN4">
+        <v>0.00020125</v>
+      </c>
+      <c r="AO4">
+        <v>0.000175</v>
+      </c>
+      <c r="AP4">
+        <v>0.00014875</v>
+      </c>
+      <c r="AQ4">
+        <v>0.0001225000000000001</v>
+      </c>
+      <c r="AR4">
+        <v>9.624999999999998E-05</v>
+      </c>
+      <c r="AS4">
+        <v>7.000000000000001E-05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>8.81676442011093E-08</v>
+      </c>
+      <c r="K2">
+        <v>7.97214831363262E-08</v>
+      </c>
+      <c r="L2">
+        <v>6.75655801813966E-08</v>
+      </c>
+      <c r="M2">
+        <v>9.75447977049802E-08</v>
+      </c>
+      <c r="N2">
+        <v>2.01480126814801E-07</v>
+      </c>
+      <c r="O2">
+        <v>1.8246645722573E-07</v>
+      </c>
+      <c r="P2">
+        <v>1.4673046628523E-07</v>
+      </c>
+      <c r="Q2">
+        <v>1.4673046628523E-07</v>
+      </c>
+      <c r="R2">
+        <v>1.4673046628523E-07</v>
+      </c>
+      <c r="S2">
+        <v>1.4673046628523E-07</v>
+      </c>
+      <c r="T2">
+        <v>1.4673046628523E-07</v>
+      </c>
+      <c r="U2">
+        <v>1.4673046628523E-07</v>
+      </c>
+      <c r="V2">
+        <v>1.412280737995339E-07</v>
+      </c>
+      <c r="W2">
+        <v>1.357256813138377E-07</v>
+      </c>
+      <c r="X2">
+        <v>1.302232888281416E-07</v>
+      </c>
+      <c r="Y2">
+        <v>1.247208963424455E-07</v>
+      </c>
+      <c r="Z2">
+        <v>1.192185038567494E-07</v>
+      </c>
+      <c r="AA2">
+        <v>1.137161113710533E-07</v>
+      </c>
+      <c r="AB2">
+        <v>1.082137188853571E-07</v>
+      </c>
+      <c r="AC2">
+        <v>1.02711326399661E-07</v>
+      </c>
+      <c r="AD2">
+        <v>9.720893391396487E-08</v>
+      </c>
+      <c r="AE2">
+        <v>9.170654142826874E-08</v>
+      </c>
+      <c r="AF2">
+        <v>8.620414894257263E-08</v>
+      </c>
+      <c r="AG2">
+        <v>8.07017564568765E-08</v>
+      </c>
+      <c r="AH2">
+        <v>7.519936397118037E-08</v>
+      </c>
+      <c r="AI2">
+        <v>6.969697148548425E-08</v>
+      </c>
+      <c r="AJ2">
+        <v>6.419457899978813E-08</v>
+      </c>
+      <c r="AK2">
+        <v>5.8692186514092E-08</v>
+      </c>
+      <c r="AL2">
+        <v>5.318979402839587E-08</v>
+      </c>
+      <c r="AM2">
+        <v>4.768740154269975E-08</v>
+      </c>
+      <c r="AN2">
+        <v>4.218500905700363E-08</v>
+      </c>
+      <c r="AO2">
+        <v>3.668261657130749E-08</v>
+      </c>
+      <c r="AP2">
+        <v>3.118022408561138E-08</v>
+      </c>
+      <c r="AQ2">
+        <v>2.567783159991526E-08</v>
+      </c>
+      <c r="AR2">
+        <v>2.017543911421912E-08</v>
+      </c>
+      <c r="AS2">
+        <v>1.4673046628523E-08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2E-06</v>
+      </c>
+      <c r="K3">
+        <v>2E-06</v>
+      </c>
+      <c r="L3">
+        <v>2E-06</v>
+      </c>
+      <c r="M3">
+        <v>2E-06</v>
+      </c>
+      <c r="N3">
+        <v>2E-06</v>
+      </c>
+      <c r="O3">
+        <v>2E-06</v>
+      </c>
+      <c r="P3">
+        <v>2E-06</v>
+      </c>
+      <c r="Q3">
+        <v>2E-06</v>
+      </c>
+      <c r="R3">
+        <v>2E-06</v>
+      </c>
+      <c r="S3">
+        <v>2E-06</v>
+      </c>
+      <c r="T3">
+        <v>2E-06</v>
+      </c>
+      <c r="U3">
+        <v>2E-06</v>
+      </c>
+      <c r="V3">
+        <v>1.925E-06</v>
+      </c>
+      <c r="W3">
+        <v>1.85E-06</v>
+      </c>
+      <c r="X3">
+        <v>1.775E-06</v>
+      </c>
+      <c r="Y3">
+        <v>1.7E-06</v>
+      </c>
+      <c r="Z3">
+        <v>1.625E-06</v>
+      </c>
+      <c r="AA3">
+        <v>1.55E-06</v>
+      </c>
+      <c r="AB3">
+        <v>1.475E-06</v>
+      </c>
+      <c r="AC3">
+        <v>1.4E-06</v>
+      </c>
+      <c r="AD3">
+        <v>1.325E-06</v>
+      </c>
+      <c r="AE3">
+        <v>1.25E-06</v>
+      </c>
+      <c r="AF3">
+        <v>1.175E-06</v>
+      </c>
+      <c r="AG3">
+        <v>1.1E-06</v>
+      </c>
+      <c r="AH3">
+        <v>1.025E-06</v>
+      </c>
+      <c r="AI3">
+        <v>9.499999999999999E-07</v>
+      </c>
+      <c r="AJ3">
+        <v>8.75E-07</v>
+      </c>
+      <c r="AK3">
+        <v>8E-07</v>
+      </c>
+      <c r="AL3">
+        <v>7.249999999999998E-07</v>
+      </c>
+      <c r="AM3">
+        <v>6.499999999999999E-07</v>
+      </c>
+      <c r="AN3">
+        <v>5.75E-07</v>
+      </c>
+      <c r="AO3">
+        <v>4.999999999999999E-07</v>
+      </c>
+      <c r="AP3">
+        <v>4.25E-07</v>
+      </c>
+      <c r="AQ3">
+        <v>3.5E-07</v>
+      </c>
+      <c r="AR3">
+        <v>2.749999999999999E-07</v>
+      </c>
+      <c r="AS3">
+        <v>2E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>6E-07</v>
+      </c>
+      <c r="K4">
+        <v>6E-07</v>
+      </c>
+      <c r="L4">
+        <v>6E-07</v>
+      </c>
+      <c r="M4">
+        <v>6E-07</v>
+      </c>
+      <c r="N4">
+        <v>6E-07</v>
+      </c>
+      <c r="O4">
+        <v>6E-07</v>
+      </c>
+      <c r="P4">
+        <v>6E-07</v>
+      </c>
+      <c r="Q4">
+        <v>6E-07</v>
+      </c>
+      <c r="R4">
+        <v>6E-07</v>
+      </c>
+      <c r="S4">
+        <v>6E-07</v>
+      </c>
+      <c r="T4">
+        <v>6E-07</v>
+      </c>
+      <c r="U4">
+        <v>6E-07</v>
+      </c>
+      <c r="V4">
+        <v>5.775E-07</v>
+      </c>
+      <c r="W4">
+        <v>5.549999999999999E-07</v>
+      </c>
+      <c r="X4">
+        <v>5.325E-07</v>
+      </c>
+      <c r="Y4">
+        <v>5.1E-07</v>
+      </c>
+      <c r="Z4">
+        <v>4.875E-07</v>
+      </c>
+      <c r="AA4">
+        <v>4.65E-07</v>
+      </c>
+      <c r="AB4">
+        <v>4.424999999999999E-07</v>
+      </c>
+      <c r="AC4">
+        <v>4.200000000000001E-07</v>
+      </c>
+      <c r="AD4">
+        <v>3.975E-07</v>
+      </c>
+      <c r="AE4">
+        <v>3.749999999999999E-07</v>
+      </c>
+      <c r="AF4">
+        <v>3.525E-07</v>
+      </c>
+      <c r="AG4">
+        <v>3.3E-07</v>
+      </c>
+      <c r="AH4">
+        <v>3.075E-07</v>
+      </c>
+      <c r="AI4">
+        <v>2.85E-07</v>
+      </c>
+      <c r="AJ4">
+        <v>2.625E-07</v>
+      </c>
+      <c r="AK4">
+        <v>2.4E-07</v>
+      </c>
+      <c r="AL4">
+        <v>2.175E-07</v>
+      </c>
+      <c r="AM4">
+        <v>1.95E-07</v>
+      </c>
+      <c r="AN4">
+        <v>1.725E-07</v>
+      </c>
+      <c r="AO4">
+        <v>1.5E-07</v>
+      </c>
+      <c r="AP4">
+        <v>1.275E-07</v>
+      </c>
+      <c r="AQ4">
+        <v>1.05E-07</v>
+      </c>
+      <c r="AR4">
+        <v>8.249999999999998E-08</v>
+      </c>
+      <c r="AS4">
+        <v>5.999999999999999E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>8.33281081754115E-07</v>
+      </c>
+      <c r="K5">
+        <v>6.56897516206616E-07</v>
+      </c>
+      <c r="L5">
+        <v>5.56735401328225E-07</v>
+      </c>
+      <c r="M5">
+        <v>8.037602737132049E-07</v>
+      </c>
+      <c r="N5">
+        <v>1.66017801222401E-06</v>
+      </c>
+      <c r="O5">
+        <v>1.50350709543189E-06</v>
+      </c>
+      <c r="P5">
+        <v>1.19588042076345E-06</v>
+      </c>
+      <c r="Q5">
+        <v>1.19588042076345E-06</v>
+      </c>
+      <c r="R5">
+        <v>1.19588042076345E-06</v>
+      </c>
+      <c r="S5">
+        <v>1.19588042076345E-06</v>
+      </c>
+      <c r="T5">
+        <v>1.19588042076345E-06</v>
+      </c>
+      <c r="U5">
+        <v>1.19588042076345E-06</v>
+      </c>
+      <c r="V5">
+        <v>1.151034904984821E-06</v>
+      </c>
+      <c r="W5">
+        <v>1.106189389206191E-06</v>
+      </c>
+      <c r="X5">
+        <v>1.061343873427562E-06</v>
+      </c>
+      <c r="Y5">
+        <v>1.016498357648932E-06</v>
+      </c>
+      <c r="Z5">
+        <v>9.716528418703031E-07</v>
+      </c>
+      <c r="AA5">
+        <v>9.268073260916738E-07</v>
+      </c>
+      <c r="AB5">
+        <v>8.819618103130444E-07</v>
+      </c>
+      <c r="AC5">
+        <v>8.371162945344151E-07</v>
+      </c>
+      <c r="AD5">
+        <v>7.922707787557856E-07</v>
+      </c>
+      <c r="AE5">
+        <v>7.474252629771561E-07</v>
+      </c>
+      <c r="AF5">
+        <v>7.02579747198527E-07</v>
+      </c>
+      <c r="AG5">
+        <v>6.577342314198976E-07</v>
+      </c>
+      <c r="AH5">
+        <v>6.128887156412681E-07</v>
+      </c>
+      <c r="AI5">
+        <v>5.680431998626387E-07</v>
+      </c>
+      <c r="AJ5">
+        <v>5.231976840840095E-07</v>
+      </c>
+      <c r="AK5">
+        <v>4.7835216830538E-07</v>
+      </c>
+      <c r="AL5">
+        <v>4.335066525267506E-07</v>
+      </c>
+      <c r="AM5">
+        <v>3.886611367481212E-07</v>
+      </c>
+      <c r="AN5">
+        <v>3.43815620969492E-07</v>
+      </c>
+      <c r="AO5">
+        <v>2.989701051908625E-07</v>
+      </c>
+      <c r="AP5">
+        <v>2.541245894122331E-07</v>
+      </c>
+      <c r="AQ5">
+        <v>2.092790736336038E-07</v>
+      </c>
+      <c r="AR5">
+        <v>1.644335578549743E-07</v>
+      </c>
+      <c r="AS5">
+        <v>1.19588042076345E-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/iran/transformations/templates/calibrated/iran/model_input_variables_iran_ip_calibrated.xlsx
+++ b/iran/transformations/templates/calibrated/iran/model_input_variables_iran_ip_calibrated.xlsx
@@ -11,19 +11,13 @@
     <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
     <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
     <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
-    <sheet name="strategy_id-7015" sheetId="5" r:id="rId5"/>
-    <sheet name="strategy_id-7016" sheetId="6" r:id="rId6"/>
-    <sheet name="strategy_id-7017" sheetId="7" r:id="rId7"/>
-    <sheet name="strategy_id-7018" sheetId="8" r:id="rId8"/>
-    <sheet name="strategy_id-7020" sheetId="9" r:id="rId9"/>
-    <sheet name="strategy_id-7033" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="196">
   <si>
     <t>subsector</t>
   </si>
@@ -23964,1388 +23958,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="W2">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="X2">
-        <v>0.1</v>
-      </c>
-      <c r="Y2">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="Z2">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AA2">
-        <v>0.2</v>
-      </c>
-      <c r="AB2">
-        <v>0.2333333333333334</v>
-      </c>
-      <c r="AC2">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="AD2">
-        <v>0.3</v>
-      </c>
-      <c r="AE2">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="AF2">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="AG2">
-        <v>0.4</v>
-      </c>
-      <c r="AH2">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="AI2">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AJ2">
-        <v>0.5</v>
-      </c>
-      <c r="AK2">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AL2">
-        <v>0.5666666666666668</v>
-      </c>
-      <c r="AM2">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="AN2">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="AO2">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AP2">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="AQ2">
-        <v>0.7333333333333334</v>
-      </c>
-      <c r="AR2">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="AS2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="W3">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="X3">
-        <v>0.1</v>
-      </c>
-      <c r="Y3">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="Z3">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AA3">
-        <v>0.2</v>
-      </c>
-      <c r="AB3">
-        <v>0.2333333333333334</v>
-      </c>
-      <c r="AC3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="AD3">
-        <v>0.3</v>
-      </c>
-      <c r="AE3">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="AF3">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="AG3">
-        <v>0.4</v>
-      </c>
-      <c r="AH3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="AI3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AJ3">
-        <v>0.5</v>
-      </c>
-      <c r="AK3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AL3">
-        <v>0.5666666666666668</v>
-      </c>
-      <c r="AM3">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="AN3">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="AO3">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AP3">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="AQ3">
-        <v>0.7333333333333334</v>
-      </c>
-      <c r="AR3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="AS3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="W4">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="X4">
-        <v>0.1</v>
-      </c>
-      <c r="Y4">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="Z4">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AA4">
-        <v>0.2</v>
-      </c>
-      <c r="AB4">
-        <v>0.2333333333333334</v>
-      </c>
-      <c r="AC4">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="AD4">
-        <v>0.3</v>
-      </c>
-      <c r="AE4">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="AF4">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="AG4">
-        <v>0.4</v>
-      </c>
-      <c r="AH4">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="AI4">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5</v>
-      </c>
-      <c r="AK4">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AL4">
-        <v>0.5666666666666668</v>
-      </c>
-      <c r="AM4">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="AN4">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="AO4">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AP4">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="AQ4">
-        <v>0.7333333333333334</v>
-      </c>
-      <c r="AR4">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="AS4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="W5">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="X5">
-        <v>0.1</v>
-      </c>
-      <c r="Y5">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="Z5">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AA5">
-        <v>0.2</v>
-      </c>
-      <c r="AB5">
-        <v>0.2333333333333334</v>
-      </c>
-      <c r="AC5">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="AD5">
-        <v>0.3</v>
-      </c>
-      <c r="AE5">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="AF5">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="AG5">
-        <v>0.4</v>
-      </c>
-      <c r="AH5">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="AI5">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AJ5">
-        <v>0.5</v>
-      </c>
-      <c r="AK5">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AL5">
-        <v>0.5666666666666668</v>
-      </c>
-      <c r="AM5">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="AN5">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="AO5">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AP5">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="AQ5">
-        <v>0.7333333333333334</v>
-      </c>
-      <c r="AR5">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="AS5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.9</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>0.9</v>
-      </c>
-      <c r="M6">
-        <v>0.9</v>
-      </c>
-      <c r="N6">
-        <v>0.9</v>
-      </c>
-      <c r="O6">
-        <v>0.9</v>
-      </c>
-      <c r="P6">
-        <v>0.9</v>
-      </c>
-      <c r="Q6">
-        <v>0.9</v>
-      </c>
-      <c r="R6">
-        <v>0.9</v>
-      </c>
-      <c r="S6">
-        <v>0.9</v>
-      </c>
-      <c r="T6">
-        <v>0.9</v>
-      </c>
-      <c r="U6">
-        <v>0.9</v>
-      </c>
-      <c r="V6">
-        <v>0.9</v>
-      </c>
-      <c r="W6">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="X6">
-        <v>0.9</v>
-      </c>
-      <c r="Y6">
-        <v>0.9</v>
-      </c>
-      <c r="Z6">
-        <v>0.9</v>
-      </c>
-      <c r="AA6">
-        <v>0.9</v>
-      </c>
-      <c r="AB6">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD6">
-        <v>0.9</v>
-      </c>
-      <c r="AE6">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AF6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG6">
-        <v>0.9</v>
-      </c>
-      <c r="AH6">
-        <v>0.9</v>
-      </c>
-      <c r="AI6">
-        <v>0.9</v>
-      </c>
-      <c r="AJ6">
-        <v>0.9</v>
-      </c>
-      <c r="AK6">
-        <v>0.9</v>
-      </c>
-      <c r="AL6">
-        <v>0.9</v>
-      </c>
-      <c r="AM6">
-        <v>0.9</v>
-      </c>
-      <c r="AN6">
-        <v>0.9</v>
-      </c>
-      <c r="AO6">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AP6">
-        <v>0.9</v>
-      </c>
-      <c r="AQ6">
-        <v>0.9</v>
-      </c>
-      <c r="AR6">
-        <v>0.9</v>
-      </c>
-      <c r="AS6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.9</v>
-      </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>0.9</v>
-      </c>
-      <c r="M7">
-        <v>0.9</v>
-      </c>
-      <c r="N7">
-        <v>0.9</v>
-      </c>
-      <c r="O7">
-        <v>0.9</v>
-      </c>
-      <c r="P7">
-        <v>0.9</v>
-      </c>
-      <c r="Q7">
-        <v>0.9</v>
-      </c>
-      <c r="R7">
-        <v>0.9</v>
-      </c>
-      <c r="S7">
-        <v>0.9</v>
-      </c>
-      <c r="T7">
-        <v>0.9</v>
-      </c>
-      <c r="U7">
-        <v>0.9</v>
-      </c>
-      <c r="V7">
-        <v>0.9</v>
-      </c>
-      <c r="W7">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="X7">
-        <v>0.9</v>
-      </c>
-      <c r="Y7">
-        <v>0.9</v>
-      </c>
-      <c r="Z7">
-        <v>0.9</v>
-      </c>
-      <c r="AA7">
-        <v>0.9</v>
-      </c>
-      <c r="AB7">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC7">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD7">
-        <v>0.9</v>
-      </c>
-      <c r="AE7">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AF7">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG7">
-        <v>0.9</v>
-      </c>
-      <c r="AH7">
-        <v>0.9</v>
-      </c>
-      <c r="AI7">
-        <v>0.9</v>
-      </c>
-      <c r="AJ7">
-        <v>0.9</v>
-      </c>
-      <c r="AK7">
-        <v>0.9</v>
-      </c>
-      <c r="AL7">
-        <v>0.9</v>
-      </c>
-      <c r="AM7">
-        <v>0.9</v>
-      </c>
-      <c r="AN7">
-        <v>0.9</v>
-      </c>
-      <c r="AO7">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AP7">
-        <v>0.9</v>
-      </c>
-      <c r="AQ7">
-        <v>0.9</v>
-      </c>
-      <c r="AR7">
-        <v>0.9</v>
-      </c>
-      <c r="AS7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.9</v>
-      </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8">
-        <v>0.9</v>
-      </c>
-      <c r="M8">
-        <v>0.9</v>
-      </c>
-      <c r="N8">
-        <v>0.9</v>
-      </c>
-      <c r="O8">
-        <v>0.9</v>
-      </c>
-      <c r="P8">
-        <v>0.9</v>
-      </c>
-      <c r="Q8">
-        <v>0.9</v>
-      </c>
-      <c r="R8">
-        <v>0.9</v>
-      </c>
-      <c r="S8">
-        <v>0.9</v>
-      </c>
-      <c r="T8">
-        <v>0.9</v>
-      </c>
-      <c r="U8">
-        <v>0.9</v>
-      </c>
-      <c r="V8">
-        <v>0.9</v>
-      </c>
-      <c r="W8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="X8">
-        <v>0.9</v>
-      </c>
-      <c r="Y8">
-        <v>0.9</v>
-      </c>
-      <c r="Z8">
-        <v>0.9</v>
-      </c>
-      <c r="AA8">
-        <v>0.9</v>
-      </c>
-      <c r="AB8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC8">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD8">
-        <v>0.9</v>
-      </c>
-      <c r="AE8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AF8">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG8">
-        <v>0.9</v>
-      </c>
-      <c r="AH8">
-        <v>0.9</v>
-      </c>
-      <c r="AI8">
-        <v>0.9</v>
-      </c>
-      <c r="AJ8">
-        <v>0.9</v>
-      </c>
-      <c r="AK8">
-        <v>0.9</v>
-      </c>
-      <c r="AL8">
-        <v>0.9</v>
-      </c>
-      <c r="AM8">
-        <v>0.9</v>
-      </c>
-      <c r="AN8">
-        <v>0.9</v>
-      </c>
-      <c r="AO8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AP8">
-        <v>0.9</v>
-      </c>
-      <c r="AQ8">
-        <v>0.9</v>
-      </c>
-      <c r="AR8">
-        <v>0.9</v>
-      </c>
-      <c r="AS8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.9</v>
-      </c>
-      <c r="K9">
-        <v>0.9</v>
-      </c>
-      <c r="L9">
-        <v>0.9</v>
-      </c>
-      <c r="M9">
-        <v>0.9</v>
-      </c>
-      <c r="N9">
-        <v>0.9</v>
-      </c>
-      <c r="O9">
-        <v>0.9</v>
-      </c>
-      <c r="P9">
-        <v>0.9</v>
-      </c>
-      <c r="Q9">
-        <v>0.9</v>
-      </c>
-      <c r="R9">
-        <v>0.9</v>
-      </c>
-      <c r="S9">
-        <v>0.9</v>
-      </c>
-      <c r="T9">
-        <v>0.9</v>
-      </c>
-      <c r="U9">
-        <v>0.9</v>
-      </c>
-      <c r="V9">
-        <v>0.9</v>
-      </c>
-      <c r="W9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="X9">
-        <v>0.9</v>
-      </c>
-      <c r="Y9">
-        <v>0.9</v>
-      </c>
-      <c r="Z9">
-        <v>0.9</v>
-      </c>
-      <c r="AA9">
-        <v>0.9</v>
-      </c>
-      <c r="AB9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC9">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD9">
-        <v>0.9</v>
-      </c>
-      <c r="AE9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AF9">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG9">
-        <v>0.9</v>
-      </c>
-      <c r="AH9">
-        <v>0.9</v>
-      </c>
-      <c r="AI9">
-        <v>0.9</v>
-      </c>
-      <c r="AJ9">
-        <v>0.9</v>
-      </c>
-      <c r="AK9">
-        <v>0.9</v>
-      </c>
-      <c r="AL9">
-        <v>0.9</v>
-      </c>
-      <c r="AM9">
-        <v>0.9</v>
-      </c>
-      <c r="AN9">
-        <v>0.9</v>
-      </c>
-      <c r="AO9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AP9">
-        <v>0.9</v>
-      </c>
-      <c r="AQ9">
-        <v>0.9</v>
-      </c>
-      <c r="AR9">
-        <v>0.9</v>
-      </c>
-      <c r="AS9">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.9</v>
-      </c>
-      <c r="K10">
-        <v>0.9</v>
-      </c>
-      <c r="L10">
-        <v>0.9</v>
-      </c>
-      <c r="M10">
-        <v>0.9</v>
-      </c>
-      <c r="N10">
-        <v>0.9</v>
-      </c>
-      <c r="O10">
-        <v>0.9</v>
-      </c>
-      <c r="P10">
-        <v>0.9</v>
-      </c>
-      <c r="Q10">
-        <v>0.9</v>
-      </c>
-      <c r="R10">
-        <v>0.9</v>
-      </c>
-      <c r="S10">
-        <v>0.9</v>
-      </c>
-      <c r="T10">
-        <v>0.9</v>
-      </c>
-      <c r="U10">
-        <v>0.9</v>
-      </c>
-      <c r="V10">
-        <v>0.9</v>
-      </c>
-      <c r="W10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="X10">
-        <v>0.9</v>
-      </c>
-      <c r="Y10">
-        <v>0.9</v>
-      </c>
-      <c r="Z10">
-        <v>0.9</v>
-      </c>
-      <c r="AA10">
-        <v>0.9</v>
-      </c>
-      <c r="AB10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC10">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD10">
-        <v>0.9</v>
-      </c>
-      <c r="AE10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AF10">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG10">
-        <v>0.9</v>
-      </c>
-      <c r="AH10">
-        <v>0.9</v>
-      </c>
-      <c r="AI10">
-        <v>0.9</v>
-      </c>
-      <c r="AJ10">
-        <v>0.9</v>
-      </c>
-      <c r="AK10">
-        <v>0.9</v>
-      </c>
-      <c r="AL10">
-        <v>0.9</v>
-      </c>
-      <c r="AM10">
-        <v>0.9</v>
-      </c>
-      <c r="AN10">
-        <v>0.9</v>
-      </c>
-      <c r="AO10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AP10">
-        <v>0.9</v>
-      </c>
-      <c r="AQ10">
-        <v>0.9</v>
-      </c>
-      <c r="AR10">
-        <v>0.9</v>
-      </c>
-      <c r="AS10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.9</v>
-      </c>
-      <c r="K11">
-        <v>0.9</v>
-      </c>
-      <c r="L11">
-        <v>0.9</v>
-      </c>
-      <c r="M11">
-        <v>0.9</v>
-      </c>
-      <c r="N11">
-        <v>0.9</v>
-      </c>
-      <c r="O11">
-        <v>0.9</v>
-      </c>
-      <c r="P11">
-        <v>0.9</v>
-      </c>
-      <c r="Q11">
-        <v>0.9</v>
-      </c>
-      <c r="R11">
-        <v>0.9</v>
-      </c>
-      <c r="S11">
-        <v>0.9</v>
-      </c>
-      <c r="T11">
-        <v>0.9</v>
-      </c>
-      <c r="U11">
-        <v>0.9</v>
-      </c>
-      <c r="V11">
-        <v>0.9</v>
-      </c>
-      <c r="W11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="X11">
-        <v>0.9</v>
-      </c>
-      <c r="Y11">
-        <v>0.9</v>
-      </c>
-      <c r="Z11">
-        <v>0.9</v>
-      </c>
-      <c r="AA11">
-        <v>0.9</v>
-      </c>
-      <c r="AB11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC11">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD11">
-        <v>0.9</v>
-      </c>
-      <c r="AE11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AF11">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG11">
-        <v>0.9</v>
-      </c>
-      <c r="AH11">
-        <v>0.9</v>
-      </c>
-      <c r="AI11">
-        <v>0.9</v>
-      </c>
-      <c r="AJ11">
-        <v>0.9</v>
-      </c>
-      <c r="AK11">
-        <v>0.9</v>
-      </c>
-      <c r="AL11">
-        <v>0.9</v>
-      </c>
-      <c r="AM11">
-        <v>0.9</v>
-      </c>
-      <c r="AN11">
-        <v>0.9</v>
-      </c>
-      <c r="AO11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AP11">
-        <v>0.9</v>
-      </c>
-      <c r="AQ11">
-        <v>0.9</v>
-      </c>
-      <c r="AR11">
-        <v>0.9</v>
-      </c>
-      <c r="AS11">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS18"/>
@@ -39883,5504 +38495,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.72</v>
-      </c>
-      <c r="K2">
-        <v>0.72</v>
-      </c>
-      <c r="L2">
-        <v>0.72</v>
-      </c>
-      <c r="M2">
-        <v>0.72</v>
-      </c>
-      <c r="N2">
-        <v>0.72</v>
-      </c>
-      <c r="O2">
-        <v>0.72</v>
-      </c>
-      <c r="P2">
-        <v>0.72</v>
-      </c>
-      <c r="Q2">
-        <v>0.72</v>
-      </c>
-      <c r="R2">
-        <v>0.72</v>
-      </c>
-      <c r="S2">
-        <v>0.72</v>
-      </c>
-      <c r="T2">
-        <v>0.72</v>
-      </c>
-      <c r="U2">
-        <v>0.72</v>
-      </c>
-      <c r="V2">
-        <v>0.7191666666666666</v>
-      </c>
-      <c r="W2">
-        <v>0.7183333333333333</v>
-      </c>
-      <c r="X2">
-        <v>0.7175</v>
-      </c>
-      <c r="Y2">
-        <v>0.7166666666666667</v>
-      </c>
-      <c r="Z2">
-        <v>0.7158333333333333</v>
-      </c>
-      <c r="AA2">
-        <v>0.7150000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>0.7141666666666666</v>
-      </c>
-      <c r="AC2">
-        <v>0.7133333333333334</v>
-      </c>
-      <c r="AD2">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>0.7116666666666667</v>
-      </c>
-      <c r="AF2">
-        <v>0.7108333333333333</v>
-      </c>
-      <c r="AG2">
-        <v>0.71</v>
-      </c>
-      <c r="AH2">
-        <v>0.7091666666666666</v>
-      </c>
-      <c r="AI2">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="AJ2">
-        <v>0.7075</v>
-      </c>
-      <c r="AK2">
-        <v>0.7066666666666667</v>
-      </c>
-      <c r="AL2">
-        <v>0.7058333333333333</v>
-      </c>
-      <c r="AM2">
-        <v>0.7049999999999998</v>
-      </c>
-      <c r="AN2">
-        <v>0.7041666666666666</v>
-      </c>
-      <c r="AO2">
-        <v>0.7033333333333334</v>
-      </c>
-      <c r="AP2">
-        <v>0.7024999999999999</v>
-      </c>
-      <c r="AQ2">
-        <v>0.7016666666666667</v>
-      </c>
-      <c r="AR2">
-        <v>0.7008333333333332</v>
-      </c>
-      <c r="AS2">
-        <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>1.5</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0.9875</v>
-      </c>
-      <c r="W2">
-        <v>0.975</v>
-      </c>
-      <c r="X2">
-        <v>0.9625</v>
-      </c>
-      <c r="Y2">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.9375</v>
-      </c>
-      <c r="AA2">
-        <v>0.925</v>
-      </c>
-      <c r="AB2">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC2">
-        <v>0.9</v>
-      </c>
-      <c r="AD2">
-        <v>0.8875</v>
-      </c>
-      <c r="AE2">
-        <v>0.875</v>
-      </c>
-      <c r="AF2">
-        <v>0.8625</v>
-      </c>
-      <c r="AG2">
-        <v>0.85</v>
-      </c>
-      <c r="AH2">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI2">
-        <v>0.825</v>
-      </c>
-      <c r="AJ2">
-        <v>0.8125</v>
-      </c>
-      <c r="AK2">
-        <v>0.8</v>
-      </c>
-      <c r="AL2">
-        <v>0.7875</v>
-      </c>
-      <c r="AM2">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN2">
-        <v>0.7625</v>
-      </c>
-      <c r="AO2">
-        <v>0.75</v>
-      </c>
-      <c r="AP2">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ2">
-        <v>0.725</v>
-      </c>
-      <c r="AR2">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>1.5</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>0.9875</v>
-      </c>
-      <c r="W3">
-        <v>0.975</v>
-      </c>
-      <c r="X3">
-        <v>0.9625</v>
-      </c>
-      <c r="Y3">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z3">
-        <v>0.9375</v>
-      </c>
-      <c r="AA3">
-        <v>0.925</v>
-      </c>
-      <c r="AB3">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC3">
-        <v>0.9</v>
-      </c>
-      <c r="AD3">
-        <v>0.8875</v>
-      </c>
-      <c r="AE3">
-        <v>0.875</v>
-      </c>
-      <c r="AF3">
-        <v>0.8625</v>
-      </c>
-      <c r="AG3">
-        <v>0.85</v>
-      </c>
-      <c r="AH3">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI3">
-        <v>0.825</v>
-      </c>
-      <c r="AJ3">
-        <v>0.8125</v>
-      </c>
-      <c r="AK3">
-        <v>0.8</v>
-      </c>
-      <c r="AL3">
-        <v>0.7875</v>
-      </c>
-      <c r="AM3">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN3">
-        <v>0.7625</v>
-      </c>
-      <c r="AO3">
-        <v>0.75</v>
-      </c>
-      <c r="AP3">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ3">
-        <v>0.725</v>
-      </c>
-      <c r="AR3">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>1.5</v>
-      </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>0.9875</v>
-      </c>
-      <c r="W4">
-        <v>0.975</v>
-      </c>
-      <c r="X4">
-        <v>0.9625</v>
-      </c>
-      <c r="Y4">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z4">
-        <v>0.9375</v>
-      </c>
-      <c r="AA4">
-        <v>0.925</v>
-      </c>
-      <c r="AB4">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC4">
-        <v>0.9</v>
-      </c>
-      <c r="AD4">
-        <v>0.8875</v>
-      </c>
-      <c r="AE4">
-        <v>0.875</v>
-      </c>
-      <c r="AF4">
-        <v>0.8625</v>
-      </c>
-      <c r="AG4">
-        <v>0.85</v>
-      </c>
-      <c r="AH4">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI4">
-        <v>0.825</v>
-      </c>
-      <c r="AJ4">
-        <v>0.8125</v>
-      </c>
-      <c r="AK4">
-        <v>0.8</v>
-      </c>
-      <c r="AL4">
-        <v>0.7875</v>
-      </c>
-      <c r="AM4">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN4">
-        <v>0.7625</v>
-      </c>
-      <c r="AO4">
-        <v>0.75</v>
-      </c>
-      <c r="AP4">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ4">
-        <v>0.725</v>
-      </c>
-      <c r="AR4">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1.5</v>
-      </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>0.9875</v>
-      </c>
-      <c r="W5">
-        <v>0.975</v>
-      </c>
-      <c r="X5">
-        <v>0.9625</v>
-      </c>
-      <c r="Y5">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z5">
-        <v>0.9375</v>
-      </c>
-      <c r="AA5">
-        <v>0.925</v>
-      </c>
-      <c r="AB5">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC5">
-        <v>0.9</v>
-      </c>
-      <c r="AD5">
-        <v>0.8875</v>
-      </c>
-      <c r="AE5">
-        <v>0.875</v>
-      </c>
-      <c r="AF5">
-        <v>0.8625</v>
-      </c>
-      <c r="AG5">
-        <v>0.85</v>
-      </c>
-      <c r="AH5">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI5">
-        <v>0.825</v>
-      </c>
-      <c r="AJ5">
-        <v>0.8125</v>
-      </c>
-      <c r="AK5">
-        <v>0.8</v>
-      </c>
-      <c r="AL5">
-        <v>0.7875</v>
-      </c>
-      <c r="AM5">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN5">
-        <v>0.7625</v>
-      </c>
-      <c r="AO5">
-        <v>0.75</v>
-      </c>
-      <c r="AP5">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ5">
-        <v>0.725</v>
-      </c>
-      <c r="AR5">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>1.5</v>
-      </c>
-      <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>0.9875</v>
-      </c>
-      <c r="W6">
-        <v>0.975</v>
-      </c>
-      <c r="X6">
-        <v>0.9625</v>
-      </c>
-      <c r="Y6">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z6">
-        <v>0.9375</v>
-      </c>
-      <c r="AA6">
-        <v>0.925</v>
-      </c>
-      <c r="AB6">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC6">
-        <v>0.9</v>
-      </c>
-      <c r="AD6">
-        <v>0.8875</v>
-      </c>
-      <c r="AE6">
-        <v>0.875</v>
-      </c>
-      <c r="AF6">
-        <v>0.8625</v>
-      </c>
-      <c r="AG6">
-        <v>0.85</v>
-      </c>
-      <c r="AH6">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI6">
-        <v>0.825</v>
-      </c>
-      <c r="AJ6">
-        <v>0.8125</v>
-      </c>
-      <c r="AK6">
-        <v>0.8</v>
-      </c>
-      <c r="AL6">
-        <v>0.7875</v>
-      </c>
-      <c r="AM6">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>0.7625</v>
-      </c>
-      <c r="AO6">
-        <v>0.75</v>
-      </c>
-      <c r="AP6">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ6">
-        <v>0.725</v>
-      </c>
-      <c r="AR6">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>1.5</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>0.9875</v>
-      </c>
-      <c r="W7">
-        <v>0.975</v>
-      </c>
-      <c r="X7">
-        <v>0.9625</v>
-      </c>
-      <c r="Y7">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z7">
-        <v>0.9375</v>
-      </c>
-      <c r="AA7">
-        <v>0.925</v>
-      </c>
-      <c r="AB7">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC7">
-        <v>0.9</v>
-      </c>
-      <c r="AD7">
-        <v>0.8875</v>
-      </c>
-      <c r="AE7">
-        <v>0.875</v>
-      </c>
-      <c r="AF7">
-        <v>0.8625</v>
-      </c>
-      <c r="AG7">
-        <v>0.85</v>
-      </c>
-      <c r="AH7">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI7">
-        <v>0.825</v>
-      </c>
-      <c r="AJ7">
-        <v>0.8125</v>
-      </c>
-      <c r="AK7">
-        <v>0.8</v>
-      </c>
-      <c r="AL7">
-        <v>0.7875</v>
-      </c>
-      <c r="AM7">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN7">
-        <v>0.7625</v>
-      </c>
-      <c r="AO7">
-        <v>0.75</v>
-      </c>
-      <c r="AP7">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ7">
-        <v>0.725</v>
-      </c>
-      <c r="AR7">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>1.5</v>
-      </c>
-      <c r="I8">
-        <v>0.5</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>0.9875</v>
-      </c>
-      <c r="W8">
-        <v>0.975</v>
-      </c>
-      <c r="X8">
-        <v>0.9625</v>
-      </c>
-      <c r="Y8">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z8">
-        <v>0.9375</v>
-      </c>
-      <c r="AA8">
-        <v>0.925</v>
-      </c>
-      <c r="AB8">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC8">
-        <v>0.9</v>
-      </c>
-      <c r="AD8">
-        <v>0.8875</v>
-      </c>
-      <c r="AE8">
-        <v>0.875</v>
-      </c>
-      <c r="AF8">
-        <v>0.8625</v>
-      </c>
-      <c r="AG8">
-        <v>0.85</v>
-      </c>
-      <c r="AH8">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI8">
-        <v>0.825</v>
-      </c>
-      <c r="AJ8">
-        <v>0.8125</v>
-      </c>
-      <c r="AK8">
-        <v>0.8</v>
-      </c>
-      <c r="AL8">
-        <v>0.7875</v>
-      </c>
-      <c r="AM8">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN8">
-        <v>0.7625</v>
-      </c>
-      <c r="AO8">
-        <v>0.75</v>
-      </c>
-      <c r="AP8">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ8">
-        <v>0.725</v>
-      </c>
-      <c r="AR8">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>1.5</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0.9875</v>
-      </c>
-      <c r="W9">
-        <v>0.975</v>
-      </c>
-      <c r="X9">
-        <v>0.9625</v>
-      </c>
-      <c r="Y9">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z9">
-        <v>0.9375</v>
-      </c>
-      <c r="AA9">
-        <v>0.925</v>
-      </c>
-      <c r="AB9">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC9">
-        <v>0.9</v>
-      </c>
-      <c r="AD9">
-        <v>0.8875</v>
-      </c>
-      <c r="AE9">
-        <v>0.875</v>
-      </c>
-      <c r="AF9">
-        <v>0.8625</v>
-      </c>
-      <c r="AG9">
-        <v>0.85</v>
-      </c>
-      <c r="AH9">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI9">
-        <v>0.825</v>
-      </c>
-      <c r="AJ9">
-        <v>0.8125</v>
-      </c>
-      <c r="AK9">
-        <v>0.8</v>
-      </c>
-      <c r="AL9">
-        <v>0.7875</v>
-      </c>
-      <c r="AM9">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN9">
-        <v>0.7625</v>
-      </c>
-      <c r="AO9">
-        <v>0.75</v>
-      </c>
-      <c r="AP9">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ9">
-        <v>0.725</v>
-      </c>
-      <c r="AR9">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>1.5</v>
-      </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>0.9875</v>
-      </c>
-      <c r="W10">
-        <v>0.975</v>
-      </c>
-      <c r="X10">
-        <v>0.9625</v>
-      </c>
-      <c r="Y10">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z10">
-        <v>0.9375</v>
-      </c>
-      <c r="AA10">
-        <v>0.925</v>
-      </c>
-      <c r="AB10">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC10">
-        <v>0.9</v>
-      </c>
-      <c r="AD10">
-        <v>0.8875</v>
-      </c>
-      <c r="AE10">
-        <v>0.875</v>
-      </c>
-      <c r="AF10">
-        <v>0.8625</v>
-      </c>
-      <c r="AG10">
-        <v>0.85</v>
-      </c>
-      <c r="AH10">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI10">
-        <v>0.825</v>
-      </c>
-      <c r="AJ10">
-        <v>0.8125</v>
-      </c>
-      <c r="AK10">
-        <v>0.8</v>
-      </c>
-      <c r="AL10">
-        <v>0.7875</v>
-      </c>
-      <c r="AM10">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN10">
-        <v>0.7625</v>
-      </c>
-      <c r="AO10">
-        <v>0.75</v>
-      </c>
-      <c r="AP10">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ10">
-        <v>0.725</v>
-      </c>
-      <c r="AR10">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>1.5</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>0.9875</v>
-      </c>
-      <c r="W11">
-        <v>0.975</v>
-      </c>
-      <c r="X11">
-        <v>0.9625</v>
-      </c>
-      <c r="Y11">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z11">
-        <v>0.9375</v>
-      </c>
-      <c r="AA11">
-        <v>0.925</v>
-      </c>
-      <c r="AB11">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC11">
-        <v>0.9</v>
-      </c>
-      <c r="AD11">
-        <v>0.8875</v>
-      </c>
-      <c r="AE11">
-        <v>0.875</v>
-      </c>
-      <c r="AF11">
-        <v>0.8625</v>
-      </c>
-      <c r="AG11">
-        <v>0.85</v>
-      </c>
-      <c r="AH11">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI11">
-        <v>0.825</v>
-      </c>
-      <c r="AJ11">
-        <v>0.8125</v>
-      </c>
-      <c r="AK11">
-        <v>0.8</v>
-      </c>
-      <c r="AL11">
-        <v>0.7875</v>
-      </c>
-      <c r="AM11">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN11">
-        <v>0.7625</v>
-      </c>
-      <c r="AO11">
-        <v>0.75</v>
-      </c>
-      <c r="AP11">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ11">
-        <v>0.725</v>
-      </c>
-      <c r="AR11">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>1.5</v>
-      </c>
-      <c r="I12">
-        <v>0.5</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>0.9875</v>
-      </c>
-      <c r="W12">
-        <v>0.975</v>
-      </c>
-      <c r="X12">
-        <v>0.9625</v>
-      </c>
-      <c r="Y12">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z12">
-        <v>0.9375</v>
-      </c>
-      <c r="AA12">
-        <v>0.925</v>
-      </c>
-      <c r="AB12">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC12">
-        <v>0.9</v>
-      </c>
-      <c r="AD12">
-        <v>0.8875</v>
-      </c>
-      <c r="AE12">
-        <v>0.875</v>
-      </c>
-      <c r="AF12">
-        <v>0.8625</v>
-      </c>
-      <c r="AG12">
-        <v>0.85</v>
-      </c>
-      <c r="AH12">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI12">
-        <v>0.825</v>
-      </c>
-      <c r="AJ12">
-        <v>0.8125</v>
-      </c>
-      <c r="AK12">
-        <v>0.8</v>
-      </c>
-      <c r="AL12">
-        <v>0.7875</v>
-      </c>
-      <c r="AM12">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN12">
-        <v>0.7625</v>
-      </c>
-      <c r="AO12">
-        <v>0.75</v>
-      </c>
-      <c r="AP12">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ12">
-        <v>0.725</v>
-      </c>
-      <c r="AR12">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>1.5</v>
-      </c>
-      <c r="I13">
-        <v>0.5</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>0.9875</v>
-      </c>
-      <c r="W13">
-        <v>0.975</v>
-      </c>
-      <c r="X13">
-        <v>0.9625</v>
-      </c>
-      <c r="Y13">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z13">
-        <v>0.9375</v>
-      </c>
-      <c r="AA13">
-        <v>0.925</v>
-      </c>
-      <c r="AB13">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC13">
-        <v>0.9</v>
-      </c>
-      <c r="AD13">
-        <v>0.8875</v>
-      </c>
-      <c r="AE13">
-        <v>0.875</v>
-      </c>
-      <c r="AF13">
-        <v>0.8625</v>
-      </c>
-      <c r="AG13">
-        <v>0.85</v>
-      </c>
-      <c r="AH13">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI13">
-        <v>0.825</v>
-      </c>
-      <c r="AJ13">
-        <v>0.8125</v>
-      </c>
-      <c r="AK13">
-        <v>0.8</v>
-      </c>
-      <c r="AL13">
-        <v>0.7875</v>
-      </c>
-      <c r="AM13">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN13">
-        <v>0.7625</v>
-      </c>
-      <c r="AO13">
-        <v>0.75</v>
-      </c>
-      <c r="AP13">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ13">
-        <v>0.725</v>
-      </c>
-      <c r="AR13">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>1.5</v>
-      </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>0.9875</v>
-      </c>
-      <c r="W14">
-        <v>0.975</v>
-      </c>
-      <c r="X14">
-        <v>0.9625</v>
-      </c>
-      <c r="Y14">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z14">
-        <v>0.9375</v>
-      </c>
-      <c r="AA14">
-        <v>0.925</v>
-      </c>
-      <c r="AB14">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC14">
-        <v>0.9</v>
-      </c>
-      <c r="AD14">
-        <v>0.8875</v>
-      </c>
-      <c r="AE14">
-        <v>0.875</v>
-      </c>
-      <c r="AF14">
-        <v>0.8625</v>
-      </c>
-      <c r="AG14">
-        <v>0.85</v>
-      </c>
-      <c r="AH14">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI14">
-        <v>0.825</v>
-      </c>
-      <c r="AJ14">
-        <v>0.8125</v>
-      </c>
-      <c r="AK14">
-        <v>0.8</v>
-      </c>
-      <c r="AL14">
-        <v>0.7875</v>
-      </c>
-      <c r="AM14">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN14">
-        <v>0.7625</v>
-      </c>
-      <c r="AO14">
-        <v>0.75</v>
-      </c>
-      <c r="AP14">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ14">
-        <v>0.725</v>
-      </c>
-      <c r="AR14">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>1.5</v>
-      </c>
-      <c r="I15">
-        <v>0.5</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>0.9875</v>
-      </c>
-      <c r="W15">
-        <v>0.975</v>
-      </c>
-      <c r="X15">
-        <v>0.9625</v>
-      </c>
-      <c r="Y15">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z15">
-        <v>0.9375</v>
-      </c>
-      <c r="AA15">
-        <v>0.925</v>
-      </c>
-      <c r="AB15">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC15">
-        <v>0.9</v>
-      </c>
-      <c r="AD15">
-        <v>0.8875</v>
-      </c>
-      <c r="AE15">
-        <v>0.875</v>
-      </c>
-      <c r="AF15">
-        <v>0.8625</v>
-      </c>
-      <c r="AG15">
-        <v>0.85</v>
-      </c>
-      <c r="AH15">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI15">
-        <v>0.825</v>
-      </c>
-      <c r="AJ15">
-        <v>0.8125</v>
-      </c>
-      <c r="AK15">
-        <v>0.8</v>
-      </c>
-      <c r="AL15">
-        <v>0.7875</v>
-      </c>
-      <c r="AM15">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN15">
-        <v>0.7625</v>
-      </c>
-      <c r="AO15">
-        <v>0.75</v>
-      </c>
-      <c r="AP15">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ15">
-        <v>0.725</v>
-      </c>
-      <c r="AR15">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>1.5</v>
-      </c>
-      <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>0.9875</v>
-      </c>
-      <c r="W16">
-        <v>0.975</v>
-      </c>
-      <c r="X16">
-        <v>0.9625</v>
-      </c>
-      <c r="Y16">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z16">
-        <v>0.9375</v>
-      </c>
-      <c r="AA16">
-        <v>0.925</v>
-      </c>
-      <c r="AB16">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC16">
-        <v>0.9</v>
-      </c>
-      <c r="AD16">
-        <v>0.8875</v>
-      </c>
-      <c r="AE16">
-        <v>0.875</v>
-      </c>
-      <c r="AF16">
-        <v>0.8625</v>
-      </c>
-      <c r="AG16">
-        <v>0.85</v>
-      </c>
-      <c r="AH16">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI16">
-        <v>0.825</v>
-      </c>
-      <c r="AJ16">
-        <v>0.8125</v>
-      </c>
-      <c r="AK16">
-        <v>0.8</v>
-      </c>
-      <c r="AL16">
-        <v>0.7875</v>
-      </c>
-      <c r="AM16">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN16">
-        <v>0.7625</v>
-      </c>
-      <c r="AO16">
-        <v>0.75</v>
-      </c>
-      <c r="AP16">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ16">
-        <v>0.725</v>
-      </c>
-      <c r="AR16">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>1.5</v>
-      </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0.9875</v>
-      </c>
-      <c r="W17">
-        <v>0.975</v>
-      </c>
-      <c r="X17">
-        <v>0.9625</v>
-      </c>
-      <c r="Y17">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z17">
-        <v>0.9375</v>
-      </c>
-      <c r="AA17">
-        <v>0.925</v>
-      </c>
-      <c r="AB17">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC17">
-        <v>0.9</v>
-      </c>
-      <c r="AD17">
-        <v>0.8875</v>
-      </c>
-      <c r="AE17">
-        <v>0.875</v>
-      </c>
-      <c r="AF17">
-        <v>0.8625</v>
-      </c>
-      <c r="AG17">
-        <v>0.85</v>
-      </c>
-      <c r="AH17">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI17">
-        <v>0.825</v>
-      </c>
-      <c r="AJ17">
-        <v>0.8125</v>
-      </c>
-      <c r="AK17">
-        <v>0.8</v>
-      </c>
-      <c r="AL17">
-        <v>0.7875</v>
-      </c>
-      <c r="AM17">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN17">
-        <v>0.7625</v>
-      </c>
-      <c r="AO17">
-        <v>0.75</v>
-      </c>
-      <c r="AP17">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ17">
-        <v>0.725</v>
-      </c>
-      <c r="AR17">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS17">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>1.5</v>
-      </c>
-      <c r="I18">
-        <v>0.5</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>0.9875</v>
-      </c>
-      <c r="W18">
-        <v>0.975</v>
-      </c>
-      <c r="X18">
-        <v>0.9625</v>
-      </c>
-      <c r="Y18">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z18">
-        <v>0.9375</v>
-      </c>
-      <c r="AA18">
-        <v>0.925</v>
-      </c>
-      <c r="AB18">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC18">
-        <v>0.9</v>
-      </c>
-      <c r="AD18">
-        <v>0.8875</v>
-      </c>
-      <c r="AE18">
-        <v>0.875</v>
-      </c>
-      <c r="AF18">
-        <v>0.8625</v>
-      </c>
-      <c r="AG18">
-        <v>0.85</v>
-      </c>
-      <c r="AH18">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI18">
-        <v>0.825</v>
-      </c>
-      <c r="AJ18">
-        <v>0.8125</v>
-      </c>
-      <c r="AK18">
-        <v>0.8</v>
-      </c>
-      <c r="AL18">
-        <v>0.7875</v>
-      </c>
-      <c r="AM18">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN18">
-        <v>0.7625</v>
-      </c>
-      <c r="AO18">
-        <v>0.75</v>
-      </c>
-      <c r="AP18">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ18">
-        <v>0.725</v>
-      </c>
-      <c r="AR18">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>1.5</v>
-      </c>
-      <c r="I19">
-        <v>0.5</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0.9875</v>
-      </c>
-      <c r="W19">
-        <v>0.975</v>
-      </c>
-      <c r="X19">
-        <v>0.9625</v>
-      </c>
-      <c r="Y19">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z19">
-        <v>0.9375</v>
-      </c>
-      <c r="AA19">
-        <v>0.925</v>
-      </c>
-      <c r="AB19">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC19">
-        <v>0.9</v>
-      </c>
-      <c r="AD19">
-        <v>0.8875</v>
-      </c>
-      <c r="AE19">
-        <v>0.875</v>
-      </c>
-      <c r="AF19">
-        <v>0.8625</v>
-      </c>
-      <c r="AG19">
-        <v>0.85</v>
-      </c>
-      <c r="AH19">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI19">
-        <v>0.825</v>
-      </c>
-      <c r="AJ19">
-        <v>0.8125</v>
-      </c>
-      <c r="AK19">
-        <v>0.8</v>
-      </c>
-      <c r="AL19">
-        <v>0.7875</v>
-      </c>
-      <c r="AM19">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN19">
-        <v>0.7625</v>
-      </c>
-      <c r="AO19">
-        <v>0.75</v>
-      </c>
-      <c r="AP19">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ19">
-        <v>0.725</v>
-      </c>
-      <c r="AR19">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS19">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>1.5</v>
-      </c>
-      <c r="I20">
-        <v>0.5</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0.9875</v>
-      </c>
-      <c r="W20">
-        <v>0.975</v>
-      </c>
-      <c r="X20">
-        <v>0.9625</v>
-      </c>
-      <c r="Y20">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z20">
-        <v>0.9375</v>
-      </c>
-      <c r="AA20">
-        <v>0.925</v>
-      </c>
-      <c r="AB20">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC20">
-        <v>0.9</v>
-      </c>
-      <c r="AD20">
-        <v>0.8875</v>
-      </c>
-      <c r="AE20">
-        <v>0.875</v>
-      </c>
-      <c r="AF20">
-        <v>0.8625</v>
-      </c>
-      <c r="AG20">
-        <v>0.85</v>
-      </c>
-      <c r="AH20">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI20">
-        <v>0.825</v>
-      </c>
-      <c r="AJ20">
-        <v>0.8125</v>
-      </c>
-      <c r="AK20">
-        <v>0.8</v>
-      </c>
-      <c r="AL20">
-        <v>0.7875</v>
-      </c>
-      <c r="AM20">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN20">
-        <v>0.7625</v>
-      </c>
-      <c r="AO20">
-        <v>0.75</v>
-      </c>
-      <c r="AP20">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ20">
-        <v>0.725</v>
-      </c>
-      <c r="AR20">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS20">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>1.5</v>
-      </c>
-      <c r="I21">
-        <v>0.5</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>0.9875</v>
-      </c>
-      <c r="W21">
-        <v>0.975</v>
-      </c>
-      <c r="X21">
-        <v>0.9625</v>
-      </c>
-      <c r="Y21">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z21">
-        <v>0.9375</v>
-      </c>
-      <c r="AA21">
-        <v>0.925</v>
-      </c>
-      <c r="AB21">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC21">
-        <v>0.9</v>
-      </c>
-      <c r="AD21">
-        <v>0.8875</v>
-      </c>
-      <c r="AE21">
-        <v>0.875</v>
-      </c>
-      <c r="AF21">
-        <v>0.8625</v>
-      </c>
-      <c r="AG21">
-        <v>0.85</v>
-      </c>
-      <c r="AH21">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI21">
-        <v>0.825</v>
-      </c>
-      <c r="AJ21">
-        <v>0.8125</v>
-      </c>
-      <c r="AK21">
-        <v>0.8</v>
-      </c>
-      <c r="AL21">
-        <v>0.7875</v>
-      </c>
-      <c r="AM21">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN21">
-        <v>0.7625</v>
-      </c>
-      <c r="AO21">
-        <v>0.75</v>
-      </c>
-      <c r="AP21">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ21">
-        <v>0.725</v>
-      </c>
-      <c r="AR21">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS21">
-        <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.332999174469524</v>
-      </c>
-      <c r="K2">
-        <v>0.390673007118402</v>
-      </c>
-      <c r="L2">
-        <v>0.458777445667396</v>
-      </c>
-      <c r="M2">
-        <v>0.542881659281979</v>
-      </c>
-      <c r="N2">
-        <v>0.545771076342632</v>
-      </c>
-      <c r="O2">
-        <v>0.548691415073255</v>
-      </c>
-      <c r="P2">
-        <v>0.506498748157876</v>
-      </c>
-      <c r="Q2">
-        <v>0.506498748157876</v>
-      </c>
-      <c r="R2">
-        <v>0.506498748157876</v>
-      </c>
-      <c r="S2">
-        <v>0.506498748157876</v>
-      </c>
-      <c r="T2">
-        <v>0.506498748157876</v>
-      </c>
-      <c r="U2">
-        <v>0.506498748157876</v>
-      </c>
-      <c r="V2">
-        <v>0.4917258680032713</v>
-      </c>
-      <c r="W2">
-        <v>0.4769529878486665</v>
-      </c>
-      <c r="X2">
-        <v>0.4621801076940619</v>
-      </c>
-      <c r="Y2">
-        <v>0.4474072275394572</v>
-      </c>
-      <c r="Z2">
-        <v>0.4326343473848523</v>
-      </c>
-      <c r="AA2">
-        <v>0.4178614672302477</v>
-      </c>
-      <c r="AB2">
-        <v>0.4030885870756429</v>
-      </c>
-      <c r="AC2">
-        <v>0.3883157069210383</v>
-      </c>
-      <c r="AD2">
-        <v>0.3735428267664335</v>
-      </c>
-      <c r="AE2">
-        <v>0.3587699466118288</v>
-      </c>
-      <c r="AF2">
-        <v>0.3439970664572242</v>
-      </c>
-      <c r="AG2">
-        <v>0.3292241863026194</v>
-      </c>
-      <c r="AH2">
-        <v>0.3144513061480147</v>
-      </c>
-      <c r="AI2">
-        <v>0.2996784259934099</v>
-      </c>
-      <c r="AJ2">
-        <v>0.2849055458388052</v>
-      </c>
-      <c r="AK2">
-        <v>0.2701326656842005</v>
-      </c>
-      <c r="AL2">
-        <v>0.2553597855295958</v>
-      </c>
-      <c r="AM2">
-        <v>0.2405869053749911</v>
-      </c>
-      <c r="AN2">
-        <v>0.2258140252203864</v>
-      </c>
-      <c r="AO2">
-        <v>0.2110411450657816</v>
-      </c>
-      <c r="AP2">
-        <v>0.1962682649111769</v>
-      </c>
-      <c r="AQ2">
-        <v>0.1814953847565722</v>
-      </c>
-      <c r="AR2">
-        <v>0.1667225046019675</v>
-      </c>
-      <c r="AS2">
-        <v>0.1519496244473628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.225779622373045</v>
-      </c>
-      <c r="K3">
-        <v>0.251615590374847</v>
-      </c>
-      <c r="L3">
-        <v>0.276449819029039</v>
-      </c>
-      <c r="M3">
-        <v>0.305291583043109</v>
-      </c>
-      <c r="N3">
-        <v>0.306916457808054</v>
-      </c>
-      <c r="O3">
-        <v>0.308558721492691</v>
-      </c>
-      <c r="P3">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="Q3">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="R3">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="S3">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="T3">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="U3">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="V3">
-        <v>0.2836432779811254</v>
-      </c>
-      <c r="W3">
-        <v>0.2751218061104478</v>
-      </c>
-      <c r="X3">
-        <v>0.2666003342397703</v>
-      </c>
-      <c r="Y3">
-        <v>0.2580788623690927</v>
-      </c>
-      <c r="Z3">
-        <v>0.2495573904984151</v>
-      </c>
-      <c r="AA3">
-        <v>0.2410359186277375</v>
-      </c>
-      <c r="AB3">
-        <v>0.2325144467570599</v>
-      </c>
-      <c r="AC3">
-        <v>0.2239929748863823</v>
-      </c>
-      <c r="AD3">
-        <v>0.2154715030157047</v>
-      </c>
-      <c r="AE3">
-        <v>0.2069500311450271</v>
-      </c>
-      <c r="AF3">
-        <v>0.1984285592743495</v>
-      </c>
-      <c r="AG3">
-        <v>0.189907087403672</v>
-      </c>
-      <c r="AH3">
-        <v>0.1813856155329944</v>
-      </c>
-      <c r="AI3">
-        <v>0.1728641436623168</v>
-      </c>
-      <c r="AJ3">
-        <v>0.1643426717916392</v>
-      </c>
-      <c r="AK3">
-        <v>0.1558211999209616</v>
-      </c>
-      <c r="AL3">
-        <v>0.147299728050284</v>
-      </c>
-      <c r="AM3">
-        <v>0.1387782561796064</v>
-      </c>
-      <c r="AN3">
-        <v>0.1302567843089288</v>
-      </c>
-      <c r="AO3">
-        <v>0.1217353124382513</v>
-      </c>
-      <c r="AP3">
-        <v>0.1132138405675737</v>
-      </c>
-      <c r="AQ3">
-        <v>0.1046923686968961</v>
-      </c>
-      <c r="AR3">
-        <v>0.09617089682621847</v>
-      </c>
-      <c r="AS3">
-        <v>0.0876494249555409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.225779622373045</v>
-      </c>
-      <c r="K4">
-        <v>0.251615590374847</v>
-      </c>
-      <c r="L4">
-        <v>0.276449819029039</v>
-      </c>
-      <c r="M4">
-        <v>0.305291583043109</v>
-      </c>
-      <c r="N4">
-        <v>0.306916457808054</v>
-      </c>
-      <c r="O4">
-        <v>0.308558721492691</v>
-      </c>
-      <c r="P4">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="Q4">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="R4">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="S4">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="T4">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="U4">
-        <v>0.292164749851803</v>
-      </c>
-      <c r="V4">
-        <v>0.2836432779811254</v>
-      </c>
-      <c r="W4">
-        <v>0.2751218061104478</v>
-      </c>
-      <c r="X4">
-        <v>0.2666003342397703</v>
-      </c>
-      <c r="Y4">
-        <v>0.2580788623690927</v>
-      </c>
-      <c r="Z4">
-        <v>0.2495573904984151</v>
-      </c>
-      <c r="AA4">
-        <v>0.2410359186277375</v>
-      </c>
-      <c r="AB4">
-        <v>0.2325144467570599</v>
-      </c>
-      <c r="AC4">
-        <v>0.2239929748863823</v>
-      </c>
-      <c r="AD4">
-        <v>0.2154715030157047</v>
-      </c>
-      <c r="AE4">
-        <v>0.2069500311450271</v>
-      </c>
-      <c r="AF4">
-        <v>0.1984285592743495</v>
-      </c>
-      <c r="AG4">
-        <v>0.189907087403672</v>
-      </c>
-      <c r="AH4">
-        <v>0.1813856155329944</v>
-      </c>
-      <c r="AI4">
-        <v>0.1728641436623168</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1643426717916392</v>
-      </c>
-      <c r="AK4">
-        <v>0.1558211999209616</v>
-      </c>
-      <c r="AL4">
-        <v>0.147299728050284</v>
-      </c>
-      <c r="AM4">
-        <v>0.1387782561796064</v>
-      </c>
-      <c r="AN4">
-        <v>0.1302567843089288</v>
-      </c>
-      <c r="AO4">
-        <v>0.1217353124382513</v>
-      </c>
-      <c r="AP4">
-        <v>0.1132138405675737</v>
-      </c>
-      <c r="AQ4">
-        <v>0.1046923686968961</v>
-      </c>
-      <c r="AR4">
-        <v>0.09617089682621847</v>
-      </c>
-      <c r="AS4">
-        <v>0.0876494249555409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.161574394193877</v>
-      </c>
-      <c r="K5">
-        <v>0.167797357680774</v>
-      </c>
-      <c r="L5">
-        <v>0.185884557312289</v>
-      </c>
-      <c r="M5">
-        <v>0.19763376430497</v>
-      </c>
-      <c r="N5">
-        <v>0.198685644324456</v>
-      </c>
-      <c r="O5">
-        <v>0.199748781246676</v>
-      </c>
-      <c r="P5">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="Q5">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="R5">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="S5">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="T5">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="U5">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="V5">
-        <v>0.1855764006492385</v>
-      </c>
-      <c r="W5">
-        <v>0.1800011439773729</v>
-      </c>
-      <c r="X5">
-        <v>0.1744258873055074</v>
-      </c>
-      <c r="Y5">
-        <v>0.1688506306336419</v>
-      </c>
-      <c r="Z5">
-        <v>0.1632753739617763</v>
-      </c>
-      <c r="AA5">
-        <v>0.1577001172899108</v>
-      </c>
-      <c r="AB5">
-        <v>0.1521248606180453</v>
-      </c>
-      <c r="AC5">
-        <v>0.1465496039461797</v>
-      </c>
-      <c r="AD5">
-        <v>0.1409743472743142</v>
-      </c>
-      <c r="AE5">
-        <v>0.1353990906024486</v>
-      </c>
-      <c r="AF5">
-        <v>0.1298238339305831</v>
-      </c>
-      <c r="AG5">
-        <v>0.1242485772587176</v>
-      </c>
-      <c r="AH5">
-        <v>0.1186733205868521</v>
-      </c>
-      <c r="AI5">
-        <v>0.1130980639149865</v>
-      </c>
-      <c r="AJ5">
-        <v>0.107522807243121</v>
-      </c>
-      <c r="AK5">
-        <v>0.1019475505712555</v>
-      </c>
-      <c r="AL5">
-        <v>0.09637229389938992</v>
-      </c>
-      <c r="AM5">
-        <v>0.0907970372275244</v>
-      </c>
-      <c r="AN5">
-        <v>0.08522178055565888</v>
-      </c>
-      <c r="AO5">
-        <v>0.07964652388379333</v>
-      </c>
-      <c r="AP5">
-        <v>0.0740712672119278</v>
-      </c>
-      <c r="AQ5">
-        <v>0.06849601054006227</v>
-      </c>
-      <c r="AR5">
-        <v>0.06292075386819673</v>
-      </c>
-      <c r="AS5">
-        <v>0.0573454971963312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.161574394193877</v>
-      </c>
-      <c r="K6">
-        <v>0.167797357680774</v>
-      </c>
-      <c r="L6">
-        <v>0.185884557312289</v>
-      </c>
-      <c r="M6">
-        <v>0.19763376430497</v>
-      </c>
-      <c r="N6">
-        <v>0.198685644324456</v>
-      </c>
-      <c r="O6">
-        <v>0.199748781246676</v>
-      </c>
-      <c r="P6">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="Q6">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="R6">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="S6">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="T6">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="U6">
-        <v>0.191151657321104</v>
-      </c>
-      <c r="V6">
-        <v>0.1855764006492385</v>
-      </c>
-      <c r="W6">
-        <v>0.1800011439773729</v>
-      </c>
-      <c r="X6">
-        <v>0.1744258873055074</v>
-      </c>
-      <c r="Y6">
-        <v>0.1688506306336419</v>
-      </c>
-      <c r="Z6">
-        <v>0.1632753739617763</v>
-      </c>
-      <c r="AA6">
-        <v>0.1577001172899108</v>
-      </c>
-      <c r="AB6">
-        <v>0.1521248606180453</v>
-      </c>
-      <c r="AC6">
-        <v>0.1465496039461797</v>
-      </c>
-      <c r="AD6">
-        <v>0.1409743472743142</v>
-      </c>
-      <c r="AE6">
-        <v>0.1353990906024486</v>
-      </c>
-      <c r="AF6">
-        <v>0.1298238339305831</v>
-      </c>
-      <c r="AG6">
-        <v>0.1242485772587176</v>
-      </c>
-      <c r="AH6">
-        <v>0.1186733205868521</v>
-      </c>
-      <c r="AI6">
-        <v>0.1130980639149865</v>
-      </c>
-      <c r="AJ6">
-        <v>0.107522807243121</v>
-      </c>
-      <c r="AK6">
-        <v>0.1019475505712555</v>
-      </c>
-      <c r="AL6">
-        <v>0.09637229389938992</v>
-      </c>
-      <c r="AM6">
-        <v>0.0907970372275244</v>
-      </c>
-      <c r="AN6">
-        <v>0.08522178055565888</v>
-      </c>
-      <c r="AO6">
-        <v>0.07964652388379333</v>
-      </c>
-      <c r="AP6">
-        <v>0.0740712672119278</v>
-      </c>
-      <c r="AQ6">
-        <v>0.06849601054006227</v>
-      </c>
-      <c r="AR6">
-        <v>0.06292075386819673</v>
-      </c>
-      <c r="AS6">
-        <v>0.0573454971963312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.117679003232192</v>
-      </c>
-      <c r="K7">
-        <v>0.121857943313603</v>
-      </c>
-      <c r="L7">
-        <v>0.129179041511876</v>
-      </c>
-      <c r="M7">
-        <v>0.140635955581156</v>
-      </c>
-      <c r="N7">
-        <v>0.141384472173032</v>
-      </c>
-      <c r="O7">
-        <v>0.14214099916373</v>
-      </c>
-      <c r="P7">
-        <v>0.136745967288301</v>
-      </c>
-      <c r="Q7">
-        <v>0.136745967288301</v>
-      </c>
-      <c r="R7">
-        <v>0.136745967288301</v>
-      </c>
-      <c r="S7">
-        <v>0.136745967288301</v>
-      </c>
-      <c r="T7">
-        <v>0.136745967288301</v>
-      </c>
-      <c r="U7">
-        <v>0.136745967288301</v>
-      </c>
-      <c r="V7">
-        <v>0.1327575432423922</v>
-      </c>
-      <c r="W7">
-        <v>0.1287691191964834</v>
-      </c>
-      <c r="X7">
-        <v>0.1247806951505746</v>
-      </c>
-      <c r="Y7">
-        <v>0.1207922711046659</v>
-      </c>
-      <c r="Z7">
-        <v>0.1168038470587571</v>
-      </c>
-      <c r="AA7">
-        <v>0.1128154230128483</v>
-      </c>
-      <c r="AB7">
-        <v>0.1088269989669395</v>
-      </c>
-      <c r="AC7">
-        <v>0.1048385749210308</v>
-      </c>
-      <c r="AD7">
-        <v>0.100850150875122</v>
-      </c>
-      <c r="AE7">
-        <v>0.09686172682921319</v>
-      </c>
-      <c r="AF7">
-        <v>0.09287330278330444</v>
-      </c>
-      <c r="AG7">
-        <v>0.08888487873739565</v>
-      </c>
-      <c r="AH7">
-        <v>0.08489645469148686</v>
-      </c>
-      <c r="AI7">
-        <v>0.08090803064557808</v>
-      </c>
-      <c r="AJ7">
-        <v>0.0769196065996693</v>
-      </c>
-      <c r="AK7">
-        <v>0.07293118255376052</v>
-      </c>
-      <c r="AL7">
-        <v>0.06894275850785174</v>
-      </c>
-      <c r="AM7">
-        <v>0.06495433446194296</v>
-      </c>
-      <c r="AN7">
-        <v>0.06096591041603419</v>
-      </c>
-      <c r="AO7">
-        <v>0.05697748637012541</v>
-      </c>
-      <c r="AP7">
-        <v>0.05298906232421663</v>
-      </c>
-      <c r="AQ7">
-        <v>0.04900063827830786</v>
-      </c>
-      <c r="AR7">
-        <v>0.04501221423239907</v>
-      </c>
-      <c r="AS7">
-        <v>0.04102379018649029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.127153387361131</v>
-      </c>
-      <c r="K8">
-        <v>0.127819508703535</v>
-      </c>
-      <c r="L8">
-        <v>0.128492646050898</v>
-      </c>
-      <c r="M8">
-        <v>0.129172910835459</v>
-      </c>
-      <c r="N8">
-        <v>0.129860416861792</v>
-      </c>
-      <c r="O8">
-        <v>0.130555280370276</v>
-      </c>
-      <c r="P8">
-        <v>0.127855170961139</v>
-      </c>
-      <c r="Q8">
-        <v>0.127855170961139</v>
-      </c>
-      <c r="R8">
-        <v>0.127855170961139</v>
-      </c>
-      <c r="S8">
-        <v>0.127855170961139</v>
-      </c>
-      <c r="T8">
-        <v>0.127855170961139</v>
-      </c>
-      <c r="U8">
-        <v>0.127855170961139</v>
-      </c>
-      <c r="V8">
-        <v>0.1241260618081058</v>
-      </c>
-      <c r="W8">
-        <v>0.1203969526550726</v>
-      </c>
-      <c r="X8">
-        <v>0.1166678435020393</v>
-      </c>
-      <c r="Y8">
-        <v>0.1129387343490061</v>
-      </c>
-      <c r="Z8">
-        <v>0.1092096251959729</v>
-      </c>
-      <c r="AA8">
-        <v>0.1054805160429397</v>
-      </c>
-      <c r="AB8">
-        <v>0.1017514068899064</v>
-      </c>
-      <c r="AC8">
-        <v>0.09802229773687324</v>
-      </c>
-      <c r="AD8">
-        <v>0.09429318858384</v>
-      </c>
-      <c r="AE8">
-        <v>0.09056407943080677</v>
-      </c>
-      <c r="AF8">
-        <v>0.08683497027777357</v>
-      </c>
-      <c r="AG8">
-        <v>0.08310586112474035</v>
-      </c>
-      <c r="AH8">
-        <v>0.07937675197170713</v>
-      </c>
-      <c r="AI8">
-        <v>0.07564764281867389</v>
-      </c>
-      <c r="AJ8">
-        <v>0.07191853366564069</v>
-      </c>
-      <c r="AK8">
-        <v>0.06818942451260745</v>
-      </c>
-      <c r="AL8">
-        <v>0.06446031535957424</v>
-      </c>
-      <c r="AM8">
-        <v>0.06073120620654102</v>
-      </c>
-      <c r="AN8">
-        <v>0.0570020970535078</v>
-      </c>
-      <c r="AO8">
-        <v>0.05327298790047458</v>
-      </c>
-      <c r="AP8">
-        <v>0.04954387874744136</v>
-      </c>
-      <c r="AQ8">
-        <v>0.04581476959440814</v>
-      </c>
-      <c r="AR8">
-        <v>0.04208566044137491</v>
-      </c>
-      <c r="AS8">
-        <v>0.03835655128834169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.0001445489997698</v>
-      </c>
-      <c r="K9">
-        <v>0.0001182280184924</v>
-      </c>
-      <c r="L9">
-        <v>0.000124951503108</v>
-      </c>
-      <c r="M9">
-        <v>0.0001986390772273</v>
-      </c>
-      <c r="N9">
-        <v>0.0002500248420126</v>
-      </c>
-      <c r="O9">
-        <v>0.000222099278516</v>
-      </c>
-      <c r="P9">
-        <v>0.0001964406559271</v>
-      </c>
-      <c r="Q9">
-        <v>0.0001964406559271</v>
-      </c>
-      <c r="R9">
-        <v>0.0001964406559271</v>
-      </c>
-      <c r="S9">
-        <v>0.0001964406559271</v>
-      </c>
-      <c r="T9">
-        <v>0.0001964406559271</v>
-      </c>
-      <c r="U9">
-        <v>0.0001964406559271</v>
-      </c>
-      <c r="V9">
-        <v>0.0001907111367958929</v>
-      </c>
-      <c r="W9">
-        <v>0.0001849816176646858</v>
-      </c>
-      <c r="X9">
-        <v>0.0001792520985334788</v>
-      </c>
-      <c r="Y9">
-        <v>0.0001735225794022717</v>
-      </c>
-      <c r="Z9">
-        <v>0.0001677930602710646</v>
-      </c>
-      <c r="AA9">
-        <v>0.0001620635411398575</v>
-      </c>
-      <c r="AB9">
-        <v>0.0001563340220086504</v>
-      </c>
-      <c r="AC9">
-        <v>0.0001506045028774434</v>
-      </c>
-      <c r="AD9">
-        <v>0.0001448749837462362</v>
-      </c>
-      <c r="AE9">
-        <v>0.0001391454646150291</v>
-      </c>
-      <c r="AF9">
-        <v>0.0001334159454838221</v>
-      </c>
-      <c r="AG9">
-        <v>0.000127686426352615</v>
-      </c>
-      <c r="AH9">
-        <v>0.0001219569072214079</v>
-      </c>
-      <c r="AI9">
-        <v>0.0001162273880902008</v>
-      </c>
-      <c r="AJ9">
-        <v>0.0001104978689589937</v>
-      </c>
-      <c r="AK9">
-        <v>0.0001047683498277867</v>
-      </c>
-      <c r="AL9">
-        <v>9.903883069657958E-05</v>
-      </c>
-      <c r="AM9">
-        <v>9.33093115653725E-05</v>
-      </c>
-      <c r="AN9">
-        <v>8.757979243416542E-05</v>
-      </c>
-      <c r="AO9">
-        <v>8.185027330295832E-05</v>
-      </c>
-      <c r="AP9">
-        <v>7.612075417175125E-05</v>
-      </c>
-      <c r="AQ9">
-        <v>7.039123504054417E-05</v>
-      </c>
-      <c r="AR9">
-        <v>6.466171590933707E-05</v>
-      </c>
-      <c r="AS9">
-        <v>5.893219677813E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1.26628825388036</v>
-      </c>
-      <c r="K10">
-        <v>1.49412552198915</v>
-      </c>
-      <c r="L10">
-        <v>1.69254774238449</v>
-      </c>
-      <c r="M10">
-        <v>1.94577216655411</v>
-      </c>
-      <c r="N10">
-        <v>1.95612828597362</v>
-      </c>
-      <c r="O10">
-        <v>1.96659523345987</v>
-      </c>
-      <c r="P10">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="Q10">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="R10">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="S10">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="T10">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="U10">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="V10">
-        <v>1.761424497715089</v>
-      </c>
-      <c r="W10">
-        <v>1.708506165165709</v>
-      </c>
-      <c r="X10">
-        <v>1.655587832616329</v>
-      </c>
-      <c r="Y10">
-        <v>1.602669500066949</v>
-      </c>
-      <c r="Z10">
-        <v>1.549751167517568</v>
-      </c>
-      <c r="AA10">
-        <v>1.496832834968188</v>
-      </c>
-      <c r="AB10">
-        <v>1.443914502418807</v>
-      </c>
-      <c r="AC10">
-        <v>1.390996169869427</v>
-      </c>
-      <c r="AD10">
-        <v>1.338077837320047</v>
-      </c>
-      <c r="AE10">
-        <v>1.285159504770666</v>
-      </c>
-      <c r="AF10">
-        <v>1.232241172221286</v>
-      </c>
-      <c r="AG10">
-        <v>1.179322839671906</v>
-      </c>
-      <c r="AH10">
-        <v>1.126404507122525</v>
-      </c>
-      <c r="AI10">
-        <v>1.073486174573145</v>
-      </c>
-      <c r="AJ10">
-        <v>1.020567842023764</v>
-      </c>
-      <c r="AK10">
-        <v>0.967649509474384</v>
-      </c>
-      <c r="AL10">
-        <v>0.9147311769250035</v>
-      </c>
-      <c r="AM10">
-        <v>0.8618128443756232</v>
-      </c>
-      <c r="AN10">
-        <v>0.8088945118262429</v>
-      </c>
-      <c r="AO10">
-        <v>0.7559761792768624</v>
-      </c>
-      <c r="AP10">
-        <v>0.7030578467274822</v>
-      </c>
-      <c r="AQ10">
-        <v>0.6501395141781018</v>
-      </c>
-      <c r="AR10">
-        <v>0.5972211816287213</v>
-      </c>
-      <c r="AS10">
-        <v>0.544302849079341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1.26628825388036</v>
-      </c>
-      <c r="K11">
-        <v>1.49412552198915</v>
-      </c>
-      <c r="L11">
-        <v>1.69254774238449</v>
-      </c>
-      <c r="M11">
-        <v>1.94577216655411</v>
-      </c>
-      <c r="N11">
-        <v>1.95612828597362</v>
-      </c>
-      <c r="O11">
-        <v>1.96659523345987</v>
-      </c>
-      <c r="P11">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="Q11">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="R11">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="S11">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="T11">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="U11">
-        <v>1.81434283026447</v>
-      </c>
-      <c r="V11">
-        <v>1.761424497715089</v>
-      </c>
-      <c r="W11">
-        <v>1.708506165165709</v>
-      </c>
-      <c r="X11">
-        <v>1.655587832616329</v>
-      </c>
-      <c r="Y11">
-        <v>1.602669500066949</v>
-      </c>
-      <c r="Z11">
-        <v>1.549751167517568</v>
-      </c>
-      <c r="AA11">
-        <v>1.496832834968188</v>
-      </c>
-      <c r="AB11">
-        <v>1.443914502418807</v>
-      </c>
-      <c r="AC11">
-        <v>1.390996169869427</v>
-      </c>
-      <c r="AD11">
-        <v>1.338077837320047</v>
-      </c>
-      <c r="AE11">
-        <v>1.285159504770666</v>
-      </c>
-      <c r="AF11">
-        <v>1.232241172221286</v>
-      </c>
-      <c r="AG11">
-        <v>1.179322839671906</v>
-      </c>
-      <c r="AH11">
-        <v>1.126404507122525</v>
-      </c>
-      <c r="AI11">
-        <v>1.073486174573145</v>
-      </c>
-      <c r="AJ11">
-        <v>1.020567842023764</v>
-      </c>
-      <c r="AK11">
-        <v>0.967649509474384</v>
-      </c>
-      <c r="AL11">
-        <v>0.9147311769250035</v>
-      </c>
-      <c r="AM11">
-        <v>0.8618128443756232</v>
-      </c>
-      <c r="AN11">
-        <v>0.8088945118262429</v>
-      </c>
-      <c r="AO11">
-        <v>0.7559761792768624</v>
-      </c>
-      <c r="AP11">
-        <v>0.7030578467274822</v>
-      </c>
-      <c r="AQ11">
-        <v>0.6501395141781018</v>
-      </c>
-      <c r="AR11">
-        <v>0.5972211816287213</v>
-      </c>
-      <c r="AS11">
-        <v>0.544302849079341</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0.9625</v>
-      </c>
-      <c r="W2">
-        <v>0.9249999999999999</v>
-      </c>
-      <c r="X2">
-        <v>0.8875</v>
-      </c>
-      <c r="Y2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.8125</v>
-      </c>
-      <c r="AA2">
-        <v>0.775</v>
-      </c>
-      <c r="AB2">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AC2">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="AD2">
-        <v>0.6625</v>
-      </c>
-      <c r="AE2">
-        <v>0.6249999999999999</v>
-      </c>
-      <c r="AF2">
-        <v>0.5875000000000001</v>
-      </c>
-      <c r="AG2">
-        <v>0.55</v>
-      </c>
-      <c r="AH2">
-        <v>0.5125000000000001</v>
-      </c>
-      <c r="AI2">
-        <v>0.475</v>
-      </c>
-      <c r="AJ2">
-        <v>0.4375</v>
-      </c>
-      <c r="AK2">
-        <v>0.4</v>
-      </c>
-      <c r="AL2">
-        <v>0.3625</v>
-      </c>
-      <c r="AM2">
-        <v>0.325</v>
-      </c>
-      <c r="AN2">
-        <v>0.2875</v>
-      </c>
-      <c r="AO2">
-        <v>0.25</v>
-      </c>
-      <c r="AP2">
-        <v>0.2125</v>
-      </c>
-      <c r="AQ2">
-        <v>0.175</v>
-      </c>
-      <c r="AR2">
-        <v>0.1375</v>
-      </c>
-      <c r="AS2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.03741</v>
-      </c>
-      <c r="K3">
-        <v>0.03741</v>
-      </c>
-      <c r="L3">
-        <v>0.03741</v>
-      </c>
-      <c r="M3">
-        <v>0.03741</v>
-      </c>
-      <c r="N3">
-        <v>0.03741</v>
-      </c>
-      <c r="O3">
-        <v>0.03741</v>
-      </c>
-      <c r="P3">
-        <v>0.03741</v>
-      </c>
-      <c r="Q3">
-        <v>0.03741</v>
-      </c>
-      <c r="R3">
-        <v>0.03741</v>
-      </c>
-      <c r="S3">
-        <v>0.03741</v>
-      </c>
-      <c r="T3">
-        <v>0.03741</v>
-      </c>
-      <c r="U3">
-        <v>0.03741</v>
-      </c>
-      <c r="V3">
-        <v>0.036007125</v>
-      </c>
-      <c r="W3">
-        <v>0.03460425</v>
-      </c>
-      <c r="X3">
-        <v>0.033201375</v>
-      </c>
-      <c r="Y3">
-        <v>0.0317985</v>
-      </c>
-      <c r="Z3">
-        <v>0.030395625</v>
-      </c>
-      <c r="AA3">
-        <v>0.02899275</v>
-      </c>
-      <c r="AB3">
-        <v>0.027589875</v>
-      </c>
-      <c r="AC3">
-        <v>0.026187</v>
-      </c>
-      <c r="AD3">
-        <v>0.024784125</v>
-      </c>
-      <c r="AE3">
-        <v>0.02338125</v>
-      </c>
-      <c r="AF3">
-        <v>0.021978375</v>
-      </c>
-      <c r="AG3">
-        <v>0.0205755</v>
-      </c>
-      <c r="AH3">
-        <v>0.019172625</v>
-      </c>
-      <c r="AI3">
-        <v>0.01776975</v>
-      </c>
-      <c r="AJ3">
-        <v>0.016366875</v>
-      </c>
-      <c r="AK3">
-        <v>0.014964</v>
-      </c>
-      <c r="AL3">
-        <v>0.013561125</v>
-      </c>
-      <c r="AM3">
-        <v>0.01215825</v>
-      </c>
-      <c r="AN3">
-        <v>0.010755375</v>
-      </c>
-      <c r="AO3">
-        <v>0.009352499999999998</v>
-      </c>
-      <c r="AP3">
-        <v>0.007949625</v>
-      </c>
-      <c r="AQ3">
-        <v>0.006546750000000001</v>
-      </c>
-      <c r="AR3">
-        <v>0.005143874999999999</v>
-      </c>
-      <c r="AS3">
-        <v>0.003741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.0007</v>
-      </c>
-      <c r="K4">
-        <v>0.0007</v>
-      </c>
-      <c r="L4">
-        <v>0.0007</v>
-      </c>
-      <c r="M4">
-        <v>0.0007</v>
-      </c>
-      <c r="N4">
-        <v>0.0007</v>
-      </c>
-      <c r="O4">
-        <v>0.0007</v>
-      </c>
-      <c r="P4">
-        <v>0.0007</v>
-      </c>
-      <c r="Q4">
-        <v>0.0007</v>
-      </c>
-      <c r="R4">
-        <v>0.0007</v>
-      </c>
-      <c r="S4">
-        <v>0.0007</v>
-      </c>
-      <c r="T4">
-        <v>0.0007</v>
-      </c>
-      <c r="U4">
-        <v>0.0007</v>
-      </c>
-      <c r="V4">
-        <v>0.0006737500000000001</v>
-      </c>
-      <c r="W4">
-        <v>0.0006475000000000001</v>
-      </c>
-      <c r="X4">
-        <v>0.0006212499999999999</v>
-      </c>
-      <c r="Y4">
-        <v>0.000595</v>
-      </c>
-      <c r="Z4">
-        <v>0.00056875</v>
-      </c>
-      <c r="AA4">
-        <v>0.0005425</v>
-      </c>
-      <c r="AB4">
-        <v>0.0005162499999999999</v>
-      </c>
-      <c r="AC4">
-        <v>0.0004900000000000001</v>
-      </c>
-      <c r="AD4">
-        <v>0.00046375</v>
-      </c>
-      <c r="AE4">
-        <v>0.0004375</v>
-      </c>
-      <c r="AF4">
-        <v>0.00041125</v>
-      </c>
-      <c r="AG4">
-        <v>0.000385</v>
-      </c>
-      <c r="AH4">
-        <v>0.00035875</v>
-      </c>
-      <c r="AI4">
-        <v>0.0003325</v>
-      </c>
-      <c r="AJ4">
-        <v>0.00030625</v>
-      </c>
-      <c r="AK4">
-        <v>0.00028</v>
-      </c>
-      <c r="AL4">
-        <v>0.00025375</v>
-      </c>
-      <c r="AM4">
-        <v>0.0002275</v>
-      </c>
-      <c r="AN4">
-        <v>0.00020125</v>
-      </c>
-      <c r="AO4">
-        <v>0.000175</v>
-      </c>
-      <c r="AP4">
-        <v>0.00014875</v>
-      </c>
-      <c r="AQ4">
-        <v>0.0001225000000000001</v>
-      </c>
-      <c r="AR4">
-        <v>9.624999999999998E-05</v>
-      </c>
-      <c r="AS4">
-        <v>7.000000000000001E-05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>8.81676442011093E-08</v>
-      </c>
-      <c r="K2">
-        <v>7.97214831363262E-08</v>
-      </c>
-      <c r="L2">
-        <v>6.75655801813966E-08</v>
-      </c>
-      <c r="M2">
-        <v>9.75447977049802E-08</v>
-      </c>
-      <c r="N2">
-        <v>2.01480126814801E-07</v>
-      </c>
-      <c r="O2">
-        <v>1.8246645722573E-07</v>
-      </c>
-      <c r="P2">
-        <v>1.4673046628523E-07</v>
-      </c>
-      <c r="Q2">
-        <v>1.4673046628523E-07</v>
-      </c>
-      <c r="R2">
-        <v>1.4673046628523E-07</v>
-      </c>
-      <c r="S2">
-        <v>1.4673046628523E-07</v>
-      </c>
-      <c r="T2">
-        <v>1.4673046628523E-07</v>
-      </c>
-      <c r="U2">
-        <v>1.4673046628523E-07</v>
-      </c>
-      <c r="V2">
-        <v>1.412280737995339E-07</v>
-      </c>
-      <c r="W2">
-        <v>1.357256813138377E-07</v>
-      </c>
-      <c r="X2">
-        <v>1.302232888281416E-07</v>
-      </c>
-      <c r="Y2">
-        <v>1.247208963424455E-07</v>
-      </c>
-      <c r="Z2">
-        <v>1.192185038567494E-07</v>
-      </c>
-      <c r="AA2">
-        <v>1.137161113710533E-07</v>
-      </c>
-      <c r="AB2">
-        <v>1.082137188853571E-07</v>
-      </c>
-      <c r="AC2">
-        <v>1.02711326399661E-07</v>
-      </c>
-      <c r="AD2">
-        <v>9.720893391396487E-08</v>
-      </c>
-      <c r="AE2">
-        <v>9.170654142826874E-08</v>
-      </c>
-      <c r="AF2">
-        <v>8.620414894257263E-08</v>
-      </c>
-      <c r="AG2">
-        <v>8.07017564568765E-08</v>
-      </c>
-      <c r="AH2">
-        <v>7.519936397118037E-08</v>
-      </c>
-      <c r="AI2">
-        <v>6.969697148548425E-08</v>
-      </c>
-      <c r="AJ2">
-        <v>6.419457899978813E-08</v>
-      </c>
-      <c r="AK2">
-        <v>5.8692186514092E-08</v>
-      </c>
-      <c r="AL2">
-        <v>5.318979402839587E-08</v>
-      </c>
-      <c r="AM2">
-        <v>4.768740154269975E-08</v>
-      </c>
-      <c r="AN2">
-        <v>4.218500905700363E-08</v>
-      </c>
-      <c r="AO2">
-        <v>3.668261657130749E-08</v>
-      </c>
-      <c r="AP2">
-        <v>3.118022408561138E-08</v>
-      </c>
-      <c r="AQ2">
-        <v>2.567783159991526E-08</v>
-      </c>
-      <c r="AR2">
-        <v>2.017543911421912E-08</v>
-      </c>
-      <c r="AS2">
-        <v>1.4673046628523E-08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2E-06</v>
-      </c>
-      <c r="K3">
-        <v>2E-06</v>
-      </c>
-      <c r="L3">
-        <v>2E-06</v>
-      </c>
-      <c r="M3">
-        <v>2E-06</v>
-      </c>
-      <c r="N3">
-        <v>2E-06</v>
-      </c>
-      <c r="O3">
-        <v>2E-06</v>
-      </c>
-      <c r="P3">
-        <v>2E-06</v>
-      </c>
-      <c r="Q3">
-        <v>2E-06</v>
-      </c>
-      <c r="R3">
-        <v>2E-06</v>
-      </c>
-      <c r="S3">
-        <v>2E-06</v>
-      </c>
-      <c r="T3">
-        <v>2E-06</v>
-      </c>
-      <c r="U3">
-        <v>2E-06</v>
-      </c>
-      <c r="V3">
-        <v>1.925E-06</v>
-      </c>
-      <c r="W3">
-        <v>1.85E-06</v>
-      </c>
-      <c r="X3">
-        <v>1.775E-06</v>
-      </c>
-      <c r="Y3">
-        <v>1.7E-06</v>
-      </c>
-      <c r="Z3">
-        <v>1.625E-06</v>
-      </c>
-      <c r="AA3">
-        <v>1.55E-06</v>
-      </c>
-      <c r="AB3">
-        <v>1.475E-06</v>
-      </c>
-      <c r="AC3">
-        <v>1.4E-06</v>
-      </c>
-      <c r="AD3">
-        <v>1.325E-06</v>
-      </c>
-      <c r="AE3">
-        <v>1.25E-06</v>
-      </c>
-      <c r="AF3">
-        <v>1.175E-06</v>
-      </c>
-      <c r="AG3">
-        <v>1.1E-06</v>
-      </c>
-      <c r="AH3">
-        <v>1.025E-06</v>
-      </c>
-      <c r="AI3">
-        <v>9.499999999999999E-07</v>
-      </c>
-      <c r="AJ3">
-        <v>8.75E-07</v>
-      </c>
-      <c r="AK3">
-        <v>8E-07</v>
-      </c>
-      <c r="AL3">
-        <v>7.249999999999998E-07</v>
-      </c>
-      <c r="AM3">
-        <v>6.499999999999999E-07</v>
-      </c>
-      <c r="AN3">
-        <v>5.75E-07</v>
-      </c>
-      <c r="AO3">
-        <v>4.999999999999999E-07</v>
-      </c>
-      <c r="AP3">
-        <v>4.25E-07</v>
-      </c>
-      <c r="AQ3">
-        <v>3.5E-07</v>
-      </c>
-      <c r="AR3">
-        <v>2.749999999999999E-07</v>
-      </c>
-      <c r="AS3">
-        <v>2E-07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>6E-07</v>
-      </c>
-      <c r="K4">
-        <v>6E-07</v>
-      </c>
-      <c r="L4">
-        <v>6E-07</v>
-      </c>
-      <c r="M4">
-        <v>6E-07</v>
-      </c>
-      <c r="N4">
-        <v>6E-07</v>
-      </c>
-      <c r="O4">
-        <v>6E-07</v>
-      </c>
-      <c r="P4">
-        <v>6E-07</v>
-      </c>
-      <c r="Q4">
-        <v>6E-07</v>
-      </c>
-      <c r="R4">
-        <v>6E-07</v>
-      </c>
-      <c r="S4">
-        <v>6E-07</v>
-      </c>
-      <c r="T4">
-        <v>6E-07</v>
-      </c>
-      <c r="U4">
-        <v>6E-07</v>
-      </c>
-      <c r="V4">
-        <v>5.775E-07</v>
-      </c>
-      <c r="W4">
-        <v>5.549999999999999E-07</v>
-      </c>
-      <c r="X4">
-        <v>5.325E-07</v>
-      </c>
-      <c r="Y4">
-        <v>5.1E-07</v>
-      </c>
-      <c r="Z4">
-        <v>4.875E-07</v>
-      </c>
-      <c r="AA4">
-        <v>4.65E-07</v>
-      </c>
-      <c r="AB4">
-        <v>4.424999999999999E-07</v>
-      </c>
-      <c r="AC4">
-        <v>4.200000000000001E-07</v>
-      </c>
-      <c r="AD4">
-        <v>3.975E-07</v>
-      </c>
-      <c r="AE4">
-        <v>3.749999999999999E-07</v>
-      </c>
-      <c r="AF4">
-        <v>3.525E-07</v>
-      </c>
-      <c r="AG4">
-        <v>3.3E-07</v>
-      </c>
-      <c r="AH4">
-        <v>3.075E-07</v>
-      </c>
-      <c r="AI4">
-        <v>2.85E-07</v>
-      </c>
-      <c r="AJ4">
-        <v>2.625E-07</v>
-      </c>
-      <c r="AK4">
-        <v>2.4E-07</v>
-      </c>
-      <c r="AL4">
-        <v>2.175E-07</v>
-      </c>
-      <c r="AM4">
-        <v>1.95E-07</v>
-      </c>
-      <c r="AN4">
-        <v>1.725E-07</v>
-      </c>
-      <c r="AO4">
-        <v>1.5E-07</v>
-      </c>
-      <c r="AP4">
-        <v>1.275E-07</v>
-      </c>
-      <c r="AQ4">
-        <v>1.05E-07</v>
-      </c>
-      <c r="AR4">
-        <v>8.249999999999998E-08</v>
-      </c>
-      <c r="AS4">
-        <v>5.999999999999999E-08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>8.33281081754115E-07</v>
-      </c>
-      <c r="K5">
-        <v>6.56897516206616E-07</v>
-      </c>
-      <c r="L5">
-        <v>5.56735401328225E-07</v>
-      </c>
-      <c r="M5">
-        <v>8.037602737132049E-07</v>
-      </c>
-      <c r="N5">
-        <v>1.66017801222401E-06</v>
-      </c>
-      <c r="O5">
-        <v>1.50350709543189E-06</v>
-      </c>
-      <c r="P5">
-        <v>1.19588042076345E-06</v>
-      </c>
-      <c r="Q5">
-        <v>1.19588042076345E-06</v>
-      </c>
-      <c r="R5">
-        <v>1.19588042076345E-06</v>
-      </c>
-      <c r="S5">
-        <v>1.19588042076345E-06</v>
-      </c>
-      <c r="T5">
-        <v>1.19588042076345E-06</v>
-      </c>
-      <c r="U5">
-        <v>1.19588042076345E-06</v>
-      </c>
-      <c r="V5">
-        <v>1.151034904984821E-06</v>
-      </c>
-      <c r="W5">
-        <v>1.106189389206191E-06</v>
-      </c>
-      <c r="X5">
-        <v>1.061343873427562E-06</v>
-      </c>
-      <c r="Y5">
-        <v>1.016498357648932E-06</v>
-      </c>
-      <c r="Z5">
-        <v>9.716528418703031E-07</v>
-      </c>
-      <c r="AA5">
-        <v>9.268073260916738E-07</v>
-      </c>
-      <c r="AB5">
-        <v>8.819618103130444E-07</v>
-      </c>
-      <c r="AC5">
-        <v>8.371162945344151E-07</v>
-      </c>
-      <c r="AD5">
-        <v>7.922707787557856E-07</v>
-      </c>
-      <c r="AE5">
-        <v>7.474252629771561E-07</v>
-      </c>
-      <c r="AF5">
-        <v>7.02579747198527E-07</v>
-      </c>
-      <c r="AG5">
-        <v>6.577342314198976E-07</v>
-      </c>
-      <c r="AH5">
-        <v>6.128887156412681E-07</v>
-      </c>
-      <c r="AI5">
-        <v>5.680431998626387E-07</v>
-      </c>
-      <c r="AJ5">
-        <v>5.231976840840095E-07</v>
-      </c>
-      <c r="AK5">
-        <v>4.7835216830538E-07</v>
-      </c>
-      <c r="AL5">
-        <v>4.335066525267506E-07</v>
-      </c>
-      <c r="AM5">
-        <v>3.886611367481212E-07</v>
-      </c>
-      <c r="AN5">
-        <v>3.43815620969492E-07</v>
-      </c>
-      <c r="AO5">
-        <v>2.989701051908625E-07</v>
-      </c>
-      <c r="AP5">
-        <v>2.541245894122331E-07</v>
-      </c>
-      <c r="AQ5">
-        <v>2.092790736336038E-07</v>
-      </c>
-      <c r="AR5">
-        <v>1.644335578549743E-07</v>
-      </c>
-      <c r="AS5">
-        <v>1.19588042076345E-07</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>